--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +44,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_fashi_huoqiu_3_02</t>
-  </si>
-  <si>
     <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,40,40</t>
+  </si>
+  <si>
+    <t>2,2,40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_iceball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,9 +470,11 @@
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +488,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -473,13 +511,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -490,13 +537,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -507,13 +563,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -524,13 +589,22 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -541,13 +615,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -558,13 +641,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -575,13 +667,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -592,13 +693,22 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -609,13 +719,22 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -626,14 +745,50 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>skill_iceball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,8 +133,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,29 +477,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -499,22 +517,28 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -525,22 +549,28 @@
       <c r="H2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -551,22 +581,28 @@
       <c r="H3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>10</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -577,22 +613,28 @@
       <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>10</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -603,22 +645,28 @@
       <c r="H5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>10</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -629,22 +677,28 @@
       <c r="H6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -655,22 +709,28 @@
       <c r="H7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>10</v>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -681,22 +741,28 @@
       <c r="H8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>10</v>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -707,22 +773,28 @@
       <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>10</v>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -733,22 +805,28 @@
       <c r="H10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -759,22 +837,28 @@
       <c r="H11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20001</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>10</v>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -784,6 +868,12 @@
       </c>
       <c r="H12">
         <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,29 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰弹球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭雷劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_zhaoleipi</t>
+  </si>
+  <si>
+    <t>是否动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,7 +515,7 @@
     <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +546,14 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -555,8 +584,14 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -587,8 +622,14 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -619,8 +660,14 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -651,8 +698,14 @@
       <c r="J5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -683,8 +736,14 @@
       <c r="J6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -715,8 +774,14 @@
       <c r="J7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -747,8 +812,14 @@
       <c r="J8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -779,8 +850,14 @@
       <c r="J9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -811,8 +888,14 @@
       <c r="J10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -843,8 +926,14 @@
       <c r="J11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -873,6 +962,50 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>30001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,13 @@
   <si>
     <t>是否动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_trump</t>
   </si>
 </sst>
 </file>
@@ -500,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -605,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -643,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -658,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -681,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -696,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -719,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -734,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -757,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -772,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -795,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -810,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -833,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -848,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
@@ -871,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -886,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -909,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -924,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -947,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -962,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -985,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1007,6 +1014,44 @@
       </c>
       <c r="L13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>40001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>6000</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,17 @@
   </si>
   <si>
     <t>skill_trump</t>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_swordair</t>
+  </si>
+  <si>
+    <t>130,83,200,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1052,6 +1063,44 @@
       </c>
       <c r="L14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>50001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,20 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能运动类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linemovement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +121,46 @@
   <si>
     <t>130,83,200,150</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_jpql_03</t>
+  </si>
+  <si>
+    <t>太极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_jpql_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_jpql_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_huimiehuoyu</t>
+  </si>
+  <si>
+    <t>skill_kuanglongzidian</t>
+  </si>
+  <si>
+    <t>skill_qiancheng1</t>
+  </si>
+  <si>
+    <t>skill_shouhuzhiyi</t>
+  </si>
+  <si>
+    <t>skill_youlanaoyi1</t>
+  </si>
+  <si>
+    <t>skill-reduce_luolei</t>
+  </si>
+  <si>
+    <t>sword_176</t>
   </si>
 </sst>
 </file>
@@ -518,19 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -538,51 +571,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>300</v>
@@ -591,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -602,25 +635,25 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>10002</v>
+        <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -629,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -640,25 +673,25 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10003</v>
+        <v>10103</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -667,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -678,25 +711,25 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10004</v>
+        <v>10104</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>300</v>
@@ -705,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -716,25 +749,25 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>10005</v>
+        <v>10105</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>300</v>
@@ -743,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -754,25 +787,25 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>10006</v>
+        <v>10106</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>300</v>
@@ -781,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -792,25 +825,25 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10007</v>
+        <v>10107</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>300</v>
@@ -819,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -830,25 +863,25 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>10008</v>
+        <v>10108</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -857,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -868,25 +901,25 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10009</v>
+        <v>10109</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -895,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -906,25 +939,25 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10010</v>
+        <v>10110</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>300</v>
@@ -933,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -944,25 +977,25 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>20001</v>
+        <v>10201</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>2000</v>
@@ -971,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -982,125 +1015,1227 @@
       <c r="J12">
         <v>9</v>
       </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>30001</v>
+        <v>10202</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>9</v>
       </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>40001</v>
+        <v>10203</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>50001</v>
+        <v>10204</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>10303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>10304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>600</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10401</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>6000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10402</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>6000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>10403</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>6000</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10404</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>6000</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>10405</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>6000</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>10406</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>6000</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>10407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>6000</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>3000</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10502</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>10503</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>10504</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3000</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10505</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10506</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>3000</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10508</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>3000</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10509</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>3000</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10601</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>3000</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>150</v>
+      </c>
+      <c r="J42">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43">
         <v>3000</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>250</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>10603</v>
+      </c>
+      <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>3000</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>350</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="113">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,254 @@
   </si>
   <si>
     <t>sword_176</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术厉害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术厉害2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术厉害5</t>
+  </si>
+  <si>
+    <t>火球术厉害6</t>
+  </si>
+  <si>
+    <t>火球术厉害7</t>
+  </si>
+  <si>
+    <t>火球术厉害8</t>
+  </si>
+  <si>
+    <t>火球术厉害9</t>
+  </si>
+  <si>
+    <t>冰弹球厉害2</t>
+  </si>
+  <si>
+    <t>冰弹球厉害3</t>
+  </si>
+  <si>
+    <t>冰弹球厉害4</t>
+  </si>
+  <si>
+    <t>冰弹球厉害5</t>
+  </si>
+  <si>
+    <t>冰弹球厉害6</t>
+  </si>
+  <si>
+    <t>冰弹球厉害7</t>
+  </si>
+  <si>
+    <t>斩击厉害2</t>
+  </si>
+  <si>
+    <t>斩击厉害3</t>
+  </si>
+  <si>
+    <t>斩击厉害4</t>
+  </si>
+  <si>
+    <t>斩击厉害5</t>
+  </si>
+  <si>
+    <t>斩击厉害6</t>
+  </si>
+  <si>
+    <t>斩击厉害7</t>
+  </si>
+  <si>
+    <t>斩击厉害8</t>
+  </si>
+  <si>
+    <t>斩击厉害9</t>
+  </si>
+  <si>
+    <t>火球术厉害3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术厉害4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术厉害10</t>
+  </si>
+  <si>
+    <t>冰弹球厉害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭雷劈真厉害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭雷劈真厉害2</t>
+  </si>
+  <si>
+    <t>遭雷劈真厉害3</t>
+  </si>
+  <si>
+    <t>遭雷劈真厉害4</t>
+  </si>
+  <si>
+    <t>遭雷劈真厉害5</t>
+  </si>
+  <si>
+    <t>遭雷劈真厉害6</t>
+  </si>
+  <si>
+    <t>遭雷劈真厉害7</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械精灵非常好玩2</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩3</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩4</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩5</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩6</t>
+  </si>
+  <si>
+    <t>机械精灵非常好玩7</t>
+  </si>
+  <si>
+    <t>斩击厉害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极2</t>
+  </si>
+  <si>
+    <t>太极3</t>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_xukongfalidun</t>
+  </si>
+  <si>
+    <t>放毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放毒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放毒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾3</t>
+  </si>
+  <si>
+    <t>护盾4</t>
+  </si>
+  <si>
+    <t>护盾5</t>
+  </si>
+  <si>
+    <t>护盾6</t>
+  </si>
+  <si>
+    <t>护盾7</t>
+  </si>
+  <si>
+    <t>护盾8</t>
+  </si>
+  <si>
+    <t>护盾9</t>
+  </si>
+  <si>
+    <t>放毒3</t>
+  </si>
+  <si>
+    <t>放毒4</t>
+  </si>
+  <si>
+    <t>放毒5</t>
+  </si>
+  <si>
+    <t>放毒6</t>
+  </si>
+  <si>
+    <t>放毒7</t>
+  </si>
+  <si>
+    <t>放毒8</t>
+  </si>
+  <si>
+    <t>放毒9</t>
+  </si>
+  <si>
+    <t>skill_shixueshu1</t>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qifu_qiu_zb</t>
+  </si>
+  <si>
+    <t>2,2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,100,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_youlanaoyi_05</t>
   </si>
 </sst>
 </file>
@@ -551,10 +799,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,10 +811,11 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +852,14 @@
       <c r="L1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -641,8 +896,14 @@
       <c r="L2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -679,8 +940,14 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -691,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -717,8 +984,14 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -755,8 +1028,14 @@
       <c r="L5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -793,8 +1072,14 @@
       <c r="L6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10106</v>
       </c>
@@ -805,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>300</v>
@@ -831,8 +1116,14 @@
       <c r="L7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10107</v>
       </c>
@@ -869,8 +1160,14 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10108</v>
       </c>
@@ -881,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -907,8 +1204,14 @@
       <c r="L9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10109</v>
       </c>
@@ -945,8 +1248,14 @@
       <c r="L10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10110</v>
       </c>
@@ -957,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>300</v>
@@ -983,8 +1292,14 @@
       <c r="L11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10201</v>
       </c>
@@ -1013,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1021,8 +1336,14 @@
       <c r="L12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10202</v>
       </c>
@@ -1051,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1059,8 +1380,14 @@
       <c r="L13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10203</v>
       </c>
@@ -1089,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1097,8 +1424,14 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10204</v>
       </c>
@@ -1127,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1135,8 +1468,14 @@
       <c r="L15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10205</v>
       </c>
@@ -1165,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1173,8 +1512,14 @@
       <c r="L16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10206</v>
       </c>
@@ -1203,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1211,8 +1556,14 @@
       <c r="L17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10207</v>
       </c>
@@ -1241,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1249,8 +1600,14 @@
       <c r="L18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10301</v>
       </c>
@@ -1287,8 +1644,14 @@
       <c r="L19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10302</v>
       </c>
@@ -1325,8 +1688,14 @@
       <c r="L20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10303</v>
       </c>
@@ -1363,8 +1732,14 @@
       <c r="L21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10304</v>
       </c>
@@ -1401,8 +1776,14 @@
       <c r="L22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10305</v>
       </c>
@@ -1439,8 +1820,14 @@
       <c r="L23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10306</v>
       </c>
@@ -1477,8 +1864,14 @@
       <c r="L24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10307</v>
       </c>
@@ -1515,8 +1908,14 @@
       <c r="L25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10401</v>
       </c>
@@ -1553,8 +1952,14 @@
       <c r="L26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10402</v>
       </c>
@@ -1591,8 +1996,14 @@
       <c r="L27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10403</v>
       </c>
@@ -1629,8 +2040,14 @@
       <c r="L28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10404</v>
       </c>
@@ -1667,8 +2084,14 @@
       <c r="L29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10405</v>
       </c>
@@ -1705,8 +2128,14 @@
       <c r="L30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10406</v>
       </c>
@@ -1743,8 +2172,14 @@
       <c r="L31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10407</v>
       </c>
@@ -1781,8 +2216,14 @@
       <c r="L32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10501</v>
       </c>
@@ -1819,8 +2260,14 @@
       <c r="L33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10502</v>
       </c>
@@ -1857,8 +2304,14 @@
       <c r="L34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10503</v>
       </c>
@@ -1895,8 +2348,14 @@
       <c r="L35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10504</v>
       </c>
@@ -1933,8 +2392,14 @@
       <c r="L36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>10505</v>
       </c>
@@ -1971,8 +2436,14 @@
       <c r="L37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>10506</v>
       </c>
@@ -2009,8 +2480,14 @@
       <c r="L38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10507</v>
       </c>
@@ -2047,8 +2524,14 @@
       <c r="L39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>10508</v>
       </c>
@@ -2085,8 +2568,14 @@
       <c r="L40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>10509</v>
       </c>
@@ -2123,8 +2612,14 @@
       <c r="L41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10601</v>
       </c>
@@ -2153,7 +2648,7 @@
         <v>150</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2161,8 +2656,14 @@
       <c r="L42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10602</v>
       </c>
@@ -2199,8 +2700,14 @@
       <c r="L43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>10603</v>
       </c>
@@ -2236,6 +2743,804 @@
       </c>
       <c r="L44" t="s">
         <v>36</v>
+      </c>
+      <c r="M44" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>10701</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>350</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>10702</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>350</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10703</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>350</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M47" t="s">
+        <v>89</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10704</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>350</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>85</v>
+      </c>
+      <c r="M48" t="s">
+        <v>90</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>10705</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>350</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10706</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>350</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10707</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>350</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" t="s">
+        <v>93</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10708</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52">
+        <v>500</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>350</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>10709</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>350</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10801</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54">
+        <v>4000</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>150</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" t="s">
+        <v>87</v>
+      </c>
+      <c r="N54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>10802</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55">
+        <v>4000</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>150</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" t="s">
+        <v>88</v>
+      </c>
+      <c r="N55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>10803</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56">
+        <v>4000</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>150</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>10804</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>4000</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>150</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>103</v>
+      </c>
+      <c r="M57" t="s">
+        <v>97</v>
+      </c>
+      <c r="N57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>10805</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58">
+        <v>4000</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>350</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>103</v>
+      </c>
+      <c r="M58" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10806</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <v>4000</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>350</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>103</v>
+      </c>
+      <c r="M59" t="s">
+        <v>99</v>
+      </c>
+      <c r="N59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>10807</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60">
+        <v>4000</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>350</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>103</v>
+      </c>
+      <c r="M60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>10808</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61">
+        <v>4000</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>350</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>103</v>
+      </c>
+      <c r="M61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10809</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62">
+        <v>4000</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>350</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>103</v>
+      </c>
+      <c r="M62" t="s">
+        <v>102</v>
+      </c>
+      <c r="N62">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
+    <sheet name="技能分析表" sheetId="7" r:id="rId2"/>
+    <sheet name="技能信息收集" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="214">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +411,404 @@
   </si>
   <si>
     <t>skill_youlanaoyi_05</t>
+  </si>
+  <si>
+    <t>事件的难度原来是阶梯式的，每两级之间有一个不同点。但难度在于增加了随机性，导致整体上的较大差别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些本质上的东西是不能乱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这容易确定游戏的风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它包含着类型的区分，和成长的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这说明了什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这其实是一套模板，从现实中提取你可以理解的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我会想到，天龙八部，为什么想要里面的招式，之前有一款游戏已经这么做了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云锁链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霜拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分归元气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮吼功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指神通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排云掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外buffer效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续性发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见龙在田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双龙取水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙忽用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突如其来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震惊百里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风扫叶腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指神通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劈空掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女素心剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪迹天涯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花前月下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虹经天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚琴按箫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯然销毁掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独孤九剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破气式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破箭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破掌式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破索式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破鞭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破枪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破刀式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破剑式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡北斗阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花聚顶掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排云掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水行云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披云带月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻云覆雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排山倒海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌云蔽日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重云深锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕天排云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云海波涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来神掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光初现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛抱怀容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎佛西天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光普照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛法无边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佛降世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛动山河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万佛朝宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霜拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追命十一退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下无狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,12 +832,186 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,11 +1028,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,7 +1462,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
@@ -3548,4 +4209,555 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28"/>
+      <c r="K3" s="2"/>
+      <c r="L3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="2"/>
+      <c r="L4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="2"/>
+      <c r="L6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="2"/>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F15" s="2"/>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="技能信息收集" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">技能分析表!$L$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="268">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星云锁链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神圣光环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,7 +474,545 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三分归元气</t>
+    <t>散弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指神通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排云掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外buffer效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续性发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见龙在田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双龙取水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙忽用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突如其来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震惊百里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风扫叶腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女素心剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪迹天涯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花前月下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虹经天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚琴按箫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯然销毁掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独孤九剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破气式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破箭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破掌式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破索式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破鞭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破枪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破刀式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破剑式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡北斗阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水行云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披云带月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻云覆雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排山倒海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌云蔽日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重云深锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕天排云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云海波涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来神掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光初现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛抱怀容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎佛西天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光普照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛法无边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佛降世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛动山河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万佛朝宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下无狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就像人的成长一样，每日在昨日的基础之上提升一点，日积月累后便会有较大的不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辟邪剑谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阴真经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤大挪移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围变大是成长的关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛法普照</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,329 +1020,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散弹枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙击枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹指神通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排云掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风神腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风神腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞭子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外buffer效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精确度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续性发射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-  </si>
-  <si>
-    <t>4级</t>
-  </si>
-  <si>
-    <t>5级</t>
-  </si>
-  <si>
-    <t>6级</t>
-  </si>
-  <si>
-    <t>7级</t>
-  </si>
-  <si>
-    <t>8级</t>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见龙在田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞龙在天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亢龙有悔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙战于野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双龙取水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜龙忽用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突如其来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震惊百里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风扫叶腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧波掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹指神通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劈空掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉女素心剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪迹天涯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花前月下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白虹经天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抚琴按箫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯然销毁掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破气式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破箭式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破掌式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破索式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破鞭式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破枪式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破刀式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破剑式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡北斗阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三花聚顶掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排云掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水行云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披云带月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻云覆雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排山倒海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌云蔽日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重云深锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕天排云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云海波涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如来神掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛光初现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛抱怀容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎佛西天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛光普照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛法无边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天佛降世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛动山河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万佛朝宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天霜拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追命十一退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万剑归宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打狗棒法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天下无狗</t>
+    <t>迷宗拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙抓手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1337,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1685,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
@@ -4213,53 +4436,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="8.25" customWidth="1"/>
+    <col min="16" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="5.75" customWidth="1"/>
+    <col min="19" max="19" width="10.375" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="26" max="26" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -4271,12 +4535,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -4288,15 +4582,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T3" t="s">
+        <v>212</v>
+      </c>
+      <c r="U3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -4308,12 +4629,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -4324,10 +4675,43 @@
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -4339,15 +4723,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -4359,10 +4770,43 @@
       <c r="I7" s="21"/>
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" t="s">
+        <v>227</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -4374,10 +4818,43 @@
       <c r="I8" s="3"/>
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -4390,12 +4867,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+      <c r="M9" t="s">
+        <v>227</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -4407,10 +4914,43 @@
       <c r="I10" s="3"/>
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -4423,12 +4963,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T11" t="s">
+        <v>212</v>
+      </c>
+      <c r="U11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -4437,10 +5007,43 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" t="s">
+        <v>211</v>
+      </c>
+      <c r="T12" t="s">
+        <v>212</v>
+      </c>
+      <c r="U12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4452,8 +5055,41 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4465,14 +5101,77 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
-      <c r="O15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
         <v>118</v>
       </c>
@@ -4480,34 +5179,187 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="O16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U16" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="O18" t="s">
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="V22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="L1:U19"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4517,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4528,232 +5380,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>160</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
         <v>174</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D10" t="s">
         <v>175</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F10" t="s">
         <v>177</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="H10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="I10" t="s">
         <v>180</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>181</v>
       </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
         <v>200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="376">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1466,6 +1466,32 @@
   </si>
   <si>
     <t>2,2,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标表的优点：
+1.确定每个点所在的位置，将想法可视化。
+2.可以用来总结规律。
+3.多种类型同时存在，暗含着每种类型之间的关系，和单个类型的成长趋势。
+4.同一种物品，同时保持多种类型的存在。
+5.在同一张表里，显示了其多样性，多种信息，能够更加全面的看到事物发展的过程。
+6.将杂乱的信息等到了一次整理和归纳。
+生活中有哪些类似的情况：
+1.书架
+2.剧情发展规划。
+3.音乐
+4.构建自己的书单
+理解构建坐标表的方式：
+横轴是时间
+纵轴是数值的提升
+根据两个变量推出该表
+意义：
+以后根据不同变量可以组合出各式各样的坐标表，来适用各种的分类。通过不同的分类就可以看到自己接下来的目标和成长。
+训练：
+通用生活中的情况，来训练自己构建坐标的思维方式和不断认识坐标表的使用方式。专注与一种有效的方式就行。建立坐标表的思维方式。
+注意：
+1.每个表都有其独特性，并不是所有的表都一样，所以注意观察，反思和总结才能得到最合适的那张表的表现。
+2.每张表的宗旨是一眼能看出她表达出来的含义，不要为了增加它的多样性，而使它的理解难度增加。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,6 +1859,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2174,8 +2203,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7197,10 +7226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8386,10 +8415,523 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
+    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H45" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+    </row>
+    <row r="49" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+    </row>
+    <row r="50" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+    </row>
+    <row r="51" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+    </row>
+    <row r="52" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+    </row>
+    <row r="53" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+    </row>
+    <row r="54" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+    </row>
+    <row r="55" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+    </row>
+    <row r="56" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+    </row>
+    <row r="57" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+    </row>
+    <row r="58" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+    </row>
+    <row r="59" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+    </row>
+    <row r="60" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+    </row>
+    <row r="61" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+    </row>
+    <row r="62" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+    </row>
+    <row r="63" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+    </row>
+    <row r="64" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+    </row>
+    <row r="65" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+    </row>
+    <row r="66" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+    </row>
+    <row r="67" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+    </row>
+    <row r="68" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+    </row>
+    <row r="69" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+    </row>
+    <row r="70" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+    </row>
+    <row r="71" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+    </row>
+    <row r="72" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+    </row>
+    <row r="73" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+    </row>
+    <row r="74" spans="8:22" x14ac:dyDescent="0.15">
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A42:X42"/>
     <mergeCell ref="X6:Z31"/>
+    <mergeCell ref="H45:V74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -2203,8 +2203,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5014,10 +5015,10 @@
         <v>374</v>
       </c>
       <c r="K63">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L63">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5061,10 +5062,10 @@
         <v>374</v>
       </c>
       <c r="K64">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L64">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -5108,10 +5109,10 @@
         <v>374</v>
       </c>
       <c r="K65">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L65">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -5155,10 +5156,10 @@
         <v>374</v>
       </c>
       <c r="K66">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L66">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -5202,10 +5203,10 @@
         <v>374</v>
       </c>
       <c r="K67">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L67">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -5249,10 +5250,10 @@
         <v>374</v>
       </c>
       <c r="K68">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L68">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -5296,10 +5297,10 @@
         <v>374</v>
       </c>
       <c r="K69">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L69">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -5343,10 +5344,10 @@
         <v>374</v>
       </c>
       <c r="K70">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L70">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -7228,7 +7229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -1458,9 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_firebunch</t>
-  </si>
-  <si>
     <t>释放间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1493,6 +1490,9 @@
 1.每个表都有其独特性，并不是所有的表都一样，所以注意观察，反思和总结才能得到最合适的那张表的表现。
 2.每张表的宗旨是一眼能看出她表达出来的含义，不要为了增加它的多样性，而使它的理解难度增加。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_mizongquan</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2204,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q74" sqref="Q74"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2245,7 +2245,7 @@
         <v>272</v>
       </c>
       <c r="H1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -5000,7 +5000,7 @@
         <v>360</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K63">
         <v>20</v>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="s">
         <v>364</v>
@@ -5047,7 +5047,7 @@
         <v>360</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="s">
         <v>364</v>
@@ -5094,7 +5094,7 @@
         <v>360</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K65">
         <v>20</v>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="s">
         <v>364</v>
@@ -5141,7 +5141,7 @@
         <v>360</v>
       </c>
       <c r="D66" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K66">
         <v>20</v>
@@ -5165,7 +5165,7 @@
         <v>2</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="s">
         <v>364</v>
@@ -5188,7 +5188,7 @@
         <v>360</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K67">
         <v>20</v>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="s">
         <v>364</v>
@@ -5235,7 +5235,7 @@
         <v>360</v>
       </c>
       <c r="D68" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F68">
         <v>100</v>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K68">
         <v>20</v>
@@ -5259,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="s">
         <v>364</v>
@@ -5282,7 +5282,7 @@
         <v>360</v>
       </c>
       <c r="D69" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F69">
         <v>100</v>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K69">
         <v>20</v>
@@ -5306,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="s">
         <v>364</v>
@@ -5329,7 +5329,7 @@
         <v>360</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K70">
         <v>20</v>
@@ -5353,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="s">
         <v>364</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
-    <sheet name="技能分析表" sheetId="7" r:id="rId2"/>
-    <sheet name="技能信息收集" sheetId="8" r:id="rId3"/>
-    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId4"/>
-    <sheet name="技能分类坐标" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="技能分析表" sheetId="7" r:id="rId3"/>
+    <sheet name="技能信息收集" sheetId="8" r:id="rId4"/>
+    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId5"/>
+    <sheet name="技能分类坐标" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">技能分析表!$L$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能分析表!$L$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="380">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,6 +1494,22 @@
   </si>
   <si>
     <t>fire_mizongquan</t>
+  </si>
+  <si>
+    <t>粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2204,8 +2221,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2351,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2395,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2439,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2483,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2527,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2571,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2615,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2659,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2703,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2791,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2879,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2923,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2967,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3011,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3099,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3143,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3187,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3231,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3275,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3319,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3363,7 +3380,7 @@
         <v>200</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3407,7 +3424,7 @@
         <v>200</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3495,7 +3512,7 @@
         <v>200</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3539,7 +3556,7 @@
         <v>200</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3583,7 +3600,7 @@
         <v>200</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3627,7 +3644,7 @@
         <v>200</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4138,7 +4155,7 @@
         <v>250</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -4182,7 +4199,7 @@
         <v>350</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -5373,6 +5390,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J8:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>376</v>
+      </c>
+      <c r="K8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" t="s">
+        <v>378</v>
+      </c>
+      <c r="M8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -6322,7 +6369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -6571,7 +6618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
@@ -7225,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
-    <sheet name="技能分析表" sheetId="7" r:id="rId3"/>
-    <sheet name="技能信息收集" sheetId="8" r:id="rId4"/>
-    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId5"/>
-    <sheet name="技能分类坐标" sheetId="10" r:id="rId6"/>
+    <sheet name="场景技能" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="技能分析表" sheetId="7" r:id="rId4"/>
+    <sheet name="技能信息收集" sheetId="8" r:id="rId5"/>
+    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId6"/>
+    <sheet name="技能分类坐标" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能分析表!$L$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">技能分析表!$L$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="387">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,10 +993,6 @@
   </si>
   <si>
     <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1509,6 +1506,36 @@
   </si>
   <si>
     <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_pt</t>
+  </si>
+  <si>
+    <t>拖尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_siwangmaichong1</t>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,11 +2245,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2236,10 +2263,12 @@
     <col min="9" max="9" width="7.875" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="16" max="16" width="21.75" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2250,19 +2279,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
-        <v>363</v>
-      </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -2292,10 +2321,19 @@
         <v>107</v>
       </c>
       <c r="R1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" t="s">
+        <v>381</v>
+      </c>
+      <c r="T1" t="s">
+        <v>385</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -2336,10 +2374,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -2380,10 +2421,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
+        <v>380</v>
+      </c>
+      <c r="U3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -2424,10 +2468,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
+        <v>380</v>
+      </c>
+      <c r="U4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -2468,10 +2515,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
+        <v>380</v>
+      </c>
+      <c r="U5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -2512,10 +2562,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
+        <v>380</v>
+      </c>
+      <c r="U6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10106</v>
       </c>
@@ -2556,10 +2609,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10107</v>
       </c>
@@ -2600,10 +2656,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
+        <v>380</v>
+      </c>
+      <c r="U8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10108</v>
       </c>
@@ -2644,10 +2703,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
+        <v>380</v>
+      </c>
+      <c r="U9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10109</v>
       </c>
@@ -2688,10 +2750,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>380</v>
+      </c>
+      <c r="U10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10110</v>
       </c>
@@ -2732,10 +2797,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
+        <v>380</v>
+      </c>
+      <c r="U11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10201</v>
       </c>
@@ -2776,10 +2844,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>380</v>
+      </c>
+      <c r="U12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10202</v>
       </c>
@@ -2820,10 +2891,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10203</v>
       </c>
@@ -2864,10 +2938,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>380</v>
+      </c>
+      <c r="U14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10204</v>
       </c>
@@ -2908,10 +2985,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
+        <v>380</v>
+      </c>
+      <c r="U15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10205</v>
       </c>
@@ -2952,10 +3032,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
+        <v>380</v>
+      </c>
+      <c r="U16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10206</v>
       </c>
@@ -2996,10 +3079,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
+        <v>380</v>
+      </c>
+      <c r="U17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10207</v>
       </c>
@@ -3040,10 +3126,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>380</v>
+      </c>
+      <c r="U18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10301</v>
       </c>
@@ -3083,11 +3172,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10302</v>
       </c>
@@ -3127,11 +3216,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10303</v>
       </c>
@@ -3171,11 +3260,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10304</v>
       </c>
@@ -3215,11 +3304,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10305</v>
       </c>
@@ -3259,11 +3348,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10306</v>
       </c>
@@ -3303,11 +3392,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10307</v>
       </c>
@@ -3347,11 +3436,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10401</v>
       </c>
@@ -3392,10 +3481,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
+        <v>380</v>
+      </c>
+      <c r="U26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10402</v>
       </c>
@@ -3436,10 +3528,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
+        <v>380</v>
+      </c>
+      <c r="U27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10403</v>
       </c>
@@ -3480,10 +3575,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
+        <v>380</v>
+      </c>
+      <c r="U28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10404</v>
       </c>
@@ -3524,10 +3622,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
+        <v>380</v>
+      </c>
+      <c r="U29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10405</v>
       </c>
@@ -3568,10 +3669,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
+        <v>380</v>
+      </c>
+      <c r="U30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10406</v>
       </c>
@@ -3612,10 +3716,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
+        <v>380</v>
+      </c>
+      <c r="U31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10407</v>
       </c>
@@ -3656,10 +3763,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
+        <v>380</v>
+      </c>
+      <c r="U32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10501</v>
       </c>
@@ -3693,20 +3803,17 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
-        <v>259</v>
-      </c>
       <c r="P33" t="s">
         <v>31</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
+      <c r="U33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10502</v>
       </c>
@@ -3740,20 +3847,17 @@
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
-        <v>259</v>
-      </c>
       <c r="P34" t="s">
         <v>31</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" t="s">
+      <c r="U34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10503</v>
       </c>
@@ -3787,20 +3891,17 @@
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
-        <v>259</v>
-      </c>
       <c r="P35" t="s">
         <v>31</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10504</v>
       </c>
@@ -3834,20 +3935,17 @@
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" t="s">
-        <v>259</v>
-      </c>
       <c r="P36" t="s">
         <v>31</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>10505</v>
       </c>
@@ -3881,20 +3979,17 @@
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
-        <v>259</v>
-      </c>
       <c r="P37" t="s">
         <v>31</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" t="s">
+      <c r="U37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>10506</v>
       </c>
@@ -3928,20 +4023,17 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
-        <v>259</v>
-      </c>
       <c r="P38" t="s">
         <v>31</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10507</v>
       </c>
@@ -3975,20 +4067,17 @@
       <c r="N39">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
-        <v>259</v>
-      </c>
       <c r="P39" t="s">
         <v>31</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>10508</v>
       </c>
@@ -4022,20 +4111,17 @@
       <c r="N40">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
-        <v>259</v>
-      </c>
       <c r="P40" t="s">
         <v>31</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" t="s">
+      <c r="U40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>10509</v>
       </c>
@@ -4069,20 +4155,17 @@
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
-        <v>259</v>
-      </c>
       <c r="P41" t="s">
         <v>31</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
+      <c r="U41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10601</v>
       </c>
@@ -4123,10 +4206,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
+        <v>380</v>
+      </c>
+      <c r="U42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10602</v>
       </c>
@@ -4167,10 +4253,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
+        <v>380</v>
+      </c>
+      <c r="U43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>10603</v>
       </c>
@@ -4211,10 +4300,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
+        <v>380</v>
+      </c>
+      <c r="U44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>10701</v>
       </c>
@@ -4254,11 +4346,11 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>10702</v>
       </c>
@@ -4298,11 +4390,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>10703</v>
       </c>
@@ -4342,11 +4434,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" t="s">
+      <c r="U47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>10704</v>
       </c>
@@ -4386,11 +4478,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" t="s">
+      <c r="U48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>10705</v>
       </c>
@@ -4430,11 +4522,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" t="s">
+      <c r="U49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>10706</v>
       </c>
@@ -4474,11 +4566,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" t="s">
+      <c r="U50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>10707</v>
       </c>
@@ -4518,11 +4610,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" t="s">
+      <c r="U51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>10708</v>
       </c>
@@ -4562,11 +4654,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" t="s">
+      <c r="U52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>10709</v>
       </c>
@@ -4606,11 +4698,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" t="s">
+      <c r="U53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>10801</v>
       </c>
@@ -4650,11 +4742,17 @@
       <c r="Q54">
         <v>2000</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
+        <v>382</v>
+      </c>
+      <c r="T54">
+        <v>20101</v>
+      </c>
+      <c r="U54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>10802</v>
       </c>
@@ -4694,11 +4792,17 @@
       <c r="Q55">
         <v>2000</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
+        <v>382</v>
+      </c>
+      <c r="T55">
+        <v>20101</v>
+      </c>
+      <c r="U55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>10803</v>
       </c>
@@ -4738,11 +4842,17 @@
       <c r="Q56">
         <v>2000</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
+        <v>382</v>
+      </c>
+      <c r="T56">
+        <v>20101</v>
+      </c>
+      <c r="U56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>10804</v>
       </c>
@@ -4782,11 +4892,17 @@
       <c r="Q57">
         <v>2000</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
+        <v>382</v>
+      </c>
+      <c r="T57">
+        <v>20101</v>
+      </c>
+      <c r="U57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>10805</v>
       </c>
@@ -4826,11 +4942,17 @@
       <c r="Q58">
         <v>2000</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
+        <v>382</v>
+      </c>
+      <c r="T58">
+        <v>20101</v>
+      </c>
+      <c r="U58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>10806</v>
       </c>
@@ -4870,11 +4992,17 @@
       <c r="Q59">
         <v>2000</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
+        <v>382</v>
+      </c>
+      <c r="T59">
+        <v>20101</v>
+      </c>
+      <c r="U59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>10807</v>
       </c>
@@ -4914,11 +5042,17 @@
       <c r="Q60">
         <v>2000</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
+        <v>382</v>
+      </c>
+      <c r="T60">
+        <v>20101</v>
+      </c>
+      <c r="U60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>10808</v>
       </c>
@@ -4958,11 +5092,17 @@
       <c r="Q61">
         <v>2000</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
+        <v>382</v>
+      </c>
+      <c r="T61">
+        <v>20101</v>
+      </c>
+      <c r="U61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>10809</v>
       </c>
@@ -5002,22 +5142,28 @@
       <c r="Q62">
         <v>2000</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
+        <v>382</v>
+      </c>
+      <c r="T62">
+        <v>20101</v>
+      </c>
+      <c r="U62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>10901</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5029,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K63">
         <v>20</v>
@@ -5044,27 +5190,30 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>380</v>
+      </c>
+      <c r="U63" t="s">
         <v>364</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>10902</v>
       </c>
       <c r="B64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5076,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -5091,27 +5240,30 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>10903</v>
       </c>
       <c r="B65" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5123,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K65">
         <v>20</v>
@@ -5138,27 +5290,30 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>10904</v>
       </c>
       <c r="B66" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -5170,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K66">
         <v>20</v>
@@ -5185,27 +5340,30 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U66" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>10905</v>
       </c>
       <c r="B67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -5217,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K67">
         <v>20</v>
@@ -5232,27 +5390,30 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>10906</v>
       </c>
       <c r="B68" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F68">
         <v>100</v>
@@ -5264,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K68">
         <v>20</v>
@@ -5279,27 +5440,30 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>10907</v>
       </c>
       <c r="B69" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F69">
         <v>100</v>
@@ -5311,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K69">
         <v>20</v>
@@ -5326,27 +5490,30 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="U69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>10908</v>
       </c>
       <c r="B70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -5358,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K70">
         <v>20</v>
@@ -5373,13 +5540,16 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>371</v>
+        <v>380</v>
+      </c>
+      <c r="U70" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5390,6 +5560,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" t="s">
+        <v>381</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2">
+        <v>2000</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>2000</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>2000</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6">
+        <v>2000</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J8:M8"/>
   <sheetViews>
@@ -5401,16 +5831,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" t="s">
         <v>376</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>377</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>378</v>
-      </c>
-      <c r="M8" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +5849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -5447,7 +5877,7 @@
         <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
         <v>135</v>
@@ -5456,19 +5886,19 @@
         <v>134</v>
       </c>
       <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" t="s">
-        <v>273</v>
       </c>
       <c r="H1" t="s">
         <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J1" t="s">
         <v>132</v>
@@ -5478,7 +5908,7 @@
         <v>137</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N1" t="s">
         <v>135</v>
@@ -5487,19 +5917,19 @@
         <v>134</v>
       </c>
       <c r="P1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R1" t="s">
         <v>272</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" t="s">
-        <v>273</v>
       </c>
       <c r="S1" t="s">
         <v>133</v>
       </c>
       <c r="T1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
@@ -5661,7 +6091,7 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>215</v>
@@ -6241,7 +6671,7 @@
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -6252,7 +6682,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L18" s="34" t="s">
         <v>181</v>
@@ -6354,7 +6784,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
@@ -6369,7 +6799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -6618,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
@@ -6641,37 +7071,37 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>267</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>268</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>269</v>
-      </c>
-      <c r="I1" t="s">
-        <v>270</v>
       </c>
       <c r="K1" t="s">
         <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M1" t="s">
         <v>135</v>
@@ -6680,19 +7110,19 @@
         <v>134</v>
       </c>
       <c r="O1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" t="s">
         <v>272</v>
       </c>
-      <c r="P1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" t="s">
         <v>273</v>
-      </c>
-      <c r="R1" t="s">
-        <v>311</v>
-      </c>
-      <c r="S1" t="s">
-        <v>274</v>
       </c>
       <c r="T1" t="s">
         <v>132</v>
@@ -6700,7 +7130,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6723,7 +7153,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -6746,7 +7176,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6769,7 +7199,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -6792,7 +7222,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6815,7 +7245,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -6839,7 +7269,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6863,7 +7293,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6887,7 +7317,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6911,7 +7341,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6935,7 +7365,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6955,7 +7385,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -6967,7 +7397,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6979,7 +7409,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6989,12 +7419,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -7006,7 +7436,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -7016,15 +7446,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -7034,15 +7464,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -7052,12 +7482,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -7069,7 +7499,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -7079,12 +7509,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -7096,7 +7526,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -7108,7 +7538,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -7120,7 +7550,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -7130,12 +7560,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -7147,7 +7577,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -7159,7 +7589,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -7171,7 +7601,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -7183,7 +7613,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -7195,7 +7625,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -7207,7 +7637,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -7219,7 +7649,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -7231,7 +7661,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -7255,15 +7685,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="I37" t="s">
         <v>308</v>
-      </c>
-      <c r="I37" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7272,7 +7702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
@@ -7338,7 +7768,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -7391,7 +7821,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7412,14 +7842,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7435,7 +7865,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -7445,7 +7875,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
@@ -7470,7 +7900,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -7492,7 +7922,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -7610,7 +8040,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -7636,14 +8066,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -7657,7 +8087,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -7686,7 +8116,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -7724,13 +8154,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -7784,7 +8214,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -7815,7 +8245,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -7875,7 +8305,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -7931,7 +8361,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -7950,7 +8380,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -7974,7 +8404,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -7982,7 +8412,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -8063,15 +8493,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -8127,7 +8557,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -8199,7 +8629,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8229,11 +8659,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -8378,10 +8808,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -8408,28 +8838,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -8437,7 +8867,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -8465,7 +8895,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -2248,8 +2248,8 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4317,7 +4317,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="G45">
         <v>500</v>
@@ -4361,7 +4361,7 @@
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="G46">
         <v>500</v>
@@ -4713,7 +4713,7 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G54">
         <v>4000</v>
@@ -4763,7 +4763,7 @@
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G55">
         <v>4000</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -2247,9 +2247,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="396">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,6 @@
   </si>
   <si>
     <t>2,2,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,100,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1523,20 +1519,52 @@
     <t>skill_siwangmaichong1</t>
   </si>
   <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>场景技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,200,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔触发伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_skill_fss</t>
+  </si>
+  <si>
+    <t>effect_skill_hbj</t>
+  </si>
+  <si>
+    <t>effect_skill_lhh</t>
+  </si>
+  <si>
+    <t>effect_skill_lls</t>
+  </si>
+  <si>
+    <t>effect_skill_sy</t>
+  </si>
+  <si>
+    <t>effect_skill_xkfld</t>
+  </si>
+  <si>
+    <t>effect_action_transfer</t>
+  </si>
+  <si>
+    <t>effect_skill_ccjf</t>
   </si>
 </sst>
 </file>
@@ -2245,11 +2273,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2258,17 +2286,19 @@
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="9" max="9" width="7.875" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="16" max="16" width="21.75" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="24.625" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="22" width="15.875" customWidth="1"/>
+    <col min="23" max="23" width="19.5" customWidth="1"/>
+    <col min="24" max="24" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2279,19 +2309,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
         <v>360</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" t="s">
-        <v>362</v>
-      </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -2312,28 +2342,37 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="S1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="T1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="U1" t="s">
+        <v>382</v>
+      </c>
+      <c r="V1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W1" t="s">
+        <v>387</v>
+      </c>
+      <c r="X1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -2373,14 +2412,20 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="S2" t="s">
+        <v>379</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>390</v>
+      </c>
+      <c r="X2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -2420,14 +2465,20 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>380</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="S3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>390</v>
+      </c>
+      <c r="X3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -2467,14 +2518,20 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
-        <v>380</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="S4" t="s">
+        <v>379</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>390</v>
+      </c>
+      <c r="X4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -2514,14 +2571,20 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
-        <v>380</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="S5" t="s">
+        <v>379</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>390</v>
+      </c>
+      <c r="X5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -2561,14 +2624,20 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
-        <v>380</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="S6" t="s">
+        <v>379</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>390</v>
+      </c>
+      <c r="X6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10106</v>
       </c>
@@ -2608,14 +2677,20 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
-        <v>380</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="S7" t="s">
+        <v>379</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>390</v>
+      </c>
+      <c r="X7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10107</v>
       </c>
@@ -2655,14 +2730,20 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
-        <v>380</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="S8" t="s">
+        <v>379</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>390</v>
+      </c>
+      <c r="X8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10108</v>
       </c>
@@ -2702,14 +2783,20 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" t="s">
-        <v>380</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="S9" t="s">
+        <v>379</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>390</v>
+      </c>
+      <c r="X9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10109</v>
       </c>
@@ -2749,14 +2836,20 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>380</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="S10" t="s">
+        <v>379</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>390</v>
+      </c>
+      <c r="X10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10110</v>
       </c>
@@ -2796,14 +2889,20 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>380</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="S11" t="s">
+        <v>379</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>390</v>
+      </c>
+      <c r="X11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10201</v>
       </c>
@@ -2843,14 +2942,20 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
-        <v>380</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="S12" t="s">
+        <v>379</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>389</v>
+      </c>
+      <c r="X12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10202</v>
       </c>
@@ -2890,14 +2995,20 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="S13" t="s">
+        <v>379</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>389</v>
+      </c>
+      <c r="X13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10203</v>
       </c>
@@ -2937,14 +3048,20 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" t="s">
-        <v>380</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="S14" t="s">
+        <v>379</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>389</v>
+      </c>
+      <c r="X14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10204</v>
       </c>
@@ -2984,14 +3101,20 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>380</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="S15" t="s">
+        <v>379</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>389</v>
+      </c>
+      <c r="X15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10205</v>
       </c>
@@ -3031,14 +3154,20 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" t="s">
-        <v>380</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="S16" t="s">
+        <v>379</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>389</v>
+      </c>
+      <c r="X16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10206</v>
       </c>
@@ -3078,14 +3207,20 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
-        <v>380</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="S17" t="s">
+        <v>379</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17" t="s">
+        <v>389</v>
+      </c>
+      <c r="X17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10207</v>
       </c>
@@ -3125,14 +3260,20 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>380</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="S18" t="s">
+        <v>379</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18" t="s">
+        <v>389</v>
+      </c>
+      <c r="X18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10301</v>
       </c>
@@ -3172,11 +3313,17 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19">
+        <v>99</v>
+      </c>
+      <c r="W19" t="s">
+        <v>391</v>
+      </c>
+      <c r="X19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10302</v>
       </c>
@@ -3216,11 +3363,17 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20">
+        <v>99</v>
+      </c>
+      <c r="W20" t="s">
+        <v>391</v>
+      </c>
+      <c r="X20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10303</v>
       </c>
@@ -3260,11 +3413,17 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21">
+        <v>99</v>
+      </c>
+      <c r="W21" t="s">
+        <v>391</v>
+      </c>
+      <c r="X21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10304</v>
       </c>
@@ -3304,11 +3463,17 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22">
+        <v>99</v>
+      </c>
+      <c r="W22" t="s">
+        <v>391</v>
+      </c>
+      <c r="X22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10305</v>
       </c>
@@ -3348,11 +3513,17 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23">
+        <v>99</v>
+      </c>
+      <c r="W23" t="s">
+        <v>391</v>
+      </c>
+      <c r="X23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10306</v>
       </c>
@@ -3392,11 +3563,17 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24">
+        <v>99</v>
+      </c>
+      <c r="W24" t="s">
+        <v>391</v>
+      </c>
+      <c r="X24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10307</v>
       </c>
@@ -3436,11 +3613,17 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25">
+        <v>99</v>
+      </c>
+      <c r="W25" t="s">
+        <v>391</v>
+      </c>
+      <c r="X25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10401</v>
       </c>
@@ -3480,14 +3663,20 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" t="s">
-        <v>380</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="S26" t="s">
+        <v>379</v>
+      </c>
+      <c r="V26">
+        <v>99</v>
+      </c>
+      <c r="W26" t="s">
+        <v>392</v>
+      </c>
+      <c r="X26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10402</v>
       </c>
@@ -3527,14 +3716,20 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" t="s">
-        <v>380</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="S27" t="s">
+        <v>379</v>
+      </c>
+      <c r="V27">
+        <v>99</v>
+      </c>
+      <c r="W27" t="s">
+        <v>392</v>
+      </c>
+      <c r="X27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10403</v>
       </c>
@@ -3574,14 +3769,20 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
-        <v>380</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="S28" t="s">
+        <v>379</v>
+      </c>
+      <c r="V28">
+        <v>99</v>
+      </c>
+      <c r="W28" t="s">
+        <v>392</v>
+      </c>
+      <c r="X28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10404</v>
       </c>
@@ -3621,14 +3822,20 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>380</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="S29" t="s">
+        <v>379</v>
+      </c>
+      <c r="V29">
+        <v>99</v>
+      </c>
+      <c r="W29" t="s">
+        <v>392</v>
+      </c>
+      <c r="X29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10405</v>
       </c>
@@ -3668,14 +3875,20 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>380</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="S30" t="s">
+        <v>379</v>
+      </c>
+      <c r="V30">
+        <v>99</v>
+      </c>
+      <c r="W30" t="s">
+        <v>392</v>
+      </c>
+      <c r="X30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10406</v>
       </c>
@@ -3715,14 +3928,20 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" t="s">
-        <v>380</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="S31" t="s">
+        <v>379</v>
+      </c>
+      <c r="V31">
+        <v>99</v>
+      </c>
+      <c r="W31" t="s">
+        <v>392</v>
+      </c>
+      <c r="X31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10407</v>
       </c>
@@ -3762,25 +3981,31 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>380</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="S32" t="s">
+        <v>379</v>
+      </c>
+      <c r="V32">
+        <v>99</v>
+      </c>
+      <c r="W32" t="s">
+        <v>392</v>
+      </c>
+      <c r="X32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10501</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33">
         <v>1500</v>
@@ -3809,22 +4034,25 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33">
+        <v>99</v>
+      </c>
+      <c r="X33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10502</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34">
         <v>3000</v>
@@ -3853,22 +4081,25 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34">
+        <v>99</v>
+      </c>
+      <c r="X34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10503</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35">
         <v>3000</v>
@@ -3897,22 +4128,25 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35">
+        <v>99</v>
+      </c>
+      <c r="X35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10504</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G36">
         <v>3000</v>
@@ -3941,22 +4175,25 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36">
+        <v>99</v>
+      </c>
+      <c r="X36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>10505</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G37">
         <v>3000</v>
@@ -3985,22 +4222,25 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37">
+        <v>99</v>
+      </c>
+      <c r="X37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>10506</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38">
         <v>3000</v>
@@ -4029,22 +4269,25 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38">
+        <v>99</v>
+      </c>
+      <c r="X38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10507</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G39">
         <v>3000</v>
@@ -4073,22 +4316,25 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39">
+        <v>99</v>
+      </c>
+      <c r="X39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>10508</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40">
         <v>3000</v>
@@ -4117,22 +4363,25 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40">
+        <v>99</v>
+      </c>
+      <c r="X40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>10509</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41">
         <v>3000</v>
@@ -4161,11 +4410,14 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41">
+        <v>99</v>
+      </c>
+      <c r="X41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10601</v>
       </c>
@@ -4205,14 +4457,20 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" t="s">
-        <v>380</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="S42" t="s">
+        <v>379</v>
+      </c>
+      <c r="V42">
+        <v>99</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10602</v>
       </c>
@@ -4252,14 +4510,20 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" t="s">
-        <v>380</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="S43" t="s">
+        <v>379</v>
+      </c>
+      <c r="V43">
+        <v>99</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>10603</v>
       </c>
@@ -4299,14 +4563,20 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" t="s">
-        <v>380</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="S44" t="s">
+        <v>379</v>
+      </c>
+      <c r="V44">
+        <v>99</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>10701</v>
       </c>
@@ -4346,11 +4616,17 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45">
+        <v>99</v>
+      </c>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>10702</v>
       </c>
@@ -4390,11 +4666,17 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46">
+        <v>99</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>10703</v>
       </c>
@@ -4434,11 +4716,17 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47">
+        <v>99</v>
+      </c>
+      <c r="W47" t="s">
+        <v>394</v>
+      </c>
+      <c r="X47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>10704</v>
       </c>
@@ -4478,11 +4766,17 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48">
+        <v>99</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>10705</v>
       </c>
@@ -4522,11 +4816,17 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49">
+        <v>99</v>
+      </c>
+      <c r="W49" t="s">
+        <v>394</v>
+      </c>
+      <c r="X49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>10706</v>
       </c>
@@ -4566,11 +4866,17 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50">
+        <v>99</v>
+      </c>
+      <c r="W50" t="s">
+        <v>394</v>
+      </c>
+      <c r="X50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>10707</v>
       </c>
@@ -4610,11 +4916,17 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51">
+        <v>99</v>
+      </c>
+      <c r="W51" t="s">
+        <v>394</v>
+      </c>
+      <c r="X51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>10708</v>
       </c>
@@ -4654,11 +4966,17 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52">
+        <v>99</v>
+      </c>
+      <c r="W52" t="s">
+        <v>394</v>
+      </c>
+      <c r="X52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>10709</v>
       </c>
@@ -4698,11 +5016,17 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53">
+        <v>99</v>
+      </c>
+      <c r="W53" t="s">
+        <v>394</v>
+      </c>
+      <c r="X53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>10801</v>
       </c>
@@ -4712,17 +5036,20 @@
       <c r="C54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D54" t="s">
-        <v>22</v>
+      <c r="F54" t="s">
+        <v>107</v>
       </c>
       <c r="G54">
         <v>4000</v>
       </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4740,19 +5067,28 @@
         <v>99</v>
       </c>
       <c r="Q54">
-        <v>2000</v>
-      </c>
-      <c r="S54" t="s">
-        <v>382</v>
-      </c>
-      <c r="T54">
+        <v>3000</v>
+      </c>
+      <c r="R54">
+        <v>1200</v>
+      </c>
+      <c r="T54" t="s">
+        <v>381</v>
+      </c>
+      <c r="U54">
         <v>20101</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54">
+        <v>99</v>
+      </c>
+      <c r="W54" t="s">
+        <v>388</v>
+      </c>
+      <c r="X54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>10802</v>
       </c>
@@ -4762,17 +5098,20 @@
       <c r="C55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D55" t="s">
-        <v>25</v>
+      <c r="F55" t="s">
+        <v>107</v>
       </c>
       <c r="G55">
         <v>4000</v>
       </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -4790,19 +5129,28 @@
         <v>99</v>
       </c>
       <c r="Q55">
-        <v>2000</v>
-      </c>
-      <c r="S55" t="s">
-        <v>382</v>
-      </c>
-      <c r="T55">
+        <v>3000</v>
+      </c>
+      <c r="R55">
+        <v>1200</v>
+      </c>
+      <c r="T55" t="s">
+        <v>381</v>
+      </c>
+      <c r="U55">
         <v>20101</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55">
+        <v>99</v>
+      </c>
+      <c r="W55" t="s">
+        <v>388</v>
+      </c>
+      <c r="X55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>10803</v>
       </c>
@@ -4812,17 +5160,20 @@
       <c r="C56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D56" t="s">
-        <v>108</v>
+      <c r="F56" t="s">
+        <v>107</v>
       </c>
       <c r="G56">
         <v>4000</v>
       </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -4840,19 +5191,28 @@
         <v>99</v>
       </c>
       <c r="Q56">
-        <v>2000</v>
-      </c>
-      <c r="S56" t="s">
-        <v>382</v>
-      </c>
-      <c r="T56">
+        <v>3000</v>
+      </c>
+      <c r="R56">
+        <v>1000</v>
+      </c>
+      <c r="T56" t="s">
+        <v>381</v>
+      </c>
+      <c r="U56">
         <v>20101</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56">
+        <v>99</v>
+      </c>
+      <c r="W56" t="s">
+        <v>388</v>
+      </c>
+      <c r="X56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>10804</v>
       </c>
@@ -4862,17 +5222,20 @@
       <c r="C57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D57" t="s">
-        <v>108</v>
+      <c r="F57" t="s">
+        <v>107</v>
       </c>
       <c r="G57">
         <v>4000</v>
       </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -4890,19 +5253,28 @@
         <v>99</v>
       </c>
       <c r="Q57">
-        <v>2000</v>
-      </c>
-      <c r="S57" t="s">
-        <v>382</v>
-      </c>
-      <c r="T57">
+        <v>3000</v>
+      </c>
+      <c r="R57">
+        <v>1000</v>
+      </c>
+      <c r="T57" t="s">
+        <v>381</v>
+      </c>
+      <c r="U57">
         <v>20101</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57">
+        <v>99</v>
+      </c>
+      <c r="W57" t="s">
+        <v>388</v>
+      </c>
+      <c r="X57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>10805</v>
       </c>
@@ -4912,17 +5284,20 @@
       <c r="C58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D58" t="s">
-        <v>108</v>
+      <c r="F58" t="s">
+        <v>107</v>
       </c>
       <c r="G58">
         <v>4000</v>
       </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -4940,19 +5315,28 @@
         <v>99</v>
       </c>
       <c r="Q58">
-        <v>2000</v>
-      </c>
-      <c r="S58" t="s">
-        <v>382</v>
-      </c>
-      <c r="T58">
+        <v>3000</v>
+      </c>
+      <c r="R58">
+        <v>1000</v>
+      </c>
+      <c r="T58" t="s">
+        <v>381</v>
+      </c>
+      <c r="U58">
         <v>20101</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58">
+        <v>99</v>
+      </c>
+      <c r="W58" t="s">
+        <v>388</v>
+      </c>
+      <c r="X58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>10806</v>
       </c>
@@ -4962,17 +5346,20 @@
       <c r="C59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D59" t="s">
-        <v>108</v>
+      <c r="F59" t="s">
+        <v>107</v>
       </c>
       <c r="G59">
         <v>4000</v>
       </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4990,19 +5377,28 @@
         <v>99</v>
       </c>
       <c r="Q59">
-        <v>2000</v>
-      </c>
-      <c r="S59" t="s">
-        <v>382</v>
-      </c>
-      <c r="T59">
+        <v>3000</v>
+      </c>
+      <c r="R59">
+        <v>1000</v>
+      </c>
+      <c r="T59" t="s">
+        <v>381</v>
+      </c>
+      <c r="U59">
         <v>20101</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59">
+        <v>99</v>
+      </c>
+      <c r="W59" t="s">
+        <v>388</v>
+      </c>
+      <c r="X59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>10807</v>
       </c>
@@ -5012,17 +5408,20 @@
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D60" t="s">
-        <v>108</v>
+      <c r="F60" t="s">
+        <v>107</v>
       </c>
       <c r="G60">
         <v>4000</v>
       </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -5040,19 +5439,28 @@
         <v>99</v>
       </c>
       <c r="Q60">
-        <v>2000</v>
-      </c>
-      <c r="S60" t="s">
-        <v>382</v>
-      </c>
-      <c r="T60">
+        <v>3000</v>
+      </c>
+      <c r="R60">
+        <v>1000</v>
+      </c>
+      <c r="T60" t="s">
+        <v>381</v>
+      </c>
+      <c r="U60">
         <v>20101</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60">
+        <v>99</v>
+      </c>
+      <c r="W60" t="s">
+        <v>388</v>
+      </c>
+      <c r="X60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>10808</v>
       </c>
@@ -5062,17 +5470,20 @@
       <c r="C61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D61" t="s">
-        <v>108</v>
+      <c r="F61" t="s">
+        <v>107</v>
       </c>
       <c r="G61">
         <v>4000</v>
       </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5090,19 +5501,28 @@
         <v>99</v>
       </c>
       <c r="Q61">
-        <v>2000</v>
-      </c>
-      <c r="S61" t="s">
-        <v>382</v>
-      </c>
-      <c r="T61">
+        <v>3000</v>
+      </c>
+      <c r="R61">
+        <v>1000</v>
+      </c>
+      <c r="T61" t="s">
+        <v>381</v>
+      </c>
+      <c r="U61">
         <v>20101</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61">
+        <v>99</v>
+      </c>
+      <c r="W61" t="s">
+        <v>388</v>
+      </c>
+      <c r="X61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>10809</v>
       </c>
@@ -5112,17 +5532,20 @@
       <c r="C62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D62" t="s">
-        <v>108</v>
+      <c r="F62" t="s">
+        <v>107</v>
       </c>
       <c r="G62">
         <v>4000</v>
       </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -5140,30 +5563,39 @@
         <v>99</v>
       </c>
       <c r="Q62">
-        <v>2000</v>
-      </c>
-      <c r="S62" t="s">
-        <v>382</v>
-      </c>
-      <c r="T62">
+        <v>3000</v>
+      </c>
+      <c r="R62">
+        <v>1000</v>
+      </c>
+      <c r="T62" t="s">
+        <v>381</v>
+      </c>
+      <c r="U62">
         <v>20101</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62">
+        <v>99</v>
+      </c>
+      <c r="W62" t="s">
+        <v>388</v>
+      </c>
+      <c r="X62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>10901</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5175,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K63">
         <v>20</v>
@@ -5190,30 +5622,36 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>379</v>
+      </c>
+      <c r="V63">
+        <v>99</v>
+      </c>
+      <c r="W63" t="s">
+        <v>395</v>
+      </c>
+      <c r="X63" t="s">
         <v>363</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>380</v>
-      </c>
-      <c r="U63" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>10902</v>
       </c>
       <c r="B64" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5225,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -5240,30 +5678,36 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" t="s">
-        <v>380</v>
-      </c>
-      <c r="U64" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S64" t="s">
+        <v>379</v>
+      </c>
+      <c r="V64">
+        <v>99</v>
+      </c>
+      <c r="W64" t="s">
+        <v>395</v>
+      </c>
+      <c r="X64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>10903</v>
       </c>
       <c r="B65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5275,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K65">
         <v>20</v>
@@ -5290,30 +5734,36 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" t="s">
-        <v>380</v>
-      </c>
-      <c r="U65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S65" t="s">
+        <v>379</v>
+      </c>
+      <c r="V65">
+        <v>99</v>
+      </c>
+      <c r="W65" t="s">
+        <v>395</v>
+      </c>
+      <c r="X65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>10904</v>
       </c>
       <c r="B66" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -5325,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K66">
         <v>20</v>
@@ -5340,30 +5790,36 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" t="s">
-        <v>380</v>
-      </c>
-      <c r="U66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S66" t="s">
+        <v>379</v>
+      </c>
+      <c r="V66">
+        <v>99</v>
+      </c>
+      <c r="W66" t="s">
+        <v>395</v>
+      </c>
+      <c r="X66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>10905</v>
       </c>
       <c r="B67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -5375,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K67">
         <v>20</v>
@@ -5390,30 +5846,36 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67" t="s">
-        <v>380</v>
-      </c>
-      <c r="U67" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S67" t="s">
+        <v>379</v>
+      </c>
+      <c r="V67">
+        <v>99</v>
+      </c>
+      <c r="W67" t="s">
+        <v>395</v>
+      </c>
+      <c r="X67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>10906</v>
       </c>
       <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F68">
         <v>100</v>
@@ -5425,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K68">
         <v>20</v>
@@ -5440,30 +5902,36 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68" t="s">
-        <v>380</v>
-      </c>
-      <c r="U68" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S68" t="s">
+        <v>379</v>
+      </c>
+      <c r="V68">
+        <v>99</v>
+      </c>
+      <c r="W68" t="s">
+        <v>395</v>
+      </c>
+      <c r="X68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>10907</v>
       </c>
       <c r="B69" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F69">
         <v>100</v>
@@ -5475,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K69">
         <v>20</v>
@@ -5490,30 +5958,36 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" t="s">
-        <v>380</v>
-      </c>
-      <c r="U69" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S69" t="s">
+        <v>379</v>
+      </c>
+      <c r="V69">
+        <v>99</v>
+      </c>
+      <c r="W69" t="s">
+        <v>395</v>
+      </c>
+      <c r="X69" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>10908</v>
       </c>
       <c r="B70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -5525,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K70">
         <v>20</v>
@@ -5540,16 +6014,22 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" t="s">
-        <v>380</v>
-      </c>
-      <c r="U70" t="s">
-        <v>370</v>
+      <c r="S70" t="s">
+        <v>379</v>
+      </c>
+      <c r="V70">
+        <v>99</v>
+      </c>
+      <c r="W70" t="s">
+        <v>395</v>
+      </c>
+      <c r="X70" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5561,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5587,19 +6067,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
         <v>360</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" t="s">
-        <v>362</v>
-      </c>
       <c r="G1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -5620,197 +6100,22 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>20101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2">
-        <v>150</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2">
-        <v>2000</v>
-      </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3">
-        <v>150</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3">
-        <v>2000</v>
-      </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>20103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4">
-        <v>150</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4">
-        <v>2000</v>
-      </c>
-      <c r="T4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>20104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5">
-        <v>150</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5">
-        <v>2000</v>
-      </c>
-      <c r="T5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>20105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6">
-        <v>150</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6">
-        <v>2000</v>
-      </c>
-      <c r="T6" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5831,16 +6136,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8" t="s">
         <v>375</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>376</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>377</v>
-      </c>
-      <c r="M8" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5874,71 +6179,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
         <v>270</v>
       </c>
-      <c r="C1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
         <v>272</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>273</v>
-      </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" t="s">
         <v>270</v>
       </c>
-      <c r="N1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" t="s">
-        <v>267</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" t="s">
         <v>272</v>
       </c>
-      <c r="S1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T1" t="s">
-        <v>273</v>
-      </c>
       <c r="U1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -5950,42 +6255,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>201</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>202</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>203</v>
       </c>
-      <c r="U2" t="s">
-        <v>204</v>
-      </c>
       <c r="X2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -5997,42 +6302,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S3" t="s">
         <v>201</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>202</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>203</v>
       </c>
-      <c r="U3" t="s">
-        <v>204</v>
-      </c>
       <c r="X3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -6044,42 +6349,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="X4" t="s">
         <v>155</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="X4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -6091,42 +6396,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>227</v>
-      </c>
       <c r="X5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -6138,42 +6443,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="R6" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>231</v>
-      </c>
       <c r="X6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -6186,42 +6491,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>219</v>
-      </c>
       <c r="U7" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -6234,42 +6539,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -6282,42 +6587,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -6330,42 +6635,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O10" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>241</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -6378,42 +6683,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="R11" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>201</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>202</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>203</v>
       </c>
-      <c r="U11" t="s">
-        <v>204</v>
-      </c>
       <c r="X11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -6422,40 +6727,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R12" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" t="s">
         <v>201</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>202</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>203</v>
       </c>
-      <c r="U12" t="s">
-        <v>204</v>
-      </c>
       <c r="X12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -6471,37 +6776,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="T13" s="32" t="s">
+      <c r="U13" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>220</v>
-      </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6517,161 +6822,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>227</v>
-      </c>
       <c r="X14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="R15" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="S15" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="T15" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>231</v>
-      </c>
       <c r="X15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>219</v>
-      </c>
       <c r="U16" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -6682,114 +6987,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O19" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>241</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6814,232 +7119,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>148</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>149</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
         <v>158</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
         <v>164</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>165</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>166</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>167</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>168</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>169</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>170</v>
-      </c>
-      <c r="I10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>174</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>175</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>176</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>177</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>178</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>179</v>
-      </c>
-      <c r="I13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
         <v>182</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>183</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>184</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>185</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>186</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>187</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>188</v>
-      </c>
-      <c r="I14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7071,66 +7376,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
         <v>261</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>262</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>263</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>264</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>266</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>267</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>268</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
         <v>269</v>
       </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
         <v>270</v>
       </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" t="s">
         <v>271</v>
       </c>
-      <c r="P1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" t="s">
         <v>272</v>
       </c>
-      <c r="R1" t="s">
-        <v>310</v>
-      </c>
-      <c r="S1" t="s">
-        <v>273</v>
-      </c>
       <c r="T1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7140,7 +7445,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -7153,7 +7458,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -7163,7 +7468,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -7176,7 +7481,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7186,7 +7491,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -7199,7 +7504,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -7209,7 +7514,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -7222,7 +7527,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7232,7 +7537,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -7245,7 +7550,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -7255,7 +7560,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -7269,7 +7574,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -7279,7 +7584,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -7293,7 +7598,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -7303,7 +7608,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -7317,7 +7622,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -7327,7 +7632,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -7341,7 +7646,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -7351,7 +7656,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -7365,7 +7670,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -7375,7 +7680,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -7385,7 +7690,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -7397,7 +7702,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -7409,7 +7714,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -7419,12 +7724,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -7436,7 +7741,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -7446,15 +7751,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -7464,15 +7769,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -7482,12 +7787,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -7499,7 +7804,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -7509,12 +7814,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -7526,7 +7831,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -7538,7 +7843,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -7550,7 +7855,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -7560,12 +7865,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -7577,7 +7882,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -7589,7 +7894,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -7601,7 +7906,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -7613,7 +7918,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -7625,7 +7930,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -7637,7 +7942,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -7649,7 +7954,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -7661,7 +7966,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -7685,15 +7990,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" t="s">
         <v>307</v>
-      </c>
-      <c r="I37" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7768,7 +8073,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -7821,7 +8126,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7842,14 +8147,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7865,7 +8170,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -7875,7 +8180,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
@@ -7900,7 +8205,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -7922,7 +8227,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -7958,7 +8263,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -7985,7 +8290,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -8040,7 +8345,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -8066,14 +8371,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -8087,7 +8392,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -8116,7 +8421,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -8154,13 +8459,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -8214,7 +8519,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -8245,7 +8550,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -8305,7 +8610,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -8324,7 +8629,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -8361,7 +8666,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -8380,7 +8685,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -8404,7 +8709,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -8412,7 +8717,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -8493,15 +8798,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -8557,7 +8862,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -8629,7 +8934,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8659,11 +8964,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -8710,7 +9015,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -8767,7 +9072,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -8808,10 +9113,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -8838,28 +9143,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -8867,7 +9172,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -8895,7 +9200,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="400">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,6 +1565,20 @@
   </si>
   <si>
     <t>effect_skill_ccjf</t>
+  </si>
+  <si>
+    <t>射箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkarmy_archer_arrow_lvl4</t>
+  </si>
+  <si>
+    <t>special_icons_0020</t>
   </si>
 </sst>
 </file>
@@ -2273,18 +2287,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
@@ -6030,6 +6044,510 @@
       </c>
       <c r="X70" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>11001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>398</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>371</v>
+      </c>
+      <c r="K71">
+        <v>70</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>395</v>
+      </c>
+      <c r="X71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>11002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>900</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>371</v>
+      </c>
+      <c r="K72">
+        <v>70</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
+        <v>395</v>
+      </c>
+      <c r="X72" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>11003</v>
+      </c>
+      <c r="B73" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>398</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>900</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>371</v>
+      </c>
+      <c r="K73">
+        <v>70</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73" t="s">
+        <v>395</v>
+      </c>
+      <c r="X73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>11004</v>
+      </c>
+      <c r="B74" t="s">
+        <v>396</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>398</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>371</v>
+      </c>
+      <c r="K74">
+        <v>70</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>395</v>
+      </c>
+      <c r="X74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>11005</v>
+      </c>
+      <c r="B75" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>398</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>371</v>
+      </c>
+      <c r="K75">
+        <v>70</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
+        <v>395</v>
+      </c>
+      <c r="X75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>11006</v>
+      </c>
+      <c r="B76" t="s">
+        <v>396</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>371</v>
+      </c>
+      <c r="K76">
+        <v>70</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
+        <v>395</v>
+      </c>
+      <c r="X76" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>11007</v>
+      </c>
+      <c r="B77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>371</v>
+      </c>
+      <c r="K77">
+        <v>70</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77" t="s">
+        <v>395</v>
+      </c>
+      <c r="X77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>11008</v>
+      </c>
+      <c r="B78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>371</v>
+      </c>
+      <c r="K78">
+        <v>70</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78" t="s">
+        <v>395</v>
+      </c>
+      <c r="X78" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>11009</v>
+      </c>
+      <c r="B79" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>371</v>
+      </c>
+      <c r="K79">
+        <v>70</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>395</v>
+      </c>
+      <c r="X79" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="409">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,6 +1579,38 @@
   </si>
   <si>
     <t>special_icons_0020</t>
+  </si>
+  <si>
+    <t>10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,50,20</t>
+  </si>
+  <si>
+    <t>2,2,50,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,50,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_firehorse</t>
+  </si>
+  <si>
+    <t>2,2,200,100</t>
+  </si>
+  <si>
+    <t>power_reinforcement_portrait_0018</t>
   </si>
 </sst>
 </file>
@@ -2287,11 +2319,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6069,10 +6101,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="K71">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6119,22 +6151,22 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="K72">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -6181,10 +6213,10 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K73">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6222,7 +6254,7 @@
         <v>396</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D74" t="s">
         <v>398</v>
@@ -6231,22 +6263,22 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K74">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -6278,7 +6310,7 @@
         <v>396</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
         <v>398</v>
@@ -6287,22 +6319,22 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K75">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -6334,7 +6366,7 @@
         <v>396</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D76" t="s">
         <v>398</v>
@@ -6343,22 +6375,25 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1000</v>
+        <v>800</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K76">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -6390,7 +6425,7 @@
         <v>396</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="D77" t="s">
         <v>398</v>
@@ -6399,22 +6434,25 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K77">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -6446,7 +6484,7 @@
         <v>396</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
         <v>398</v>
@@ -6455,22 +6493,25 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K78">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -6502,7 +6543,7 @@
         <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
         <v>398</v>
@@ -6511,22 +6552,25 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1000</v>
+        <v>600</v>
+      </c>
+      <c r="H79">
+        <v>20</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K79">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -6548,6 +6592,456 @@
       </c>
       <c r="X79" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>11101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D80" t="s">
+        <v>406</v>
+      </c>
+      <c r="G80">
+        <v>2000</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>384</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>99</v>
+      </c>
+      <c r="W80" t="s">
+        <v>391</v>
+      </c>
+      <c r="X80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>11102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>405</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G81">
+        <v>2000</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>384</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>99</v>
+      </c>
+      <c r="W81" t="s">
+        <v>391</v>
+      </c>
+      <c r="X81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>11103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D82" t="s">
+        <v>406</v>
+      </c>
+      <c r="G82">
+        <v>2000</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>407</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>99</v>
+      </c>
+      <c r="W82" t="s">
+        <v>391</v>
+      </c>
+      <c r="X82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>11104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>405</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" t="s">
+        <v>406</v>
+      </c>
+      <c r="G83">
+        <v>2000</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>407</v>
+      </c>
+      <c r="K83">
+        <v>100</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>99</v>
+      </c>
+      <c r="W83" t="s">
+        <v>391</v>
+      </c>
+      <c r="X83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>11105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>406</v>
+      </c>
+      <c r="G84">
+        <v>2000</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>407</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>99</v>
+      </c>
+      <c r="W84" t="s">
+        <v>391</v>
+      </c>
+      <c r="X84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>11106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D85" t="s">
+        <v>406</v>
+      </c>
+      <c r="G85">
+        <v>2000</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>407</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>6</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>99</v>
+      </c>
+      <c r="W85" t="s">
+        <v>391</v>
+      </c>
+      <c r="X85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>11107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+      <c r="G86">
+        <v>2000</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>407</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>7</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>99</v>
+      </c>
+      <c r="W86" t="s">
+        <v>391</v>
+      </c>
+      <c r="X86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>11108</v>
+      </c>
+      <c r="B87" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>406</v>
+      </c>
+      <c r="G87">
+        <v>2000</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>407</v>
+      </c>
+      <c r="K87">
+        <v>100</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>8</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>99</v>
+      </c>
+      <c r="W87" t="s">
+        <v>391</v>
+      </c>
+      <c r="X87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>11109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>405</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" t="s">
+        <v>406</v>
+      </c>
+      <c r="G88">
+        <v>2000</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>407</v>
+      </c>
+      <c r="K88">
+        <v>100</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>99</v>
+      </c>
+      <c r="W88" t="s">
+        <v>391</v>
+      </c>
+      <c r="X88" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -8529,8 +9023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Y56" sqref="Y56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="414">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1611,6 +1611,21 @@
   </si>
   <si>
     <t>power_reinforcement_portrait_0018</t>
+  </si>
+  <si>
+    <t>shooter_lvl4_proyectile</t>
+  </si>
+  <si>
+    <t>alleria_arrow</t>
+  </si>
+  <si>
+    <t>stage13_elf_arrow</t>
+  </si>
+  <si>
+    <t>alleria_arrow_multishoot</t>
+  </si>
+  <si>
+    <t>skill_archery_boom</t>
   </si>
 </sst>
 </file>
@@ -2322,8 +2337,8 @@
   <dimension ref="A1:X88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T71" sqref="T71"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6089,7 +6104,7 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6145,7 +6160,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6313,7 +6328,7 @@
         <v>400</v>
       </c>
       <c r="D75" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6369,7 +6384,7 @@
         <v>400</v>
       </c>
       <c r="D76" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6428,7 +6443,7 @@
         <v>401</v>
       </c>
       <c r="D77" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6487,7 +6502,7 @@
         <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6546,10 +6561,10 @@
         <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>398</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="F79" t="s">
+        <v>413</v>
       </c>
       <c r="G79">
         <v>600</v>
@@ -6573,7 +6588,7 @@
         <v>5</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P79" t="s">
         <v>399</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="433">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1668,6 +1668,37 @@
   <si>
     <t>2,2,50,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_res</t>
+  </si>
+  <si>
+    <t>毒树藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒树藤可以让敌人中毒持续受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_posion</t>
+  </si>
+  <si>
+    <t>wicked_sisters_proy_green_0001</t>
+  </si>
+  <si>
+    <t>skill_posion/posion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerselect_powers_0031</t>
+  </si>
+  <si>
+    <t>posion_timbo_pt</t>
   </si>
 </sst>
 </file>
@@ -2385,23 +2416,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="21.75" customWidth="1"/>
-    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="11" max="11" width="38.25" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -5080,6 +5110,321 @@
       </c>
       <c r="L88" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>11201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>2000</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>180</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>431</v>
+      </c>
+      <c r="L89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>11202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>426</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90">
+        <v>21</v>
+      </c>
+      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="G90">
+        <v>2000</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>190</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>431</v>
+      </c>
+      <c r="L90" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>11203</v>
+      </c>
+      <c r="B91" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>22</v>
+      </c>
+      <c r="G91">
+        <v>2000</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>200</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>431</v>
+      </c>
+      <c r="L91" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>11204</v>
+      </c>
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>22</v>
+      </c>
+      <c r="G92">
+        <v>2000</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>210</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>431</v>
+      </c>
+      <c r="L92" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>11205</v>
+      </c>
+      <c r="B93" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>22</v>
+      </c>
+      <c r="G93">
+        <v>2000</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>220</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>431</v>
+      </c>
+      <c r="L93" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>11206</v>
+      </c>
+      <c r="B94" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94">
+        <v>21</v>
+      </c>
+      <c r="F94">
+        <v>22</v>
+      </c>
+      <c r="G94">
+        <v>2000</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>230</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94" t="s">
+        <v>431</v>
+      </c>
+      <c r="L94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>11207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95">
+        <v>2000</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>240</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>431</v>
+      </c>
+      <c r="L95" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>11208</v>
+      </c>
+      <c r="B96" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <v>21</v>
+      </c>
+      <c r="F96">
+        <v>22</v>
+      </c>
+      <c r="G96">
+        <v>2000</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>250</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96" t="s">
+        <v>431</v>
+      </c>
+      <c r="L96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>11208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97">
+        <v>21</v>
+      </c>
+      <c r="F97">
+        <v>22</v>
+      </c>
+      <c r="G97">
+        <v>2000</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>270</v>
+      </c>
+      <c r="J97">
+        <v>5</v>
+      </c>
+      <c r="K97" t="s">
+        <v>431</v>
+      </c>
+      <c r="L97" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5091,23 +5436,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -5144,8 +5491,11 @@
       <c r="L1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5176,8 +5526,11 @@
       <c r="L2" s="38" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5208,8 +5561,11 @@
       <c r="L3" s="38" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5240,8 +5596,11 @@
       <c r="L4" s="38" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5269,8 +5628,11 @@
       <c r="L5" s="38" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5301,8 +5663,11 @@
       <c r="L6" s="38" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5327,8 +5692,11 @@
       <c r="K7">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5356,8 +5724,11 @@
       <c r="L8" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5385,8 +5756,11 @@
       <c r="L9" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5414,8 +5788,11 @@
       <c r="L10" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5440,8 +5817,11 @@
       <c r="L11" s="38" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5460,8 +5840,11 @@
       <c r="L12" s="38" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5492,8 +5875,11 @@
       <c r="L13" s="38" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5521,8 +5907,11 @@
       <c r="L14" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5550,8 +5939,11 @@
       <c r="L15" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5579,8 +5971,11 @@
       <c r="L16" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5608,8 +6003,11 @@
       <c r="L17" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5637,8 +6035,11 @@
       <c r="L18" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5666,8 +6067,11 @@
       <c r="L19" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5687,8 +6091,11 @@
       <c r="L20" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5712,6 +6119,67 @@
       </c>
       <c r="L21" s="38" t="s">
         <v>375</v>
+      </c>
+      <c r="M21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>432</v>
+      </c>
+      <c r="M22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="38">
+        <v>99</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M23" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="436">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1699,6 +1699,18 @@
   </si>
   <si>
     <t>posion_timbo_pt</t>
+  </si>
+  <si>
+    <t>攻击移动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2418,8 +2430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
@@ -5436,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5452,9 +5464,10 @@
     <col min="10" max="10" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -5494,8 +5507,11 @@
       <c r="M1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5529,8 +5545,11 @@
       <c r="M2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5564,8 +5583,11 @@
       <c r="M3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5599,8 +5621,11 @@
       <c r="M4" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5631,8 +5656,11 @@
       <c r="M5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5666,8 +5694,11 @@
       <c r="M6" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5695,8 +5726,11 @@
       <c r="M7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5727,8 +5761,11 @@
       <c r="M8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5759,8 +5796,11 @@
       <c r="M9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5791,8 +5831,11 @@
       <c r="M10" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5820,8 +5863,11 @@
       <c r="M11" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5843,8 +5889,11 @@
       <c r="M12" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5878,8 +5927,11 @@
       <c r="M13" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5910,8 +5962,11 @@
       <c r="M14" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5942,8 +5997,11 @@
       <c r="M15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5974,8 +6032,11 @@
       <c r="M16" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6006,8 +6067,11 @@
       <c r="M17" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6038,8 +6102,11 @@
       <c r="M18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6070,8 +6137,11 @@
       <c r="M19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6094,8 +6164,11 @@
       <c r="M20" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6123,8 +6196,11 @@
       <c r="M21" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6135,7 +6211,7 @@
         <v>419</v>
       </c>
       <c r="E22" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -6146,8 +6222,11 @@
       <c r="M22" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6180,6 +6259,9 @@
       </c>
       <c r="M23" t="s">
         <v>430</v>
+      </c>
+      <c r="N23" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="441">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1710,6 +1710,24 @@
   </si>
   <si>
     <t>走路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火墙可以在英雄周围生成一片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_icons_0022</t>
+  </si>
+  <si>
+    <t>skill_fire_wall</t>
+  </si>
+  <si>
+    <t>skill_fire_wall/firewall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2428,11 +2446,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q78" sqref="Q78"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5439,6 +5457,294 @@
         <v>427</v>
       </c>
     </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>11301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98">
+        <v>23</v>
+      </c>
+      <c r="G98">
+        <v>2000</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>270</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98" t="s">
+        <v>438</v>
+      </c>
+      <c r="L98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>11302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99">
+        <v>23</v>
+      </c>
+      <c r="G99">
+        <v>2000</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>270</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99" t="s">
+        <v>438</v>
+      </c>
+      <c r="L99" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>11303</v>
+      </c>
+      <c r="B100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100">
+        <v>23</v>
+      </c>
+      <c r="G100">
+        <v>2000</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>270</v>
+      </c>
+      <c r="J100">
+        <v>5</v>
+      </c>
+      <c r="K100" t="s">
+        <v>438</v>
+      </c>
+      <c r="L100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>11304</v>
+      </c>
+      <c r="B101" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101">
+        <v>23</v>
+      </c>
+      <c r="G101">
+        <v>2000</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>270</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101" t="s">
+        <v>438</v>
+      </c>
+      <c r="L101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>11305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102">
+        <v>23</v>
+      </c>
+      <c r="G102">
+        <v>2000</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>270</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102" t="s">
+        <v>438</v>
+      </c>
+      <c r="L102" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>11306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>436</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
+      </c>
+      <c r="G103">
+        <v>2000</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>270</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103" t="s">
+        <v>438</v>
+      </c>
+      <c r="L103" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>11307</v>
+      </c>
+      <c r="B104" t="s">
+        <v>436</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
+      </c>
+      <c r="G104">
+        <v>2000</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>270</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104" t="s">
+        <v>438</v>
+      </c>
+      <c r="L104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>11308</v>
+      </c>
+      <c r="B105" t="s">
+        <v>436</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105">
+        <v>23</v>
+      </c>
+      <c r="G105">
+        <v>2000</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="I105">
+        <v>270</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>438</v>
+      </c>
+      <c r="L105" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>11309</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106">
+        <v>23</v>
+      </c>
+      <c r="G106">
+        <v>2000</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>270</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+      <c r="K106" t="s">
+        <v>438</v>
+      </c>
+      <c r="L106" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5448,10 +5754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5463,7 +5769,7 @@
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="24.375" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6261,6 +6567,44 @@
         <v>430</v>
       </c>
       <c r="N23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1200</v>
+      </c>
+      <c r="K24" s="38">
+        <v>99</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M24" t="s">
+        <v>440</v>
+      </c>
+      <c r="N24" t="s">
         <v>435</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="456">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1554,10 +1554,6 @@
     <t>i_jpql_02</t>
   </si>
   <si>
-    <t>技能效果id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1582,10 +1578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发伤害间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粒子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1728,6 +1720,67 @@
   </si>
   <si>
     <t>skill_fire_wall/firewall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画preftab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_fire_wall_start_cp</t>
+  </si>
+  <si>
+    <t>skill_fire_wall_run_cp</t>
+  </si>
+  <si>
+    <t>skill_fire_wall_end_cp</t>
+  </si>
+  <si>
+    <t>skill_archery_boom_cp</t>
+  </si>
+  <si>
+    <t>skill_firehorse_cp</t>
+  </si>
+  <si>
+    <t>skill_posion_start</t>
+  </si>
+  <si>
+    <t>skill_posion_vanish</t>
+  </si>
+  <si>
+    <t>2,2,90,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2448,9 +2501,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5147,7 +5200,7 @@
         <v>11201</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>94</v>
@@ -5155,8 +5208,11 @@
       <c r="D89">
         <v>21</v>
       </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
       <c r="F89">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G89">
         <v>2000</v>
@@ -5171,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -5182,7 +5238,7 @@
         <v>11202</v>
       </c>
       <c r="B90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>94</v>
@@ -5190,8 +5246,11 @@
       <c r="D90">
         <v>21</v>
       </c>
+      <c r="E90">
+        <v>22</v>
+      </c>
       <c r="F90">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90">
         <v>2000</v>
@@ -5206,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L90" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -5217,7 +5276,7 @@
         <v>11203</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>94</v>
@@ -5225,8 +5284,11 @@
       <c r="D91">
         <v>21</v>
       </c>
+      <c r="E91">
+        <v>22</v>
+      </c>
       <c r="F91">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91">
         <v>2000</v>
@@ -5241,10 +5303,10 @@
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -5252,7 +5314,7 @@
         <v>11204</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>94</v>
@@ -5260,8 +5322,11 @@
       <c r="D92">
         <v>21</v>
       </c>
+      <c r="E92">
+        <v>22</v>
+      </c>
       <c r="F92">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G92">
         <v>2000</v>
@@ -5276,10 +5341,10 @@
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L92" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -5287,7 +5352,7 @@
         <v>11205</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>94</v>
@@ -5295,8 +5360,11 @@
       <c r="D93">
         <v>21</v>
       </c>
+      <c r="E93">
+        <v>22</v>
+      </c>
       <c r="F93">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93">
         <v>2000</v>
@@ -5311,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="K93" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -5322,7 +5390,7 @@
         <v>11206</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>94</v>
@@ -5330,8 +5398,11 @@
       <c r="D94">
         <v>21</v>
       </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
       <c r="F94">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94">
         <v>2000</v>
@@ -5346,10 +5417,10 @@
         <v>3</v>
       </c>
       <c r="K94" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -5357,7 +5428,7 @@
         <v>11207</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>94</v>
@@ -5365,8 +5436,11 @@
       <c r="D95">
         <v>21</v>
       </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
       <c r="F95">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95">
         <v>2000</v>
@@ -5381,10 +5455,10 @@
         <v>4</v>
       </c>
       <c r="K95" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -5392,7 +5466,7 @@
         <v>11208</v>
       </c>
       <c r="B96" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>94</v>
@@ -5400,8 +5474,11 @@
       <c r="D96">
         <v>21</v>
       </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
       <c r="F96">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96">
         <v>2000</v>
@@ -5416,10 +5493,10 @@
         <v>4</v>
       </c>
       <c r="K96" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L96" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -5427,7 +5504,7 @@
         <v>11208</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
@@ -5435,8 +5512,11 @@
       <c r="D97">
         <v>21</v>
       </c>
+      <c r="E97">
+        <v>22</v>
+      </c>
       <c r="F97">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97">
         <v>2000</v>
@@ -5451,10 +5531,10 @@
         <v>5</v>
       </c>
       <c r="K97" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -5462,13 +5542,19 @@
         <v>11301</v>
       </c>
       <c r="B98" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D98">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>25</v>
+      </c>
+      <c r="F98">
+        <v>26</v>
       </c>
       <c r="G98">
         <v>2000</v>
@@ -5480,13 +5566,13 @@
         <v>270</v>
       </c>
       <c r="J98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L98" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -5494,13 +5580,19 @@
         <v>11302</v>
       </c>
       <c r="B99" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D99">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E99">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>26</v>
       </c>
       <c r="G99">
         <v>2000</v>
@@ -5512,13 +5604,13 @@
         <v>270</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
@@ -5526,13 +5618,19 @@
         <v>11303</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E100">
+        <v>25</v>
+      </c>
+      <c r="F100">
+        <v>26</v>
       </c>
       <c r="G100">
         <v>2000</v>
@@ -5544,13 +5642,13 @@
         <v>270</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K100" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -5558,13 +5656,19 @@
         <v>11304</v>
       </c>
       <c r="B101" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E101">
+        <v>25</v>
+      </c>
+      <c r="F101">
+        <v>26</v>
       </c>
       <c r="G101">
         <v>2000</v>
@@ -5576,13 +5680,13 @@
         <v>270</v>
       </c>
       <c r="J101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L101" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
@@ -5590,13 +5694,19 @@
         <v>11305</v>
       </c>
       <c r="B102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>26</v>
       </c>
       <c r="G102">
         <v>2000</v>
@@ -5611,10 +5721,10 @@
         <v>5</v>
       </c>
       <c r="K102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L102" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
@@ -5622,13 +5732,19 @@
         <v>11306</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E103">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>26</v>
       </c>
       <c r="G103">
         <v>2000</v>
@@ -5640,13 +5756,13 @@
         <v>270</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
@@ -5654,13 +5770,19 @@
         <v>11307</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>26</v>
       </c>
       <c r="G104">
         <v>2000</v>
@@ -5672,13 +5794,13 @@
         <v>270</v>
       </c>
       <c r="J104">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L104" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
@@ -5686,13 +5808,19 @@
         <v>11308</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>26</v>
       </c>
       <c r="G105">
         <v>2000</v>
@@ -5704,13 +5832,13 @@
         <v>270</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L105" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -5718,13 +5846,19 @@
         <v>11309</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>26</v>
       </c>
       <c r="G106">
         <v>2000</v>
@@ -5736,13 +5870,13 @@
         <v>270</v>
       </c>
       <c r="J106">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L106" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5754,81 +5888,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
-    <col min="13" max="13" width="24.375" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="12" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="25.75" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
         <v>395</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>396</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>397</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>398</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>399</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>400</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" t="s">
         <v>401</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>402</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>403</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>404</v>
       </c>
-      <c r="K1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L1" t="s">
-        <v>406</v>
-      </c>
       <c r="M1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="N1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="O1" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>407</v>
-      </c>
-      <c r="C2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>409</v>
       </c>
       <c r="E2" s="38">
         <v>100</v>
@@ -5848,14 +5989,17 @@
       <c r="L2" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="M2" t="s">
-        <v>425</v>
-      </c>
       <c r="N2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5863,10 +6007,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E3" s="38">
         <v>100</v>
@@ -5886,22 +6030,25 @@
       <c r="L3" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="M3" t="s">
-        <v>425</v>
-      </c>
       <c r="N3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O3" t="s">
+        <v>432</v>
+      </c>
+      <c r="P3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
@@ -5924,14 +6071,17 @@
       <c r="L4" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="M4" t="s">
-        <v>425</v>
-      </c>
       <c r="N4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O4" t="s">
+        <v>432</v>
+      </c>
+      <c r="P4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5939,7 +6089,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>4</v>
@@ -5960,13 +6110,19 @@
         <v>375</v>
       </c>
       <c r="M5" t="s">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O5" t="s">
+        <v>433</v>
+      </c>
+      <c r="P5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5974,10 +6130,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -5997,14 +6153,17 @@
       <c r="L6" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="M6" t="s">
-        <v>425</v>
-      </c>
       <c r="N6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O6" t="s">
+        <v>432</v>
+      </c>
+      <c r="P6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6012,10 +6171,10 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6030,13 +6189,19 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>425</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6044,10 +6209,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6064,14 +6229,17 @@
       <c r="L8" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="M8" t="s">
-        <v>425</v>
-      </c>
       <c r="N8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O8" t="s">
+        <v>432</v>
+      </c>
+      <c r="P8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6079,10 +6247,10 @@
         <v>394</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6099,25 +6267,28 @@
       <c r="L9" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="M9" t="s">
-        <v>425</v>
-      </c>
       <c r="N9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O9" t="s">
+        <v>432</v>
+      </c>
+      <c r="P9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6134,14 +6305,17 @@
       <c r="L10" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="M10" t="s">
-        <v>425</v>
-      </c>
       <c r="N10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O10" t="s">
+        <v>432</v>
+      </c>
+      <c r="P10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6149,10 +6323,10 @@
         <v>95</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6166,19 +6340,22 @@
       <c r="L11" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="M11" t="s">
-        <v>425</v>
-      </c>
       <c r="N11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O11" t="s">
+        <v>432</v>
+      </c>
+      <c r="P11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -6192,14 +6369,17 @@
       <c r="L12" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="M12" t="s">
-        <v>425</v>
-      </c>
       <c r="N12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O12" t="s">
+        <v>432</v>
+      </c>
+      <c r="P12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6207,10 +6387,10 @@
         <v>97</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6230,14 +6410,17 @@
       <c r="L13" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="M13" t="s">
-        <v>425</v>
-      </c>
       <c r="N13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6245,10 +6428,10 @@
         <v>362</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6265,14 +6448,17 @@
       <c r="L14" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M14" t="s">
-        <v>425</v>
-      </c>
       <c r="N14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O14" t="s">
+        <v>433</v>
+      </c>
+      <c r="P14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6280,10 +6466,10 @@
         <v>390</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -6300,14 +6486,17 @@
       <c r="L15" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M15" t="s">
-        <v>425</v>
-      </c>
       <c r="N15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O15" t="s">
+        <v>432</v>
+      </c>
+      <c r="P15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6315,10 +6504,10 @@
         <v>382</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -6335,14 +6524,17 @@
       <c r="L16" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M16" t="s">
-        <v>425</v>
-      </c>
       <c r="N16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O16" t="s">
+        <v>432</v>
+      </c>
+      <c r="P16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6350,10 +6542,10 @@
         <v>391</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -6370,14 +6562,17 @@
       <c r="L17" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M17" t="s">
-        <v>425</v>
-      </c>
       <c r="N17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O17" t="s">
+        <v>432</v>
+      </c>
+      <c r="P17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6385,10 +6580,10 @@
         <v>392</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -6405,14 +6600,17 @@
       <c r="L18" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M18" t="s">
-        <v>425</v>
-      </c>
       <c r="N18" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O18" t="s">
+        <v>432</v>
+      </c>
+      <c r="P18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6420,10 +6618,10 @@
         <v>389</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -6440,22 +6638,25 @@
       <c r="L19" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="M19" t="s">
-        <v>425</v>
-      </c>
       <c r="N19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O19" t="s">
+        <v>432</v>
+      </c>
+      <c r="P19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -6468,24 +6669,30 @@
         <v>379</v>
       </c>
       <c r="M20" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="N20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O20" t="s">
+        <v>433</v>
+      </c>
+      <c r="P20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -6500,22 +6707,26 @@
         <v>375</v>
       </c>
       <c r="M21" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="N21" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="O21" t="s">
+        <v>432</v>
+      </c>
+      <c r="P21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>419</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C22" s="38"/>
       <c r="E22" s="38">
         <v>1</v>
       </c>
@@ -6523,27 +6734,30 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>432</v>
-      </c>
-      <c r="M22" t="s">
         <v>430</v>
       </c>
       <c r="N22" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="O22" t="s">
+        <v>433</v>
+      </c>
+      <c r="P22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>408</v>
+        <v>227</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -6564,24 +6778,24 @@
         <v>375</v>
       </c>
       <c r="M23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N23" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="O23" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -6589,28 +6803,134 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>3000</v>
-      </c>
-      <c r="H24" s="38">
-        <v>1200</v>
-      </c>
-      <c r="K24" s="38">
-        <v>99</v>
-      </c>
+      <c r="H24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
         <v>375</v>
       </c>
       <c r="M24" t="s">
+        <v>426</v>
+      </c>
+      <c r="N24" t="s">
+        <v>428</v>
+      </c>
+      <c r="O24" t="s">
+        <v>433</v>
+      </c>
+      <c r="P24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>440</v>
       </c>
-      <c r="N24" t="s">
-        <v>435</v>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25" t="s">
+        <v>437</v>
+      </c>
+      <c r="N25" t="s">
+        <v>438</v>
+      </c>
+      <c r="O25" t="s">
+        <v>433</v>
+      </c>
+      <c r="P25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="38">
+        <v>99</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M26" t="s">
+        <v>437</v>
+      </c>
+      <c r="N26" t="s">
+        <v>438</v>
+      </c>
+      <c r="O26" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M27" t="s">
+        <v>437</v>
+      </c>
+      <c r="N27" t="s">
+        <v>438</v>
+      </c>
+      <c r="O27" t="s">
+        <v>433</v>
+      </c>
+      <c r="P27" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -95,9 +95,6 @@
   <si>
     <t>机械精灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_trump</t>
   </si>
   <si>
     <t>i_jpql_03</t>
@@ -1782,6 +1779,9 @@
   <si>
     <t>效果id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_lords_mage_tower_bolt_lvl4_0001</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2501,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
     </sheetView>
@@ -2528,19 +2528,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
         <v>349</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>350</v>
       </c>
-      <c r="F1" t="s">
-        <v>351</v>
-      </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -2549,10 +2549,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2578,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2607,10 +2607,10 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2636,10 +2636,10 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2665,10 +2665,10 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -2723,10 +2723,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -2752,10 +2752,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -2781,10 +2781,10 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2810,10 +2810,10 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2839,10 +2839,10 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2868,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2897,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2926,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2955,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2984,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3013,10 +3013,10 @@
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3042,10 +3042,10 @@
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -3071,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -3100,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -3129,10 +3129,10 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -3158,10 +3158,10 @@
         <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -3187,10 +3187,10 @@
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -3216,10 +3216,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -3245,10 +3245,10 @@
         <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -3274,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -3303,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -3332,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -3361,10 +3361,10 @@
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -3390,10 +3390,10 @@
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
@@ -3419,10 +3419,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
@@ -3448,10 +3448,10 @@
         <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -3459,7 +3459,7 @@
         <v>10501</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -3477,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -3488,7 +3488,7 @@
         <v>10502</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
@@ -3506,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -3517,7 +3517,7 @@
         <v>10503</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -3546,7 +3546,7 @@
         <v>10504</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -3564,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -3575,7 +3575,7 @@
         <v>10505</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -3604,7 +3604,7 @@
         <v>10506</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -3622,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -3633,7 +3633,7 @@
         <v>10507</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -3651,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
@@ -3662,7 +3662,7 @@
         <v>10508</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -3680,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
@@ -3691,7 +3691,7 @@
         <v>10509</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -3720,7 +3720,7 @@
         <v>10601</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -3738,10 +3738,10 @@
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -3749,7 +3749,7 @@
         <v>10602</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -3767,10 +3767,10 @@
         <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
@@ -3778,7 +3778,7 @@
         <v>10603</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -3796,10 +3796,10 @@
         <v>5</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -3807,10 +3807,10 @@
         <v>10701</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -3825,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -3836,10 +3836,10 @@
         <v>10702</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -3854,10 +3854,10 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -3865,10 +3865,10 @@
         <v>10703</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3883,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -3894,10 +3894,10 @@
         <v>10704</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -3912,10 +3912,10 @@
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -3923,10 +3923,10 @@
         <v>10705</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -3941,10 +3941,10 @@
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -3952,10 +3952,10 @@
         <v>10706</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -3970,10 +3970,10 @@
         <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -3981,10 +3981,10 @@
         <v>10707</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -3999,10 +3999,10 @@
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -4010,10 +4010,10 @@
         <v>10708</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4028,10 +4028,10 @@
         <v>4</v>
       </c>
       <c r="K52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -4039,10 +4039,10 @@
         <v>10709</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -4057,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="K53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
@@ -4068,10 +4068,10 @@
         <v>10801</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54">
         <v>11</v>
@@ -4092,10 +4092,10 @@
         <v>4</v>
       </c>
       <c r="K54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
@@ -4103,10 +4103,10 @@
         <v>10802</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>11</v>
@@ -4127,10 +4127,10 @@
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
@@ -4138,10 +4138,10 @@
         <v>10803</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -4162,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
@@ -4173,10 +4173,10 @@
         <v>10804</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57">
         <v>11</v>
@@ -4197,10 +4197,10 @@
         <v>4</v>
       </c>
       <c r="K57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
@@ -4208,10 +4208,10 @@
         <v>10805</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -4232,10 +4232,10 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -4243,10 +4243,10 @@
         <v>10806</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -4267,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="K59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
@@ -4278,10 +4278,10 @@
         <v>10807</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -4302,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -4313,10 +4313,10 @@
         <v>10808</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -4337,10 +4337,10 @@
         <v>4</v>
       </c>
       <c r="K61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -4348,10 +4348,10 @@
         <v>10809</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4372,10 +4372,10 @@
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
@@ -4383,10 +4383,10 @@
         <v>10901</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D63">
         <v>13</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
+        <v>351</v>
+      </c>
+      <c r="L63" t="s">
         <v>352</v>
-      </c>
-      <c r="L63" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
@@ -4415,10 +4415,10 @@
         <v>10902</v>
       </c>
       <c r="B64" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -4436,10 +4436,10 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
@@ -4447,10 +4447,10 @@
         <v>10903</v>
       </c>
       <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D65">
         <v>13</v>
@@ -4468,10 +4468,10 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
@@ -4479,10 +4479,10 @@
         <v>10904</v>
       </c>
       <c r="B66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D66">
         <v>13</v>
@@ -4500,10 +4500,10 @@
         <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
@@ -4511,10 +4511,10 @@
         <v>10905</v>
       </c>
       <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D67">
         <v>13</v>
@@ -4532,10 +4532,10 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
@@ -4543,10 +4543,10 @@
         <v>10906</v>
       </c>
       <c r="B68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -4564,10 +4564,10 @@
         <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
@@ -4575,10 +4575,10 @@
         <v>10907</v>
       </c>
       <c r="B69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D69">
         <v>13</v>
@@ -4596,10 +4596,10 @@
         <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
@@ -4607,10 +4607,10 @@
         <v>10908</v>
       </c>
       <c r="B70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D70">
         <v>13</v>
@@ -4628,10 +4628,10 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
@@ -4639,7 +4639,7 @@
         <v>11001</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -4660,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
@@ -4671,7 +4671,7 @@
         <v>11002</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -4692,10 +4692,10 @@
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -4703,7 +4703,7 @@
         <v>11003</v>
       </c>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
@@ -4724,10 +4724,10 @@
         <v>2</v>
       </c>
       <c r="K73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
@@ -4735,10 +4735,10 @@
         <v>11004</v>
       </c>
       <c r="B74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D74">
         <v>15</v>
@@ -4756,10 +4756,10 @@
         <v>3</v>
       </c>
       <c r="K74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
@@ -4767,10 +4767,10 @@
         <v>11005</v>
       </c>
       <c r="B75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D75">
         <v>16</v>
@@ -4788,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -4799,10 +4799,10 @@
         <v>11006</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D76">
         <v>16</v>
@@ -4823,10 +4823,10 @@
         <v>4</v>
       </c>
       <c r="K76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
@@ -4834,10 +4834,10 @@
         <v>11007</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D77">
         <v>17</v>
@@ -4858,10 +4858,10 @@
         <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
@@ -4869,10 +4869,10 @@
         <v>11008</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D78">
         <v>17</v>
@@ -4893,10 +4893,10 @@
         <v>5</v>
       </c>
       <c r="K78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
@@ -4904,10 +4904,10 @@
         <v>11009</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D79">
         <v>18</v>
@@ -4928,10 +4928,10 @@
         <v>5</v>
       </c>
       <c r="K79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
@@ -4939,10 +4939,10 @@
         <v>11101</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -4957,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
@@ -4968,10 +4968,10 @@
         <v>11102</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -4986,10 +4986,10 @@
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
@@ -4997,10 +4997,10 @@
         <v>11103</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -5015,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
@@ -5026,10 +5026,10 @@
         <v>11104</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -5044,10 +5044,10 @@
         <v>4</v>
       </c>
       <c r="K83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
@@ -5055,10 +5055,10 @@
         <v>11105</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D84">
         <v>20</v>
@@ -5073,10 +5073,10 @@
         <v>5</v>
       </c>
       <c r="K84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
@@ -5084,10 +5084,10 @@
         <v>11106</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -5102,10 +5102,10 @@
         <v>6</v>
       </c>
       <c r="K85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
@@ -5113,10 +5113,10 @@
         <v>11107</v>
       </c>
       <c r="B86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -5131,10 +5131,10 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
@@ -5142,10 +5142,10 @@
         <v>11108</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -5160,10 +5160,10 @@
         <v>8</v>
       </c>
       <c r="K87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -5171,10 +5171,10 @@
         <v>11109</v>
       </c>
       <c r="B88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -5189,10 +5189,10 @@
         <v>9</v>
       </c>
       <c r="K88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -5200,10 +5200,10 @@
         <v>11201</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89">
         <v>21</v>
@@ -5227,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -5238,10 +5238,10 @@
         <v>11202</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <v>21</v>
@@ -5265,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -5276,10 +5276,10 @@
         <v>11203</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91">
         <v>21</v>
@@ -5303,10 +5303,10 @@
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -5314,10 +5314,10 @@
         <v>11204</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5341,10 +5341,10 @@
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -5352,10 +5352,10 @@
         <v>11205</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>21</v>
@@ -5379,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="K93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -5390,10 +5390,10 @@
         <v>11206</v>
       </c>
       <c r="B94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -5417,10 +5417,10 @@
         <v>3</v>
       </c>
       <c r="K94" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L94" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -5428,10 +5428,10 @@
         <v>11207</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95">
         <v>21</v>
@@ -5455,10 +5455,10 @@
         <v>4</v>
       </c>
       <c r="K95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -5466,10 +5466,10 @@
         <v>11208</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -5493,10 +5493,10 @@
         <v>4</v>
       </c>
       <c r="K96" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -5504,10 +5504,10 @@
         <v>11208</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D97">
         <v>21</v>
@@ -5531,10 +5531,10 @@
         <v>5</v>
       </c>
       <c r="K97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L97" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -5542,10 +5542,10 @@
         <v>11301</v>
       </c>
       <c r="B98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98">
         <v>24</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -5580,10 +5580,10 @@
         <v>11302</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D99">
         <v>24</v>
@@ -5607,10 +5607,10 @@
         <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
@@ -5618,10 +5618,10 @@
         <v>11303</v>
       </c>
       <c r="B100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D100">
         <v>24</v>
@@ -5645,10 +5645,10 @@
         <v>3</v>
       </c>
       <c r="K100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -5656,10 +5656,10 @@
         <v>11304</v>
       </c>
       <c r="B101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101">
         <v>24</v>
@@ -5683,10 +5683,10 @@
         <v>4</v>
       </c>
       <c r="K101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
@@ -5694,10 +5694,10 @@
         <v>11305</v>
       </c>
       <c r="B102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -5721,10 +5721,10 @@
         <v>5</v>
       </c>
       <c r="K102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
@@ -5732,10 +5732,10 @@
         <v>11306</v>
       </c>
       <c r="B103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103">
         <v>24</v>
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
@@ -5770,10 +5770,10 @@
         <v>11307</v>
       </c>
       <c r="B104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104">
         <v>24</v>
@@ -5797,10 +5797,10 @@
         <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L104" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
@@ -5808,10 +5808,10 @@
         <v>11308</v>
       </c>
       <c r="B105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -5835,10 +5835,10 @@
         <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -5846,10 +5846,10 @@
         <v>11309</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D106">
         <v>24</v>
@@ -5873,10 +5873,10 @@
         <v>9</v>
       </c>
       <c r="K106" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5890,8 +5890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5910,52 +5910,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
         <v>395</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>396</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>397</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>398</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>399</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" t="s">
         <v>400</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P1" t="s">
         <v>448</v>
-      </c>
-      <c r="I1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M1" t="s">
-        <v>439</v>
-      </c>
-      <c r="N1" t="s">
-        <v>422</v>
-      </c>
-      <c r="O1" t="s">
-        <v>431</v>
-      </c>
-      <c r="P1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -5963,13 +5963,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
         <v>405</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="38" t="s">
         <v>406</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>407</v>
       </c>
       <c r="E2" s="38">
         <v>100</v>
@@ -5981,22 +5981,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -6004,13 +6004,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>406</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>407</v>
       </c>
       <c r="E3" s="38">
         <v>100</v>
@@ -6022,22 +6022,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -6045,10 +6045,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>408</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>409</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
@@ -6063,22 +6063,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -6089,7 +6089,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>4</v>
@@ -6107,19 +6107,19 @@
         <v>99</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -6127,13 +6127,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>412</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6145,22 +6145,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K6">
         <v>99</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -6168,13 +6168,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6189,16 +6189,16 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6206,13 +6206,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6221,22 +6221,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -6244,13 +6244,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>412</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6259,22 +6259,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -6282,13 +6282,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>412</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6297,22 +6297,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -6320,13 +6320,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6338,16 +6338,16 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -6355,28 +6355,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -6384,13 +6384,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6408,16 +6408,16 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -6425,13 +6425,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6440,22 +6440,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -6463,13 +6463,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -6484,16 +6484,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6501,13 +6501,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -6522,16 +6522,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6539,13 +6539,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -6560,16 +6560,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6577,13 +6577,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -6598,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6615,13 +6615,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -6636,16 +6636,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -6653,10 +6653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -6666,19 +6666,19 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -6686,13 +6686,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -6704,19 +6704,19 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -6724,7 +6724,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -6734,16 +6734,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -6751,13 +6751,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -6775,19 +6775,19 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -6795,7 +6795,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -6806,19 +6806,19 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -6826,7 +6826,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6837,19 +6837,19 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M25" t="s">
+        <v>436</v>
+      </c>
+      <c r="N25" t="s">
         <v>437</v>
       </c>
-      <c r="N25" t="s">
-        <v>438</v>
-      </c>
       <c r="O25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -6857,13 +6857,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -6881,19 +6881,19 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M26" t="s">
+        <v>436</v>
+      </c>
+      <c r="N26" t="s">
         <v>437</v>
       </c>
-      <c r="N26" t="s">
-        <v>438</v>
-      </c>
       <c r="O26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -6901,7 +6901,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -6912,19 +6912,19 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M27" t="s">
+        <v>436</v>
+      </c>
+      <c r="N27" t="s">
         <v>437</v>
       </c>
-      <c r="N27" t="s">
-        <v>438</v>
-      </c>
       <c r="O27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6962,19 +6962,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
         <v>349</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>350</v>
       </c>
-      <c r="F1" t="s">
-        <v>351</v>
-      </c>
       <c r="G1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -6995,22 +6995,22 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7031,16 +7031,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" t="s">
         <v>363</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>364</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>365</v>
-      </c>
-      <c r="M8" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7074,71 +7074,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
         <v>261</v>
       </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>262</v>
-      </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>259</v>
       </c>
-      <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" t="s">
-        <v>256</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" t="s">
         <v>261</v>
       </c>
-      <c r="S1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" t="s">
-        <v>262</v>
-      </c>
       <c r="U1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -7150,42 +7150,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>190</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>191</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>192</v>
       </c>
-      <c r="U2" t="s">
-        <v>193</v>
-      </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -7197,42 +7197,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" t="s">
         <v>190</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>191</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>192</v>
       </c>
-      <c r="U3" t="s">
-        <v>193</v>
-      </c>
       <c r="X3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -7244,42 +7244,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="X4" t="s">
         <v>144</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="X4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -7291,42 +7291,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>216</v>
-      </c>
       <c r="X5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -7338,42 +7338,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="R6" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>220</v>
-      </c>
       <c r="X6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -7386,42 +7386,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="U7" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -7434,42 +7434,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -7482,42 +7482,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -7530,42 +7530,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O10" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>230</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -7578,42 +7578,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" t="s">
         <v>189</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>190</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>191</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>192</v>
       </c>
-      <c r="U11" t="s">
-        <v>193</v>
-      </c>
       <c r="X11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -7622,40 +7622,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R12" t="s">
+        <v>189</v>
+      </c>
+      <c r="S12" t="s">
         <v>190</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>191</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>192</v>
       </c>
-      <c r="U12" t="s">
-        <v>193</v>
-      </c>
       <c r="X12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7671,37 +7671,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R13" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="T13" s="32" t="s">
+      <c r="U13" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>209</v>
-      </c>
       <c r="X13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7717,161 +7717,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>216</v>
-      </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="R15" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="S15" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="T15" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>220</v>
-      </c>
       <c r="X15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="U16" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -7882,114 +7882,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O19" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>230</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8014,232 +8014,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>142</v>
-      </c>
-      <c r="I2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>154</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>155</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>156</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>157</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>158</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>159</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>163</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>164</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>165</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>166</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>167</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
         <v>171</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>172</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>173</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>174</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>175</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>176</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>177</v>
-      </c>
-      <c r="I14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -8271,66 +8271,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" t="s">
         <v>258</v>
       </c>
-      <c r="K1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="M1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" t="s">
         <v>260</v>
       </c>
-      <c r="P1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S1" t="s">
         <v>261</v>
       </c>
-      <c r="R1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S1" t="s">
-        <v>262</v>
-      </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8340,7 +8340,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8363,7 +8363,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8386,7 +8386,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -8409,7 +8409,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8432,7 +8432,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -8455,7 +8455,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -8479,7 +8479,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -8503,7 +8503,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -8527,7 +8527,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -8551,7 +8551,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -8575,7 +8575,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -8619,12 +8619,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -8646,15 +8646,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -8664,15 +8664,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -8682,12 +8682,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -8709,12 +8709,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -8760,12 +8760,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I37" t="s">
         <v>296</v>
-      </c>
-      <c r="I37" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -8968,7 +8968,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -9021,7 +9021,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9042,14 +9042,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9065,7 +9065,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -9075,7 +9075,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
@@ -9100,7 +9100,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -9122,7 +9122,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -9158,7 +9158,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -9185,7 +9185,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -9240,7 +9240,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -9266,14 +9266,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -9354,13 +9354,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -9414,7 +9414,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -9445,7 +9445,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9505,7 +9505,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -9524,7 +9524,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -9561,7 +9561,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -9580,7 +9580,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -9612,7 +9612,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -9693,15 +9693,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -9757,7 +9757,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -9859,11 +9859,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -9910,7 +9910,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -9967,7 +9967,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -10008,10 +10008,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -10038,28 +10038,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="455">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,9 +204,6 @@
   <si>
     <t>火球术厉害4</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术厉害10</t>
   </si>
   <si>
     <t>冰弹球厉害1</t>
@@ -2499,11 +2496,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2528,19 +2525,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
         <v>348</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="F1" t="s">
-        <v>350</v>
-      </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -2569,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2598,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2627,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2656,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2685,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2714,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2743,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2772,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2801,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2818,28 +2815,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10110</v>
+        <v>10201</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
         <v>51</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -2865,18 +2862,18 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10202</v>
+        <v>10203</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -2894,18 +2891,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10203</v>
+        <v>10204</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -2923,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>10204</v>
+        <v>10205</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -2952,18 +2949,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>10205</v>
+        <v>10206</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -2981,18 +2978,18 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>10206</v>
+        <v>10207</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -3010,47 +3007,47 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>10207</v>
+        <v>10301</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>10301</v>
+        <v>10302</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -3068,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>10302</v>
+        <v>10303</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -3097,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>10303</v>
+        <v>10304</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -3126,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>10304</v>
+        <v>10305</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -3155,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -3166,7 +3163,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>10305</v>
+        <v>10306</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -3184,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>10306</v>
+        <v>10307</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -3213,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -3224,28 +3221,28 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>10307</v>
+        <v>10401</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
         <v>59</v>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>10401</v>
+        <v>10402</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -3271,7 +3268,7 @@
         <v>200</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>23</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>10402</v>
+        <v>10403</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -3300,7 +3297,7 @@
         <v>200</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
         <v>23</v>
@@ -3311,7 +3308,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>10403</v>
+        <v>10404</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -3329,7 +3326,7 @@
         <v>200</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" t="s">
         <v>23</v>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>10404</v>
+        <v>10405</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -3358,7 +3355,7 @@
         <v>200</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" t="s">
         <v>23</v>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>10405</v>
+        <v>10406</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -3387,7 +3384,7 @@
         <v>200</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
         <v>23</v>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>10406</v>
+        <v>10407</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -3416,7 +3413,7 @@
         <v>200</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
         <v>23</v>
@@ -3427,28 +3424,28 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>10407</v>
+        <v>10501</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="I32">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
         <v>66</v>
@@ -3456,10 +3453,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>10501</v>
+        <v>10502</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -3468,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="G33">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3480,15 +3477,15 @@
         <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>10502</v>
+        <v>10503</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
@@ -3509,15 +3506,15 @@
         <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>10503</v>
+        <v>10504</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -3538,15 +3535,15 @@
         <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>10504</v>
+        <v>10505</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -3567,15 +3564,15 @@
         <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>10505</v>
+        <v>10506</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
@@ -3596,15 +3593,15 @@
         <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>10506</v>
+        <v>10507</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -3625,15 +3622,15 @@
         <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>10507</v>
+        <v>10508</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -3654,15 +3651,15 @@
         <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>10508</v>
+        <v>10509</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -3683,41 +3680,41 @@
         <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>10509</v>
+        <v>10601</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>3000</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>10601</v>
+        <v>10602</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -3726,16 +3723,16 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>3000</v>
       </c>
       <c r="I42">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>10602</v>
+        <v>10603</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -3755,16 +3752,16 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <v>3000</v>
       </c>
       <c r="I43">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
@@ -3775,42 +3772,42 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>10603</v>
+        <v>10701</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="I44">
         <v>350</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>10701</v>
+        <v>10702</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -3825,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L45" t="s">
         <v>72</v>
@@ -3833,13 +3830,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>10702</v>
+        <v>10703</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -3851,24 +3848,24 @@
         <v>350</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>10703</v>
+        <v>10704</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3883,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47" t="s">
         <v>78</v>
@@ -3891,13 +3888,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>10704</v>
+        <v>10705</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -3912,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s">
         <v>79</v>
@@ -3920,13 +3917,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>10705</v>
+        <v>10706</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -3941,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" t="s">
         <v>80</v>
@@ -3949,13 +3946,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>10706</v>
+        <v>10707</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -3970,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" t="s">
         <v>81</v>
@@ -3978,13 +3975,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>10707</v>
+        <v>10708</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -3999,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
         <v>82</v>
@@ -4007,13 +4004,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>10708</v>
+        <v>10709</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4028,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L52" t="s">
         <v>83</v>
@@ -4036,42 +4033,48 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>10709</v>
+        <v>10801</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>500</v>
+        <v>4000</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
       </c>
       <c r="I53">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="J53">
         <v>4</v>
       </c>
       <c r="K53" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>10801</v>
+        <v>10802</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>11</v>
@@ -4092,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="K54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" t="s">
         <v>76</v>
@@ -4100,13 +4103,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>10802</v>
+        <v>10803</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <v>11</v>
@@ -4127,21 +4130,21 @@
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>10803</v>
+        <v>10804</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -4162,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" t="s">
         <v>85</v>
@@ -4170,13 +4173,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>10804</v>
+        <v>10805</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <v>11</v>
@@ -4191,13 +4194,13 @@
         <v>100</v>
       </c>
       <c r="I57">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="J57">
         <v>4</v>
       </c>
       <c r="K57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" t="s">
         <v>86</v>
@@ -4205,13 +4208,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>10805</v>
+        <v>10806</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -4232,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" t="s">
         <v>87</v>
@@ -4240,13 +4243,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>10806</v>
+        <v>10807</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -4267,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="K59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" t="s">
         <v>88</v>
@@ -4275,13 +4278,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>10807</v>
+        <v>10808</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -4302,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L60" t="s">
         <v>89</v>
@@ -4310,13 +4313,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>10808</v>
+        <v>10809</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -4337,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="K61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" t="s">
         <v>90</v>
@@ -4345,48 +4348,45 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>10809</v>
+        <v>10901</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>4000</v>
-      </c>
-      <c r="H62">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I62">
+        <v>300</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
         <v>350</v>
       </c>
-      <c r="J62">
-        <v>4</v>
-      </c>
-      <c r="K62" t="s">
-        <v>92</v>
-      </c>
       <c r="L62" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>10901</v>
+        <v>10902</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D63">
         <v>13</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I63">
         <v>300</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L63" t="s">
         <v>352</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>10902</v>
+        <v>10903</v>
       </c>
       <c r="B64" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L64" t="s">
         <v>353</v>
@@ -4444,19 +4444,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>10903</v>
+        <v>10904</v>
       </c>
       <c r="B65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D65">
         <v>13</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G65">
         <v>1400</v>
@@ -4465,10 +4465,10 @@
         <v>300</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L65" t="s">
         <v>354</v>
@@ -4476,13 +4476,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>10904</v>
+        <v>10905</v>
       </c>
       <c r="B66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D66">
         <v>13</v>
@@ -4491,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="G66">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I66">
         <v>300</v>
@@ -4500,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L66" t="s">
         <v>355</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>10905</v>
+        <v>10906</v>
       </c>
       <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D67">
         <v>13</v>
@@ -4532,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L67" t="s">
         <v>356</v>
@@ -4540,13 +4540,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>10906</v>
+        <v>10907</v>
       </c>
       <c r="B68" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -4555,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="G68">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I68">
         <v>300</v>
@@ -4564,21 +4564,21 @@
         <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>10907</v>
+        <v>10908</v>
       </c>
       <c r="B69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D69">
         <v>13</v>
@@ -4587,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="G69">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I69">
         <v>300</v>
@@ -4596,50 +4596,50 @@
         <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>10908</v>
+        <v>11001</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I70">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="L70" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>11001</v>
+        <v>11002</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -4657,33 +4657,33 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>11002</v>
+        <v>11003</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4692,21 +4692,21 @@
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>11003</v>
+        <v>11004</v>
       </c>
       <c r="B73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="D73">
         <v>15</v>
@@ -4721,33 +4721,33 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="B74" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4756,21 +4756,21 @@
         <v>3</v>
       </c>
       <c r="K74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L74" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>11005</v>
+        <v>11006</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D75">
         <v>16</v>
@@ -4781,37 +4781,40 @@
       <c r="G75">
         <v>800</v>
       </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>11006</v>
+        <v>11007</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H76">
         <v>20</v>
@@ -4823,21 +4826,21 @@
         <v>4</v>
       </c>
       <c r="K76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D77">
         <v>17</v>
@@ -4855,33 +4858,33 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H78">
         <v>20</v>
@@ -4893,56 +4896,50 @@
         <v>5</v>
       </c>
       <c r="K78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>11009</v>
+        <v>11101</v>
       </c>
       <c r="B79" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D79">
-        <v>18</v>
-      </c>
-      <c r="F79">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <v>600</v>
-      </c>
-      <c r="H79">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L79" t="s">
-        <v>379</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>11101</v>
+        <v>11102</v>
       </c>
       <c r="B80" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -4954,24 +4951,24 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>11102</v>
+        <v>11103</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -4983,24 +4980,24 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>11103</v>
+        <v>11104</v>
       </c>
       <c r="B82" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -5012,24 +5009,24 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>11104</v>
+        <v>11105</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -5041,24 +5038,24 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>11105</v>
+        <v>11106</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D84">
         <v>20</v>
@@ -5070,24 +5067,24 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>11106</v>
+        <v>11107</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -5099,24 +5096,24 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>11107</v>
+        <v>11108</v>
       </c>
       <c r="B86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -5128,24 +5125,24 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>11108</v>
+        <v>11109</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -5157,53 +5154,62 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>11109</v>
+        <v>11201</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>22</v>
+      </c>
+      <c r="F88">
+        <v>23</v>
       </c>
       <c r="G88">
         <v>2000</v>
       </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
       <c r="I88">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="L88" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>11201</v>
+        <v>11202</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89">
         <v>21</v>
@@ -5221,27 +5227,27 @@
         <v>100</v>
       </c>
       <c r="I89">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>11202</v>
+        <v>11203</v>
       </c>
       <c r="B90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90">
         <v>21</v>
@@ -5259,27 +5265,27 @@
         <v>100</v>
       </c>
       <c r="I90">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>11203</v>
+        <v>11204</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91">
         <v>21</v>
@@ -5297,27 +5303,27 @@
         <v>100</v>
       </c>
       <c r="I91">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J91">
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>11204</v>
+        <v>11205</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5335,27 +5341,27 @@
         <v>100</v>
       </c>
       <c r="I92">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>11205</v>
+        <v>11206</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <v>21</v>
@@ -5373,27 +5379,27 @@
         <v>100</v>
       </c>
       <c r="I93">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="J93">
         <v>3</v>
       </c>
       <c r="K93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>11206</v>
+        <v>11207</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -5411,27 +5417,27 @@
         <v>100</v>
       </c>
       <c r="I94">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>11207</v>
+        <v>11208</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95">
         <v>21</v>
@@ -5449,16 +5455,16 @@
         <v>100</v>
       </c>
       <c r="I95">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J95">
         <v>4</v>
       </c>
       <c r="K95" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -5466,10 +5472,10 @@
         <v>11208</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -5487,36 +5493,36 @@
         <v>100</v>
       </c>
       <c r="I96">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K96" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>11208</v>
+        <v>11301</v>
       </c>
       <c r="B97" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E97">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F97">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G97">
         <v>2000</v>
@@ -5528,24 +5534,24 @@
         <v>270</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L97" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>11301</v>
+        <v>11302</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98">
         <v>24</v>
@@ -5566,24 +5572,24 @@
         <v>270</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>11302</v>
+        <v>11303</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99">
         <v>24</v>
@@ -5604,24 +5610,24 @@
         <v>270</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>11303</v>
+        <v>11304</v>
       </c>
       <c r="B100" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D100">
         <v>24</v>
@@ -5642,24 +5648,24 @@
         <v>270</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>11304</v>
+        <v>11305</v>
       </c>
       <c r="B101" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101">
         <v>24</v>
@@ -5680,24 +5686,24 @@
         <v>270</v>
       </c>
       <c r="J101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>11305</v>
+        <v>11306</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -5718,24 +5724,24 @@
         <v>270</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>11306</v>
+        <v>11307</v>
       </c>
       <c r="B103" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103">
         <v>24</v>
@@ -5756,24 +5762,24 @@
         <v>270</v>
       </c>
       <c r="J103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>11307</v>
+        <v>11308</v>
       </c>
       <c r="B104" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D104">
         <v>24</v>
@@ -5794,24 +5800,24 @@
         <v>270</v>
       </c>
       <c r="J104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K104" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>11308</v>
+        <v>11309</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -5832,51 +5838,13 @@
         <v>270</v>
       </c>
       <c r="J105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L105" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A106">
-        <v>11309</v>
-      </c>
-      <c r="B106" t="s">
         <v>433</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106">
-        <v>24</v>
-      </c>
-      <c r="E106">
-        <v>25</v>
-      </c>
-      <c r="F106">
-        <v>26</v>
-      </c>
-      <c r="G106">
-        <v>2000</v>
-      </c>
-      <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="I106">
-        <v>270</v>
-      </c>
-      <c r="J106">
-        <v>9</v>
-      </c>
-      <c r="K106" t="s">
-        <v>435</v>
-      </c>
-      <c r="L106" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +5859,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5910,52 +5878,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
         <v>394</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>395</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>397</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>398</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" t="s">
         <v>399</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P1" t="s">
         <v>447</v>
-      </c>
-      <c r="I1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" t="s">
-        <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O1" t="s">
-        <v>430</v>
-      </c>
-      <c r="P1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -5963,13 +5931,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>406</v>
       </c>
       <c r="E2" s="38">
         <v>100</v>
@@ -5981,22 +5949,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -6007,10 +5975,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>406</v>
       </c>
       <c r="E3" s="38">
         <v>100</v>
@@ -6022,22 +5990,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -6045,10 +6013,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>407</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>408</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
@@ -6063,22 +6031,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -6089,7 +6057,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>4</v>
@@ -6107,19 +6075,19 @@
         <v>99</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -6127,13 +6095,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>410</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6145,22 +6113,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K6">
         <v>99</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -6168,13 +6136,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6189,16 +6157,16 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6209,10 +6177,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6221,22 +6189,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -6244,13 +6212,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>410</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6259,22 +6227,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -6282,13 +6250,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>410</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6297,22 +6265,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -6320,13 +6288,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6338,16 +6306,16 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -6355,28 +6323,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -6384,13 +6352,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6408,16 +6376,16 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -6425,13 +6393,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6440,22 +6408,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -6463,13 +6431,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -6484,16 +6452,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6501,13 +6469,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -6522,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6539,13 +6507,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -6560,16 +6528,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6577,13 +6545,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -6598,16 +6566,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6615,13 +6583,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -6636,16 +6604,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -6653,10 +6621,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -6666,19 +6634,19 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -6686,13 +6654,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -6704,19 +6672,19 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -6724,7 +6692,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -6734,16 +6702,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -6751,13 +6719,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -6775,19 +6743,19 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -6795,7 +6763,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -6806,19 +6774,19 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -6826,7 +6794,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6837,19 +6805,19 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M25" t="s">
+        <v>435</v>
+      </c>
+      <c r="N25" t="s">
         <v>436</v>
       </c>
-      <c r="N25" t="s">
-        <v>437</v>
-      </c>
       <c r="O25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -6857,13 +6825,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -6881,19 +6849,19 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M26" t="s">
+        <v>435</v>
+      </c>
+      <c r="N26" t="s">
         <v>436</v>
       </c>
-      <c r="N26" t="s">
-        <v>437</v>
-      </c>
       <c r="O26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -6901,7 +6869,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -6912,19 +6880,19 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M27" t="s">
+        <v>435</v>
+      </c>
+      <c r="N27" t="s">
         <v>436</v>
       </c>
-      <c r="N27" t="s">
-        <v>437</v>
-      </c>
       <c r="O27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6962,19 +6930,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
         <v>348</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="F1" t="s">
-        <v>350</v>
-      </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -6995,19 +6963,19 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P1" t="s">
         <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T1" t="s">
         <v>27</v>
@@ -7031,16 +6999,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" t="s">
         <v>362</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>363</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>364</v>
-      </c>
-      <c r="M8" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7074,71 +7042,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
         <v>258</v>
       </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" t="s">
         <v>259</v>
       </c>
-      <c r="F1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
         <v>260</v>
       </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" t="s">
-        <v>261</v>
-      </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
         <v>258</v>
       </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
         <v>260</v>
       </c>
-      <c r="S1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" t="s">
-        <v>261</v>
-      </c>
       <c r="U1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -7150,42 +7118,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>189</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>190</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>191</v>
       </c>
-      <c r="U2" t="s">
-        <v>192</v>
-      </c>
       <c r="X2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -7197,42 +7165,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" t="s">
         <v>189</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>190</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>191</v>
       </c>
-      <c r="U3" t="s">
-        <v>192</v>
-      </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -7244,42 +7212,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="X4" t="s">
         <v>143</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="X4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -7291,42 +7259,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>215</v>
-      </c>
       <c r="X5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -7338,42 +7306,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="R6" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>219</v>
-      </c>
       <c r="X6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -7386,42 +7354,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>207</v>
-      </c>
       <c r="U7" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -7434,42 +7402,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -7482,42 +7450,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -7530,42 +7498,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O10" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -7578,42 +7546,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" t="s">
         <v>188</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>189</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>190</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>191</v>
       </c>
-      <c r="U11" t="s">
-        <v>192</v>
-      </c>
       <c r="X11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -7622,40 +7590,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R12" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" t="s">
         <v>189</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>190</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>191</v>
       </c>
-      <c r="U12" t="s">
-        <v>192</v>
-      </c>
       <c r="X12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7671,37 +7639,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="32" t="s">
+      <c r="U13" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7717,161 +7685,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>215</v>
-      </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="R15" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="S15" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="T15" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>219</v>
-      </c>
       <c r="X15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>207</v>
-      </c>
       <c r="U16" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -7882,114 +7850,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O19" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8014,232 +7982,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>141</v>
-      </c>
-      <c r="I2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
         <v>146</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>153</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>154</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>155</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>156</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>157</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>158</v>
-      </c>
-      <c r="I10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>163</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>164</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>165</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>166</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>167</v>
-      </c>
-      <c r="I13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
         <v>170</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>171</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>172</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>173</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>174</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>175</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>176</v>
-      </c>
-      <c r="I14" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8271,66 +8239,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>251</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>252</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>253</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>255</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>256</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
         <v>257</v>
       </c>
-      <c r="K1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
         <v>258</v>
       </c>
-      <c r="M1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
         <v>259</v>
       </c>
-      <c r="P1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S1" t="s">
         <v>260</v>
       </c>
-      <c r="R1" t="s">
-        <v>298</v>
-      </c>
-      <c r="S1" t="s">
-        <v>261</v>
-      </c>
       <c r="T1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8340,7 +8308,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -8353,7 +8321,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8363,7 +8331,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -8376,7 +8344,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8386,7 +8354,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -8399,7 +8367,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -8409,7 +8377,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -8422,7 +8390,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8432,7 +8400,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -8445,7 +8413,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -8455,7 +8423,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -8469,7 +8437,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -8479,7 +8447,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -8493,7 +8461,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -8503,7 +8471,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -8517,7 +8485,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -8527,7 +8495,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -8541,7 +8509,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -8551,7 +8519,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -8565,7 +8533,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -8575,7 +8543,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -8585,7 +8553,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -8597,7 +8565,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -8609,7 +8577,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -8619,12 +8587,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -8636,7 +8604,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -8646,15 +8614,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -8664,15 +8632,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -8682,12 +8650,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -8699,7 +8667,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -8709,12 +8677,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -8726,7 +8694,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -8738,7 +8706,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -8750,7 +8718,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -8760,12 +8728,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -8777,7 +8745,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -8789,7 +8757,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -8801,7 +8769,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -8813,7 +8781,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -8825,7 +8793,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -8837,7 +8805,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -8849,7 +8817,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -8861,7 +8829,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -8885,15 +8853,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="I37" t="s">
         <v>295</v>
-      </c>
-      <c r="I37" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -8968,7 +8936,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -9021,7 +8989,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9042,14 +9010,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9065,7 +9033,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -9075,7 +9043,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
@@ -9100,7 +9068,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -9122,7 +9090,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -9158,7 +9126,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -9185,7 +9153,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -9240,7 +9208,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -9266,14 +9234,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -9287,7 +9255,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -9316,7 +9284,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -9354,13 +9322,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -9414,7 +9382,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -9445,7 +9413,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9505,7 +9473,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -9524,7 +9492,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -9561,7 +9529,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -9580,7 +9548,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -9604,7 +9572,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -9612,7 +9580,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -9693,15 +9661,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -9757,7 +9725,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -9829,7 +9797,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -9859,11 +9827,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -9910,7 +9878,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -9967,7 +9935,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -10008,10 +9976,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -10038,28 +10006,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -10067,7 +10035,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -10095,7 +10063,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="467">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,6 +1779,50 @@
   </si>
   <si>
     <t>ember_lords_mage_tower_bolt_lvl4_0001</t>
+  </si>
+  <si>
+    <t>定时炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_timeBomb_cp</t>
+  </si>
+  <si>
+    <t>skill_timeBomb/timeBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_timeBomb_entity1_cp,skill_timeBomb_entity2_cp,skill_timeBomb_entity3_cp,skill_timeBomb_entity4_cp,skill_timeBomb_entity5_cp,skill_timeBomb_entity6_cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_timeBomb_bomb_cp</t>
+  </si>
+  <si>
+    <t>heroroom_powers_icons_1</t>
+  </si>
+  <si>
+    <t>skill_timebomb</t>
+  </si>
+  <si>
+    <t>2,2,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2496,11 +2540,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4455,9 +4499,6 @@
       <c r="D65">
         <v>13</v>
       </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
       <c r="G65">
         <v>1400</v>
       </c>
@@ -4487,9 +4528,6 @@
       <c r="D66">
         <v>13</v>
       </c>
-      <c r="F66">
-        <v>100</v>
-      </c>
       <c r="G66">
         <v>1300</v>
       </c>
@@ -4519,9 +4557,6 @@
       <c r="D67">
         <v>13</v>
       </c>
-      <c r="F67">
-        <v>100</v>
-      </c>
       <c r="G67">
         <v>1300</v>
       </c>
@@ -4551,9 +4586,6 @@
       <c r="D68">
         <v>13</v>
       </c>
-      <c r="F68">
-        <v>100</v>
-      </c>
       <c r="G68">
         <v>1200</v>
       </c>
@@ -4583,9 +4615,6 @@
       <c r="D69">
         <v>13</v>
       </c>
-      <c r="F69">
-        <v>100</v>
-      </c>
       <c r="G69">
         <v>1100</v>
       </c>
@@ -5844,6 +5873,348 @@
         <v>434</v>
       </c>
       <c r="L105" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>11401</v>
+      </c>
+      <c r="B106" t="s">
+        <v>455</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+      <c r="E106">
+        <v>28</v>
+      </c>
+      <c r="F106">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>8000</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>270</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>462</v>
+      </c>
+      <c r="L106" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>11402</v>
+      </c>
+      <c r="B107" t="s">
+        <v>455</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D107">
+        <v>27</v>
+      </c>
+      <c r="E107">
+        <v>28</v>
+      </c>
+      <c r="F107">
+        <v>29</v>
+      </c>
+      <c r="G107">
+        <v>8000</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>270</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>462</v>
+      </c>
+      <c r="L107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>11403</v>
+      </c>
+      <c r="B108" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D108">
+        <v>27</v>
+      </c>
+      <c r="E108">
+        <v>28</v>
+      </c>
+      <c r="F108">
+        <v>29</v>
+      </c>
+      <c r="G108">
+        <v>8000</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>270</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>462</v>
+      </c>
+      <c r="L108" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>11404</v>
+      </c>
+      <c r="B109" t="s">
+        <v>455</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D109">
+        <v>27</v>
+      </c>
+      <c r="E109">
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <v>29</v>
+      </c>
+      <c r="G109">
+        <v>8000</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>270</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>462</v>
+      </c>
+      <c r="L109" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>11405</v>
+      </c>
+      <c r="B110" t="s">
+        <v>455</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="E110">
+        <v>28</v>
+      </c>
+      <c r="F110">
+        <v>29</v>
+      </c>
+      <c r="G110">
+        <v>8000</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>270</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>462</v>
+      </c>
+      <c r="L110" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>11406</v>
+      </c>
+      <c r="B111" t="s">
+        <v>455</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D111">
+        <v>27</v>
+      </c>
+      <c r="E111">
+        <v>28</v>
+      </c>
+      <c r="F111">
+        <v>29</v>
+      </c>
+      <c r="G111">
+        <v>8000</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="I111">
+        <v>270</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>462</v>
+      </c>
+      <c r="L111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>11407</v>
+      </c>
+      <c r="B112" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D112">
+        <v>27</v>
+      </c>
+      <c r="E112">
+        <v>28</v>
+      </c>
+      <c r="F112">
+        <v>29</v>
+      </c>
+      <c r="G112">
+        <v>8000</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>270</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>462</v>
+      </c>
+      <c r="L112" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>11408</v>
+      </c>
+      <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D113">
+        <v>27</v>
+      </c>
+      <c r="E113">
+        <v>28</v>
+      </c>
+      <c r="F113">
+        <v>29</v>
+      </c>
+      <c r="G113">
+        <v>8000</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>270</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>462</v>
+      </c>
+      <c r="L113" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>11409</v>
+      </c>
+      <c r="B114" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D114">
+        <v>27</v>
+      </c>
+      <c r="E114">
+        <v>28</v>
+      </c>
+      <c r="F114">
+        <v>29</v>
+      </c>
+      <c r="G114">
+        <v>8000</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>270</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>462</v>
+      </c>
+      <c r="L114" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5856,27 +6227,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
     <col min="12" max="13" width="22.625" customWidth="1"/>
-    <col min="14" max="14" width="25.75" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -5925,8 +6300,17 @@
       <c r="P1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R1" t="s">
+        <v>466</v>
+      </c>
+      <c r="S1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5966,8 +6350,11 @@
       <c r="P2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6007,8 +6394,11 @@
       <c r="P3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6048,8 +6438,11 @@
       <c r="P4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6089,8 +6482,11 @@
       <c r="P5" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6130,8 +6526,11 @@
       <c r="P6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6168,8 +6567,11 @@
       <c r="P7" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6206,8 +6608,11 @@
       <c r="P8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6244,8 +6649,11 @@
       <c r="P9" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6282,8 +6690,11 @@
       <c r="P10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6317,8 +6728,11 @@
       <c r="P11" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6346,8 +6760,11 @@
       <c r="P12" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6387,8 +6804,11 @@
       <c r="P13" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6425,8 +6845,11 @@
       <c r="P14" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6463,8 +6886,11 @@
       <c r="P15" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6501,8 +6927,11 @@
       <c r="P16" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6539,8 +6968,11 @@
       <c r="P17" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6577,8 +7009,11 @@
       <c r="P18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6615,8 +7050,14 @@
       <c r="P19" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6648,8 +7089,11 @@
       <c r="P20" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6686,8 +7130,11 @@
       <c r="P21" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6713,8 +7160,14 @@
       <c r="P22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R22">
+        <v>22</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6757,8 +7210,14 @@
       <c r="P23" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6788,8 +7247,11 @@
       <c r="P24" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6819,8 +7281,14 @@
       <c r="P25" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R25">
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6863,8 +7331,14 @@
       <c r="P26" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R26">
+        <v>26</v>
+      </c>
+      <c r="S26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6893,6 +7367,126 @@
       </c>
       <c r="P27" t="s">
         <v>452</v>
+      </c>
+      <c r="S27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="M28" t="s">
+        <v>463</v>
+      </c>
+      <c r="N28" t="s">
+        <v>459</v>
+      </c>
+      <c r="O28" t="s">
+        <v>431</v>
+      </c>
+      <c r="P28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>28</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E29" s="38">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="M29" t="s">
+        <v>463</v>
+      </c>
+      <c r="N29" t="s">
+        <v>459</v>
+      </c>
+      <c r="O29" t="s">
+        <v>431</v>
+      </c>
+      <c r="P29" t="s">
+        <v>213</v>
+      </c>
+      <c r="R29">
+        <v>29</v>
+      </c>
+      <c r="S29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="M30" t="s">
+        <v>463</v>
+      </c>
+      <c r="N30" t="s">
+        <v>459</v>
+      </c>
+      <c r="O30" t="s">
+        <v>431</v>
+      </c>
+      <c r="P30" t="s">
+        <v>213</v>
+      </c>
+      <c r="S30">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="468">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,9 +1460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_pt</t>
-  </si>
-  <si>
     <t>拖尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1822,6 +1819,14 @@
   </si>
   <si>
     <t>下一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue_pt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,11 +2545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2552,13 +2557,12 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="38.25" customWidth="1"/>
-    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="38.25" customWidth="1"/>
+    <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2572,31 +2576,25 @@
         <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -2609,23 +2607,23 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
       <c r="G2">
-        <v>3000</v>
-      </c>
-      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -2638,23 +2636,23 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
       <c r="G3">
-        <v>3000</v>
-      </c>
-      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -2667,23 +2665,23 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
       <c r="G4">
-        <v>3000</v>
-      </c>
-      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -2696,23 +2694,23 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
       <c r="G5">
-        <v>3000</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -2725,23 +2723,23 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
       <c r="G6">
-        <v>3000</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10106</v>
       </c>
@@ -2754,23 +2752,23 @@
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
       <c r="G7">
-        <v>3000</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10107</v>
       </c>
@@ -2783,23 +2781,23 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
       <c r="G8">
-        <v>3000</v>
-      </c>
-      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10108</v>
       </c>
@@ -2812,23 +2810,23 @@
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
       <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10109</v>
       </c>
@@ -2841,23 +2839,23 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
       <c r="G10">
-        <v>3000</v>
-      </c>
-      <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10201</v>
       </c>
@@ -2870,23 +2868,23 @@
       <c r="D11">
         <v>3</v>
       </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
       <c r="G11">
-        <v>2000</v>
-      </c>
-      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10202</v>
       </c>
@@ -2899,23 +2897,23 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
       <c r="G12">
-        <v>2000</v>
-      </c>
-      <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" t="s">
+      <c r="J12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10203</v>
       </c>
@@ -2928,23 +2926,23 @@
       <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
       <c r="G13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" t="s">
+      <c r="J13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10204</v>
       </c>
@@ -2957,23 +2955,23 @@
       <c r="D14">
         <v>3</v>
       </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
       <c r="G14">
-        <v>2000</v>
-      </c>
-      <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10205</v>
       </c>
@@ -2986,23 +2984,23 @@
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
       <c r="G15">
-        <v>2000</v>
-      </c>
-      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="L15" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10206</v>
       </c>
@@ -3015,23 +3013,23 @@
       <c r="D16">
         <v>3</v>
       </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
       <c r="G16">
-        <v>2000</v>
-      </c>
-      <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="K16" t="s">
+      <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" t="s">
+      <c r="J16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10207</v>
       </c>
@@ -3044,23 +3042,23 @@
       <c r="D17">
         <v>3</v>
       </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
       <c r="G17">
-        <v>2000</v>
-      </c>
-      <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="L17" t="s">
+      <c r="J17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10301</v>
       </c>
@@ -3073,23 +3071,23 @@
       <c r="D18">
         <v>4</v>
       </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
       <c r="G18">
-        <v>600</v>
-      </c>
-      <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="L18" t="s">
+      <c r="J18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10302</v>
       </c>
@@ -3102,23 +3100,23 @@
       <c r="D19">
         <v>4</v>
       </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
       <c r="G19">
-        <v>600</v>
-      </c>
-      <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="L19" t="s">
+      <c r="J19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10303</v>
       </c>
@@ -3131,23 +3129,23 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
       <c r="G20">
-        <v>600</v>
-      </c>
-      <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="I20" t="s">
         <v>22</v>
       </c>
-      <c r="L20" t="s">
+      <c r="J20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10304</v>
       </c>
@@ -3160,23 +3158,23 @@
       <c r="D21">
         <v>4</v>
       </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
       <c r="G21">
-        <v>600</v>
-      </c>
-      <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="K21" t="s">
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="L21" t="s">
+      <c r="J21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10305</v>
       </c>
@@ -3189,23 +3187,23 @@
       <c r="D22">
         <v>4</v>
       </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
       <c r="G22">
-        <v>600</v>
-      </c>
-      <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="K22" t="s">
+      <c r="I22" t="s">
         <v>22</v>
       </c>
-      <c r="L22" t="s">
+      <c r="J22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10306</v>
       </c>
@@ -3218,23 +3216,23 @@
       <c r="D23">
         <v>4</v>
       </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
       <c r="G23">
-        <v>600</v>
-      </c>
-      <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="K23" t="s">
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" t="s">
+      <c r="J23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10307</v>
       </c>
@@ -3247,23 +3245,23 @@
       <c r="D24">
         <v>4</v>
       </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
       <c r="G24">
-        <v>600</v>
-      </c>
-      <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="H24">
         <v>7</v>
       </c>
-      <c r="K24" t="s">
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="L24" t="s">
+      <c r="J24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10401</v>
       </c>
@@ -3276,23 +3274,23 @@
       <c r="D25">
         <v>5</v>
       </c>
+      <c r="E25">
+        <v>6000</v>
+      </c>
       <c r="G25">
-        <v>6000</v>
-      </c>
-      <c r="I25">
         <v>200</v>
       </c>
-      <c r="J25">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="L25" t="s">
+      <c r="J25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10402</v>
       </c>
@@ -3305,23 +3303,23 @@
       <c r="D26">
         <v>5</v>
       </c>
+      <c r="E26">
+        <v>6000</v>
+      </c>
       <c r="G26">
-        <v>6000</v>
-      </c>
-      <c r="I26">
         <v>200</v>
       </c>
-      <c r="J26">
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="K26" t="s">
+      <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="J26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10403</v>
       </c>
@@ -3334,23 +3332,23 @@
       <c r="D27">
         <v>5</v>
       </c>
+      <c r="E27">
+        <v>6000</v>
+      </c>
       <c r="G27">
-        <v>6000</v>
-      </c>
-      <c r="I27">
         <v>200</v>
       </c>
-      <c r="J27">
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="K27" t="s">
+      <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="L27" t="s">
+      <c r="J27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10404</v>
       </c>
@@ -3363,23 +3361,23 @@
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="E28">
+        <v>6000</v>
+      </c>
       <c r="G28">
-        <v>6000</v>
-      </c>
-      <c r="I28">
         <v>200</v>
       </c>
-      <c r="J28">
+      <c r="H28">
         <v>4</v>
       </c>
-      <c r="K28" t="s">
+      <c r="I28" t="s">
         <v>23</v>
       </c>
-      <c r="L28" t="s">
+      <c r="J28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10405</v>
       </c>
@@ -3392,23 +3390,23 @@
       <c r="D29">
         <v>5</v>
       </c>
+      <c r="E29">
+        <v>6000</v>
+      </c>
       <c r="G29">
-        <v>6000</v>
-      </c>
-      <c r="I29">
         <v>200</v>
       </c>
-      <c r="J29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="K29" t="s">
+      <c r="I29" t="s">
         <v>23</v>
       </c>
-      <c r="L29" t="s">
+      <c r="J29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10406</v>
       </c>
@@ -3421,23 +3419,23 @@
       <c r="D30">
         <v>5</v>
       </c>
+      <c r="E30">
+        <v>6000</v>
+      </c>
       <c r="G30">
-        <v>6000</v>
-      </c>
-      <c r="I30">
         <v>200</v>
       </c>
-      <c r="J30">
+      <c r="H30">
         <v>6</v>
       </c>
-      <c r="K30" t="s">
+      <c r="I30" t="s">
         <v>23</v>
       </c>
-      <c r="L30" t="s">
+      <c r="J30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10407</v>
       </c>
@@ -3450,23 +3448,23 @@
       <c r="D31">
         <v>5</v>
       </c>
+      <c r="E31">
+        <v>6000</v>
+      </c>
       <c r="G31">
-        <v>6000</v>
-      </c>
-      <c r="I31">
         <v>200</v>
       </c>
-      <c r="J31">
+      <c r="H31">
         <v>7</v>
       </c>
-      <c r="K31" t="s">
+      <c r="I31" t="s">
         <v>23</v>
       </c>
-      <c r="L31" t="s">
+      <c r="J31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10501</v>
       </c>
@@ -3479,23 +3477,23 @@
       <c r="D32">
         <v>6</v>
       </c>
+      <c r="E32">
+        <v>1500</v>
+      </c>
       <c r="G32">
-        <v>1500</v>
-      </c>
-      <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="K32" t="s">
+      <c r="I32" t="s">
         <v>24</v>
       </c>
-      <c r="L32" t="s">
+      <c r="J32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10502</v>
       </c>
@@ -3508,23 +3506,23 @@
       <c r="D33">
         <v>6</v>
       </c>
+      <c r="E33">
+        <v>3000</v>
+      </c>
       <c r="G33">
-        <v>3000</v>
-      </c>
-      <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="K33" t="s">
+      <c r="I33" t="s">
         <v>24</v>
       </c>
-      <c r="L33" t="s">
+      <c r="J33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10503</v>
       </c>
@@ -3537,23 +3535,23 @@
       <c r="D34">
         <v>6</v>
       </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
       <c r="G34">
-        <v>3000</v>
-      </c>
-      <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="H34">
         <v>1</v>
       </c>
-      <c r="K34" t="s">
+      <c r="I34" t="s">
         <v>24</v>
       </c>
-      <c r="L34" t="s">
+      <c r="J34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10504</v>
       </c>
@@ -3566,23 +3564,23 @@
       <c r="D35">
         <v>6</v>
       </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
       <c r="G35">
-        <v>3000</v>
-      </c>
-      <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
+      <c r="I35" t="s">
         <v>24</v>
       </c>
-      <c r="L35" t="s">
+      <c r="J35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10505</v>
       </c>
@@ -3595,23 +3593,23 @@
       <c r="D36">
         <v>6</v>
       </c>
+      <c r="E36">
+        <v>3000</v>
+      </c>
       <c r="G36">
-        <v>3000</v>
-      </c>
-      <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
+      <c r="I36" t="s">
         <v>24</v>
       </c>
-      <c r="L36" t="s">
+      <c r="J36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>10506</v>
       </c>
@@ -3624,23 +3622,23 @@
       <c r="D37">
         <v>6</v>
       </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
       <c r="G37">
-        <v>3000</v>
-      </c>
-      <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
+      <c r="I37" t="s">
         <v>24</v>
       </c>
-      <c r="L37" t="s">
+      <c r="J37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>10507</v>
       </c>
@@ -3653,23 +3651,23 @@
       <c r="D38">
         <v>6</v>
       </c>
+      <c r="E38">
+        <v>3000</v>
+      </c>
       <c r="G38">
-        <v>3000</v>
-      </c>
-      <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="K38" t="s">
+      <c r="I38" t="s">
         <v>24</v>
       </c>
-      <c r="L38" t="s">
+      <c r="J38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10508</v>
       </c>
@@ -3682,23 +3680,23 @@
       <c r="D39">
         <v>6</v>
       </c>
+      <c r="E39">
+        <v>3000</v>
+      </c>
       <c r="G39">
-        <v>3000</v>
-      </c>
-      <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="K39" t="s">
+      <c r="I39" t="s">
         <v>24</v>
       </c>
-      <c r="L39" t="s">
+      <c r="J39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>10509</v>
       </c>
@@ -3711,23 +3709,23 @@
       <c r="D40">
         <v>6</v>
       </c>
+      <c r="E40">
+        <v>3000</v>
+      </c>
       <c r="G40">
-        <v>3000</v>
-      </c>
-      <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="H40">
         <v>1</v>
       </c>
-      <c r="K40" t="s">
+      <c r="I40" t="s">
         <v>24</v>
       </c>
-      <c r="L40" t="s">
+      <c r="J40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>10601</v>
       </c>
@@ -3740,23 +3738,23 @@
       <c r="D41">
         <v>7</v>
       </c>
+      <c r="E41">
+        <v>3000</v>
+      </c>
       <c r="G41">
-        <v>3000</v>
-      </c>
-      <c r="I41">
         <v>150</v>
       </c>
-      <c r="J41">
+      <c r="H41">
         <v>3</v>
       </c>
-      <c r="K41" t="s">
+      <c r="I41" t="s">
         <v>25</v>
       </c>
-      <c r="L41" t="s">
+      <c r="J41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10602</v>
       </c>
@@ -3769,23 +3767,23 @@
       <c r="D42">
         <v>8</v>
       </c>
+      <c r="E42">
+        <v>3000</v>
+      </c>
       <c r="G42">
-        <v>3000</v>
-      </c>
-      <c r="I42">
         <v>250</v>
       </c>
-      <c r="J42">
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="K42" t="s">
+      <c r="I42" t="s">
         <v>25</v>
       </c>
-      <c r="L42" t="s">
+      <c r="J42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10603</v>
       </c>
@@ -3798,23 +3796,23 @@
       <c r="D43">
         <v>9</v>
       </c>
+      <c r="E43">
+        <v>3000</v>
+      </c>
       <c r="G43">
-        <v>3000</v>
-      </c>
-      <c r="I43">
         <v>350</v>
       </c>
-      <c r="J43">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="K43" t="s">
+      <c r="I43" t="s">
         <v>25</v>
       </c>
-      <c r="L43" t="s">
+      <c r="J43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>10701</v>
       </c>
@@ -3827,23 +3825,23 @@
       <c r="D44">
         <v>10</v>
       </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
       <c r="G44">
-        <v>500</v>
-      </c>
-      <c r="I44">
         <v>350</v>
       </c>
-      <c r="J44">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="K44" t="s">
+      <c r="I44" t="s">
         <v>73</v>
       </c>
-      <c r="L44" t="s">
+      <c r="J44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>10702</v>
       </c>
@@ -3856,23 +3854,23 @@
       <c r="D45">
         <v>10</v>
       </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
       <c r="G45">
-        <v>500</v>
-      </c>
-      <c r="I45">
         <v>350</v>
       </c>
-      <c r="J45">
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="K45" t="s">
+      <c r="I45" t="s">
         <v>73</v>
       </c>
-      <c r="L45" t="s">
+      <c r="J45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>10703</v>
       </c>
@@ -3885,23 +3883,23 @@
       <c r="D46">
         <v>10</v>
       </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
       <c r="G46">
-        <v>500</v>
-      </c>
-      <c r="I46">
         <v>350</v>
       </c>
-      <c r="J46">
+      <c r="H46">
         <v>4</v>
       </c>
-      <c r="K46" t="s">
+      <c r="I46" t="s">
         <v>73</v>
       </c>
-      <c r="L46" t="s">
+      <c r="J46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>10704</v>
       </c>
@@ -3914,23 +3912,23 @@
       <c r="D47">
         <v>10</v>
       </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
       <c r="G47">
-        <v>500</v>
-      </c>
-      <c r="I47">
         <v>350</v>
       </c>
-      <c r="J47">
+      <c r="H47">
         <v>4</v>
       </c>
-      <c r="K47" t="s">
+      <c r="I47" t="s">
         <v>73</v>
       </c>
-      <c r="L47" t="s">
+      <c r="J47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>10705</v>
       </c>
@@ -3943,23 +3941,23 @@
       <c r="D48">
         <v>10</v>
       </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
       <c r="G48">
-        <v>500</v>
-      </c>
-      <c r="I48">
         <v>350</v>
       </c>
-      <c r="J48">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="K48" t="s">
+      <c r="I48" t="s">
         <v>73</v>
       </c>
-      <c r="L48" t="s">
+      <c r="J48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>10706</v>
       </c>
@@ -3972,23 +3970,23 @@
       <c r="D49">
         <v>10</v>
       </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
       <c r="G49">
-        <v>500</v>
-      </c>
-      <c r="I49">
         <v>350</v>
       </c>
-      <c r="J49">
+      <c r="H49">
         <v>4</v>
       </c>
-      <c r="K49" t="s">
+      <c r="I49" t="s">
         <v>73</v>
       </c>
-      <c r="L49" t="s">
+      <c r="J49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>10707</v>
       </c>
@@ -4001,23 +3999,23 @@
       <c r="D50">
         <v>10</v>
       </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
       <c r="G50">
-        <v>500</v>
-      </c>
-      <c r="I50">
         <v>350</v>
       </c>
-      <c r="J50">
+      <c r="H50">
         <v>4</v>
       </c>
-      <c r="K50" t="s">
+      <c r="I50" t="s">
         <v>73</v>
       </c>
-      <c r="L50" t="s">
+      <c r="J50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>10708</v>
       </c>
@@ -4030,23 +4028,23 @@
       <c r="D51">
         <v>10</v>
       </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
       <c r="G51">
-        <v>500</v>
-      </c>
-      <c r="I51">
         <v>350</v>
       </c>
-      <c r="J51">
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="K51" t="s">
+      <c r="I51" t="s">
         <v>73</v>
       </c>
-      <c r="L51" t="s">
+      <c r="J51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>10709</v>
       </c>
@@ -4059,23 +4057,23 @@
       <c r="D52">
         <v>10</v>
       </c>
+      <c r="E52">
+        <v>500</v>
+      </c>
       <c r="G52">
-        <v>500</v>
-      </c>
-      <c r="I52">
         <v>350</v>
       </c>
-      <c r="J52">
+      <c r="H52">
         <v>4</v>
       </c>
-      <c r="K52" t="s">
+      <c r="I52" t="s">
         <v>73</v>
       </c>
-      <c r="L52" t="s">
+      <c r="J52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>10801</v>
       </c>
@@ -4088,29 +4086,26 @@
       <c r="D53">
         <v>11</v>
       </c>
+      <c r="E53">
+        <v>4000</v>
+      </c>
       <c r="F53">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H53">
-        <v>100</v>
-      </c>
-      <c r="I53">
-        <v>150</v>
-      </c>
-      <c r="J53">
         <v>4</v>
       </c>
-      <c r="K53" t="s">
+      <c r="I53" t="s">
         <v>91</v>
       </c>
-      <c r="L53" t="s">
+      <c r="J53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>10802</v>
       </c>
@@ -4123,29 +4118,26 @@
       <c r="D54">
         <v>11</v>
       </c>
+      <c r="E54">
+        <v>4000</v>
+      </c>
       <c r="F54">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H54">
-        <v>100</v>
-      </c>
-      <c r="I54">
-        <v>150</v>
-      </c>
-      <c r="J54">
         <v>4</v>
       </c>
-      <c r="K54" t="s">
+      <c r="I54" t="s">
         <v>91</v>
       </c>
-      <c r="L54" t="s">
+      <c r="J54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>10803</v>
       </c>
@@ -4158,29 +4150,26 @@
       <c r="D55">
         <v>11</v>
       </c>
+      <c r="E55">
+        <v>4000</v>
+      </c>
       <c r="F55">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G55">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H55">
-        <v>100</v>
-      </c>
-      <c r="I55">
-        <v>150</v>
-      </c>
-      <c r="J55">
         <v>4</v>
       </c>
-      <c r="K55" t="s">
+      <c r="I55" t="s">
         <v>91</v>
       </c>
-      <c r="L55" t="s">
+      <c r="J55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>10804</v>
       </c>
@@ -4193,29 +4182,26 @@
       <c r="D56">
         <v>11</v>
       </c>
+      <c r="E56">
+        <v>4000</v>
+      </c>
       <c r="F56">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H56">
-        <v>100</v>
-      </c>
-      <c r="I56">
-        <v>150</v>
-      </c>
-      <c r="J56">
         <v>4</v>
       </c>
-      <c r="K56" t="s">
+      <c r="I56" t="s">
         <v>91</v>
       </c>
-      <c r="L56" t="s">
+      <c r="J56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>10805</v>
       </c>
@@ -4228,29 +4214,26 @@
       <c r="D57">
         <v>11</v>
       </c>
+      <c r="E57">
+        <v>4000</v>
+      </c>
       <c r="F57">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G57">
-        <v>4000</v>
+        <v>350</v>
       </c>
       <c r="H57">
-        <v>100</v>
-      </c>
-      <c r="I57">
-        <v>350</v>
-      </c>
-      <c r="J57">
         <v>4</v>
       </c>
-      <c r="K57" t="s">
+      <c r="I57" t="s">
         <v>91</v>
       </c>
-      <c r="L57" t="s">
+      <c r="J57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>10806</v>
       </c>
@@ -4263,29 +4246,26 @@
       <c r="D58">
         <v>11</v>
       </c>
+      <c r="E58">
+        <v>4000</v>
+      </c>
       <c r="F58">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>4000</v>
+        <v>350</v>
       </c>
       <c r="H58">
-        <v>100</v>
-      </c>
-      <c r="I58">
-        <v>350</v>
-      </c>
-      <c r="J58">
         <v>4</v>
       </c>
-      <c r="K58" t="s">
+      <c r="I58" t="s">
         <v>91</v>
       </c>
-      <c r="L58" t="s">
+      <c r="J58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>10807</v>
       </c>
@@ -4298,29 +4278,26 @@
       <c r="D59">
         <v>11</v>
       </c>
+      <c r="E59">
+        <v>4000</v>
+      </c>
       <c r="F59">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G59">
-        <v>4000</v>
+        <v>350</v>
       </c>
       <c r="H59">
-        <v>100</v>
-      </c>
-      <c r="I59">
-        <v>350</v>
-      </c>
-      <c r="J59">
         <v>4</v>
       </c>
-      <c r="K59" t="s">
+      <c r="I59" t="s">
         <v>91</v>
       </c>
-      <c r="L59" t="s">
+      <c r="J59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>10808</v>
       </c>
@@ -4333,29 +4310,26 @@
       <c r="D60">
         <v>11</v>
       </c>
+      <c r="E60">
+        <v>4000</v>
+      </c>
       <c r="F60">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G60">
-        <v>4000</v>
+        <v>350</v>
       </c>
       <c r="H60">
-        <v>100</v>
-      </c>
-      <c r="I60">
-        <v>350</v>
-      </c>
-      <c r="J60">
         <v>4</v>
       </c>
-      <c r="K60" t="s">
+      <c r="I60" t="s">
         <v>91</v>
       </c>
-      <c r="L60" t="s">
+      <c r="J60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>10809</v>
       </c>
@@ -4368,29 +4342,26 @@
       <c r="D61">
         <v>11</v>
       </c>
+      <c r="E61">
+        <v>4000</v>
+      </c>
       <c r="F61">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>4000</v>
+        <v>350</v>
       </c>
       <c r="H61">
-        <v>100</v>
-      </c>
-      <c r="I61">
-        <v>350</v>
-      </c>
-      <c r="J61">
         <v>4</v>
       </c>
-      <c r="K61" t="s">
+      <c r="I61" t="s">
         <v>91</v>
       </c>
-      <c r="L61" t="s">
+      <c r="J61" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>10901</v>
       </c>
@@ -4403,26 +4374,23 @@
       <c r="D62">
         <v>13</v>
       </c>
-      <c r="F62">
-        <v>0</v>
+      <c r="E62">
+        <v>1500</v>
       </c>
       <c r="G62">
-        <v>1500</v>
-      </c>
-      <c r="I62">
         <v>300</v>
       </c>
-      <c r="J62">
+      <c r="H62">
         <v>1</v>
       </c>
-      <c r="K62" t="s">
+      <c r="I62" t="s">
         <v>350</v>
       </c>
-      <c r="L62" t="s">
+      <c r="J62" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>10902</v>
       </c>
@@ -4435,26 +4403,23 @@
       <c r="D63">
         <v>13</v>
       </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="E63">
+        <v>1400</v>
       </c>
       <c r="G63">
-        <v>1400</v>
-      </c>
-      <c r="I63">
         <v>300</v>
       </c>
-      <c r="J63">
+      <c r="H63">
         <v>1</v>
       </c>
-      <c r="K63" t="s">
+      <c r="I63" t="s">
         <v>350</v>
       </c>
-      <c r="L63" t="s">
+      <c r="J63" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>10903</v>
       </c>
@@ -4467,26 +4432,23 @@
       <c r="D64">
         <v>13</v>
       </c>
-      <c r="F64">
-        <v>0</v>
+      <c r="E64">
+        <v>1400</v>
       </c>
       <c r="G64">
-        <v>1400</v>
-      </c>
-      <c r="I64">
         <v>300</v>
       </c>
-      <c r="J64">
+      <c r="H64">
         <v>1</v>
       </c>
-      <c r="K64" t="s">
+      <c r="I64" t="s">
         <v>350</v>
       </c>
-      <c r="L64" t="s">
+      <c r="J64" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>10904</v>
       </c>
@@ -4499,23 +4461,23 @@
       <c r="D65">
         <v>13</v>
       </c>
+      <c r="E65">
+        <v>1400</v>
+      </c>
       <c r="G65">
-        <v>1400</v>
-      </c>
-      <c r="I65">
         <v>300</v>
       </c>
-      <c r="J65">
+      <c r="H65">
         <v>2</v>
       </c>
-      <c r="K65" t="s">
+      <c r="I65" t="s">
         <v>350</v>
       </c>
-      <c r="L65" t="s">
+      <c r="J65" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>10905</v>
       </c>
@@ -4528,23 +4490,23 @@
       <c r="D66">
         <v>13</v>
       </c>
+      <c r="E66">
+        <v>1300</v>
+      </c>
       <c r="G66">
-        <v>1300</v>
-      </c>
-      <c r="I66">
         <v>300</v>
       </c>
-      <c r="J66">
+      <c r="H66">
         <v>2</v>
       </c>
-      <c r="K66" t="s">
+      <c r="I66" t="s">
         <v>350</v>
       </c>
-      <c r="L66" t="s">
+      <c r="J66" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>10906</v>
       </c>
@@ -4557,23 +4519,23 @@
       <c r="D67">
         <v>13</v>
       </c>
+      <c r="E67">
+        <v>1300</v>
+      </c>
       <c r="G67">
-        <v>1300</v>
-      </c>
-      <c r="I67">
         <v>300</v>
       </c>
-      <c r="J67">
+      <c r="H67">
         <v>2</v>
       </c>
-      <c r="K67" t="s">
+      <c r="I67" t="s">
         <v>350</v>
       </c>
-      <c r="L67" t="s">
+      <c r="J67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>10907</v>
       </c>
@@ -4586,23 +4548,23 @@
       <c r="D68">
         <v>13</v>
       </c>
+      <c r="E68">
+        <v>1200</v>
+      </c>
       <c r="G68">
-        <v>1200</v>
-      </c>
-      <c r="I68">
         <v>300</v>
       </c>
-      <c r="J68">
+      <c r="H68">
         <v>2</v>
       </c>
-      <c r="K68" t="s">
+      <c r="I68" t="s">
         <v>350</v>
       </c>
-      <c r="L68" t="s">
+      <c r="J68" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>10908</v>
       </c>
@@ -4615,28 +4577,28 @@
       <c r="D69">
         <v>13</v>
       </c>
+      <c r="E69">
+        <v>1100</v>
+      </c>
       <c r="G69">
-        <v>1100</v>
-      </c>
-      <c r="I69">
         <v>300</v>
       </c>
-      <c r="J69">
+      <c r="H69">
         <v>2</v>
       </c>
-      <c r="K69" t="s">
+      <c r="I69" t="s">
         <v>350</v>
       </c>
-      <c r="L69" t="s">
+      <c r="J69" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>11001</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -4644,31 +4606,28 @@
       <c r="D70">
         <v>14</v>
       </c>
-      <c r="F70">
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <v>1000</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="H70">
         <v>1</v>
       </c>
-      <c r="K70" t="s">
-        <v>381</v>
-      </c>
-      <c r="L70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I70" t="s">
+        <v>380</v>
+      </c>
+      <c r="J70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>11002</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -4676,31 +4635,28 @@
       <c r="D71">
         <v>14</v>
       </c>
-      <c r="F71">
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>1000</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
+      <c r="H71">
         <v>2</v>
       </c>
-      <c r="K71" t="s">
-        <v>381</v>
-      </c>
-      <c r="L71" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I71" t="s">
+        <v>380</v>
+      </c>
+      <c r="J71" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>11003</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -4708,496 +4664,475 @@
       <c r="D72">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="E72">
+        <v>900</v>
+      </c>
+      <c r="G72">
         <v>0</v>
       </c>
-      <c r="G72">
-        <v>900</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="H72">
         <v>2</v>
       </c>
-      <c r="K72" t="s">
-        <v>381</v>
-      </c>
-      <c r="L72" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I72" t="s">
+        <v>380</v>
+      </c>
+      <c r="J72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>11004</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D73">
         <v>15</v>
       </c>
-      <c r="F73">
+      <c r="E73">
+        <v>900</v>
+      </c>
+      <c r="G73">
         <v>0</v>
       </c>
-      <c r="G73">
-        <v>900</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="H73">
         <v>3</v>
       </c>
-      <c r="K73" t="s">
-        <v>381</v>
-      </c>
-      <c r="L73" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I73" t="s">
+        <v>380</v>
+      </c>
+      <c r="J73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>11005</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D74">
         <v>16</v>
       </c>
-      <c r="F74">
+      <c r="E74">
+        <v>800</v>
+      </c>
+      <c r="G74">
         <v>0</v>
       </c>
-      <c r="G74">
-        <v>800</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
+      <c r="H74">
         <v>3</v>
       </c>
-      <c r="K74" t="s">
-        <v>381</v>
-      </c>
-      <c r="L74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I74" t="s">
+        <v>380</v>
+      </c>
+      <c r="J74" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>11006</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D75">
         <v>16</v>
       </c>
+      <c r="E75">
+        <v>800</v>
+      </c>
       <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
         <v>0</v>
       </c>
-      <c r="G75">
-        <v>800</v>
-      </c>
       <c r="H75">
-        <v>20</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
         <v>4</v>
       </c>
-      <c r="K75" t="s">
-        <v>381</v>
-      </c>
-      <c r="L75" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I75" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>11007</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D76">
         <v>17</v>
       </c>
+      <c r="E76">
+        <v>700</v>
+      </c>
       <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
         <v>0</v>
       </c>
-      <c r="G76">
-        <v>700</v>
-      </c>
       <c r="H76">
-        <v>20</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
         <v>4</v>
       </c>
-      <c r="K76" t="s">
-        <v>381</v>
-      </c>
-      <c r="L76" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I76" t="s">
+        <v>380</v>
+      </c>
+      <c r="J76" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>11008</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D77">
         <v>17</v>
       </c>
+      <c r="E77">
+        <v>700</v>
+      </c>
       <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
         <v>0</v>
       </c>
-      <c r="G77">
-        <v>700</v>
-      </c>
       <c r="H77">
-        <v>20</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
         <v>5</v>
       </c>
-      <c r="K77" t="s">
-        <v>381</v>
-      </c>
-      <c r="L77" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I77" t="s">
+        <v>380</v>
+      </c>
+      <c r="J77" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>11009</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D78">
         <v>18</v>
       </c>
+      <c r="E78">
+        <v>600</v>
+      </c>
       <c r="F78">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G78">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>20</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
         <v>5</v>
       </c>
-      <c r="K78" t="s">
-        <v>381</v>
-      </c>
-      <c r="L78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I78" t="s">
+        <v>380</v>
+      </c>
+      <c r="J78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>11101</v>
       </c>
       <c r="B79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
+      <c r="E79">
+        <v>2000</v>
+      </c>
       <c r="G79">
-        <v>2000</v>
-      </c>
-      <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79">
+      <c r="H79">
         <v>1</v>
       </c>
-      <c r="K79" t="s">
-        <v>386</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="I79" t="s">
+        <v>385</v>
+      </c>
+      <c r="J79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>11102</v>
       </c>
       <c r="B80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D80">
         <v>20</v>
       </c>
+      <c r="E80">
+        <v>2000</v>
+      </c>
       <c r="G80">
-        <v>2000</v>
-      </c>
-      <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80">
+      <c r="H80">
         <v>2</v>
       </c>
-      <c r="K80" t="s">
-        <v>386</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="I80" t="s">
+        <v>385</v>
+      </c>
+      <c r="J80" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>11103</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D81">
         <v>20</v>
       </c>
+      <c r="E81">
+        <v>2000</v>
+      </c>
       <c r="G81">
-        <v>2000</v>
-      </c>
-      <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81">
+      <c r="H81">
         <v>3</v>
       </c>
-      <c r="K81" t="s">
-        <v>386</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="I81" t="s">
+        <v>385</v>
+      </c>
+      <c r="J81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>11104</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D82">
         <v>20</v>
       </c>
+      <c r="E82">
+        <v>2000</v>
+      </c>
       <c r="G82">
-        <v>2000</v>
-      </c>
-      <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82">
+      <c r="H82">
         <v>4</v>
       </c>
-      <c r="K82" t="s">
-        <v>386</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="I82" t="s">
+        <v>385</v>
+      </c>
+      <c r="J82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>11105</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D83">
         <v>20</v>
       </c>
+      <c r="E83">
+        <v>2000</v>
+      </c>
       <c r="G83">
-        <v>2000</v>
-      </c>
-      <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83">
+      <c r="H83">
         <v>5</v>
       </c>
-      <c r="K83" t="s">
-        <v>386</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="I83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>11106</v>
       </c>
       <c r="B84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D84">
         <v>20</v>
       </c>
+      <c r="E84">
+        <v>2000</v>
+      </c>
       <c r="G84">
-        <v>2000</v>
-      </c>
-      <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84">
+      <c r="H84">
         <v>6</v>
       </c>
-      <c r="K84" t="s">
-        <v>386</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="I84" t="s">
+        <v>385</v>
+      </c>
+      <c r="J84" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>11107</v>
       </c>
       <c r="B85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D85">
         <v>20</v>
       </c>
+      <c r="E85">
+        <v>2000</v>
+      </c>
       <c r="G85">
-        <v>2000</v>
-      </c>
-      <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85">
+      <c r="H85">
         <v>7</v>
       </c>
-      <c r="K85" t="s">
-        <v>386</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="I85" t="s">
+        <v>385</v>
+      </c>
+      <c r="J85" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>11108</v>
       </c>
       <c r="B86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D86">
         <v>20</v>
       </c>
+      <c r="E86">
+        <v>2000</v>
+      </c>
       <c r="G86">
-        <v>2000</v>
-      </c>
-      <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86">
+      <c r="H86">
         <v>8</v>
       </c>
-      <c r="K86" t="s">
-        <v>386</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="I86" t="s">
+        <v>385</v>
+      </c>
+      <c r="J86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>11109</v>
       </c>
       <c r="B87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
+      <c r="E87">
+        <v>2000</v>
+      </c>
       <c r="G87">
-        <v>2000</v>
-      </c>
-      <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87">
+      <c r="H87">
         <v>9</v>
       </c>
-      <c r="K87" t="s">
-        <v>386</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="I87" t="s">
+        <v>385</v>
+      </c>
+      <c r="J87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>11201</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>92</v>
@@ -5206,36 +5141,30 @@
         <v>21</v>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F88">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G88">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H88">
-        <v>100</v>
-      </c>
-      <c r="I88">
-        <v>180</v>
-      </c>
-      <c r="J88">
         <v>1</v>
       </c>
-      <c r="K88" t="s">
-        <v>427</v>
-      </c>
-      <c r="L88" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I88" t="s">
+        <v>426</v>
+      </c>
+      <c r="J88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>11202</v>
       </c>
       <c r="B89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>92</v>
@@ -5244,36 +5173,30 @@
         <v>21</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F89">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G89">
-        <v>2000</v>
+        <v>190</v>
       </c>
       <c r="H89">
-        <v>100</v>
-      </c>
-      <c r="I89">
-        <v>190</v>
-      </c>
-      <c r="J89">
         <v>1</v>
       </c>
-      <c r="K89" t="s">
-        <v>427</v>
-      </c>
-      <c r="L89" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I89" t="s">
+        <v>426</v>
+      </c>
+      <c r="J89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>11203</v>
       </c>
       <c r="B90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>92</v>
@@ -5282,36 +5205,30 @@
         <v>21</v>
       </c>
       <c r="E90">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F90">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G90">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H90">
-        <v>100</v>
-      </c>
-      <c r="I90">
-        <v>200</v>
-      </c>
-      <c r="J90">
         <v>2</v>
       </c>
-      <c r="K90" t="s">
-        <v>427</v>
-      </c>
-      <c r="L90" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I90" t="s">
+        <v>426</v>
+      </c>
+      <c r="J90" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>11204</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>92</v>
@@ -5320,36 +5237,30 @@
         <v>21</v>
       </c>
       <c r="E91">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F91">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G91">
-        <v>2000</v>
+        <v>210</v>
       </c>
       <c r="H91">
-        <v>100</v>
-      </c>
-      <c r="I91">
-        <v>210</v>
-      </c>
-      <c r="J91">
         <v>2</v>
       </c>
-      <c r="K91" t="s">
-        <v>427</v>
-      </c>
-      <c r="L91" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I91" t="s">
+        <v>426</v>
+      </c>
+      <c r="J91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>11205</v>
       </c>
       <c r="B92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
@@ -5358,36 +5269,30 @@
         <v>21</v>
       </c>
       <c r="E92">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F92">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G92">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="I92">
-        <v>220</v>
-      </c>
-      <c r="J92">
         <v>3</v>
       </c>
-      <c r="K92" t="s">
-        <v>427</v>
-      </c>
-      <c r="L92" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I92" t="s">
+        <v>426</v>
+      </c>
+      <c r="J92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>11206</v>
       </c>
       <c r="B93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>92</v>
@@ -5396,36 +5301,30 @@
         <v>21</v>
       </c>
       <c r="E93">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F93">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G93">
-        <v>2000</v>
+        <v>230</v>
       </c>
       <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93">
-        <v>230</v>
-      </c>
-      <c r="J93">
         <v>3</v>
       </c>
-      <c r="K93" t="s">
-        <v>427</v>
-      </c>
-      <c r="L93" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I93" t="s">
+        <v>426</v>
+      </c>
+      <c r="J93" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>11207</v>
       </c>
       <c r="B94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>92</v>
@@ -5434,36 +5333,30 @@
         <v>21</v>
       </c>
       <c r="E94">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F94">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="H94">
-        <v>100</v>
-      </c>
-      <c r="I94">
-        <v>240</v>
-      </c>
-      <c r="J94">
         <v>4</v>
       </c>
-      <c r="K94" t="s">
-        <v>427</v>
-      </c>
-      <c r="L94" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I94" t="s">
+        <v>426</v>
+      </c>
+      <c r="J94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>11208</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
@@ -5472,36 +5365,30 @@
         <v>21</v>
       </c>
       <c r="E95">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F95">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <v>250</v>
-      </c>
-      <c r="J95">
         <v>4</v>
       </c>
-      <c r="K95" t="s">
-        <v>427</v>
-      </c>
-      <c r="L95" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I95" t="s">
+        <v>426</v>
+      </c>
+      <c r="J95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>11208</v>
       </c>
       <c r="B96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>92</v>
@@ -5510,36 +5397,30 @@
         <v>21</v>
       </c>
       <c r="E96">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="F96">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H96">
-        <v>100</v>
-      </c>
-      <c r="I96">
-        <v>270</v>
-      </c>
-      <c r="J96">
         <v>5</v>
       </c>
-      <c r="K96" t="s">
-        <v>427</v>
-      </c>
-      <c r="L96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I96" t="s">
+        <v>426</v>
+      </c>
+      <c r="J96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>11301</v>
       </c>
       <c r="B97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>92</v>
@@ -5548,36 +5429,30 @@
         <v>24</v>
       </c>
       <c r="E97">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F97">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G97">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="I97">
-        <v>270</v>
-      </c>
-      <c r="J97">
         <v>1</v>
       </c>
-      <c r="K97" t="s">
-        <v>434</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="I97" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J97" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>11302</v>
       </c>
       <c r="B98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>92</v>
@@ -5586,36 +5461,30 @@
         <v>24</v>
       </c>
       <c r="E98">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F98">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G98">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H98">
-        <v>100</v>
-      </c>
-      <c r="I98">
-        <v>270</v>
-      </c>
-      <c r="J98">
         <v>2</v>
       </c>
-      <c r="K98" t="s">
-        <v>434</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="I98" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J98" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>11303</v>
       </c>
       <c r="B99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>92</v>
@@ -5624,36 +5493,30 @@
         <v>24</v>
       </c>
       <c r="E99">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F99">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G99">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H99">
-        <v>100</v>
-      </c>
-      <c r="I99">
-        <v>270</v>
-      </c>
-      <c r="J99">
         <v>3</v>
       </c>
-      <c r="K99" t="s">
-        <v>434</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="I99" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J99" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>11304</v>
       </c>
       <c r="B100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>92</v>
@@ -5662,36 +5525,30 @@
         <v>24</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F100">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G100">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H100">
-        <v>100</v>
-      </c>
-      <c r="I100">
-        <v>270</v>
-      </c>
-      <c r="J100">
         <v>4</v>
       </c>
-      <c r="K100" t="s">
-        <v>434</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="I100" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J100" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>11305</v>
       </c>
       <c r="B101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
@@ -5700,36 +5557,30 @@
         <v>24</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F101">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G101">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101">
-        <v>270</v>
-      </c>
-      <c r="J101">
         <v>5</v>
       </c>
-      <c r="K101" t="s">
-        <v>434</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="I101" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>11306</v>
       </c>
       <c r="B102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>92</v>
@@ -5738,36 +5589,30 @@
         <v>24</v>
       </c>
       <c r="E102">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F102">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G102">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H102">
-        <v>100</v>
-      </c>
-      <c r="I102">
-        <v>270</v>
-      </c>
-      <c r="J102">
         <v>6</v>
       </c>
-      <c r="K102" t="s">
-        <v>434</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="I102" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J102" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>11307</v>
       </c>
       <c r="B103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>92</v>
@@ -5776,36 +5621,30 @@
         <v>24</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F103">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G103">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H103">
-        <v>100</v>
-      </c>
-      <c r="I103">
-        <v>270</v>
-      </c>
-      <c r="J103">
         <v>7</v>
       </c>
-      <c r="K103" t="s">
-        <v>434</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="I103" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J103" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>11308</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>92</v>
@@ -5814,36 +5653,30 @@
         <v>24</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F104">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G104">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="I104">
-        <v>270</v>
-      </c>
-      <c r="J104">
         <v>8</v>
       </c>
-      <c r="K104" t="s">
-        <v>434</v>
-      </c>
-      <c r="L104" t="s">
+      <c r="I104" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J104" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>11309</v>
       </c>
       <c r="B105" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>92</v>
@@ -5852,370 +5685,310 @@
         <v>24</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="F105">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G105">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="H105">
-        <v>100</v>
-      </c>
-      <c r="I105">
-        <v>270</v>
-      </c>
-      <c r="J105">
         <v>9</v>
       </c>
-      <c r="K105" t="s">
-        <v>434</v>
-      </c>
-      <c r="L105" t="s">
+      <c r="I105" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>11401</v>
       </c>
       <c r="B106" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D106">
         <v>27</v>
       </c>
       <c r="E106">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F106">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G106">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="I106">
-        <v>270</v>
-      </c>
-      <c r="J106">
         <v>1</v>
       </c>
-      <c r="K106" t="s">
-        <v>462</v>
-      </c>
-      <c r="L106" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I106" t="s">
+        <v>461</v>
+      </c>
+      <c r="J106" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>11402</v>
       </c>
       <c r="B107" t="s">
+        <v>454</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D107">
         <v>27</v>
       </c>
       <c r="E107">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F107">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H107">
-        <v>100</v>
-      </c>
-      <c r="I107">
-        <v>270</v>
-      </c>
-      <c r="J107">
         <v>1</v>
       </c>
-      <c r="K107" t="s">
-        <v>462</v>
-      </c>
-      <c r="L107" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I107" t="s">
+        <v>461</v>
+      </c>
+      <c r="J107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>11403</v>
       </c>
       <c r="B108" t="s">
+        <v>454</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D108">
         <v>27</v>
       </c>
       <c r="E108">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F108">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G108">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H108">
-        <v>100</v>
-      </c>
-      <c r="I108">
-        <v>270</v>
-      </c>
-      <c r="J108">
         <v>1</v>
       </c>
-      <c r="K108" t="s">
-        <v>462</v>
-      </c>
-      <c r="L108" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I108" t="s">
+        <v>461</v>
+      </c>
+      <c r="J108" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>11404</v>
       </c>
       <c r="B109" t="s">
+        <v>454</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D109">
         <v>27</v>
       </c>
       <c r="E109">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F109">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G109">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="I109">
-        <v>270</v>
-      </c>
-      <c r="J109">
         <v>1</v>
       </c>
-      <c r="K109" t="s">
-        <v>462</v>
-      </c>
-      <c r="L109" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I109" t="s">
+        <v>461</v>
+      </c>
+      <c r="J109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>11405</v>
       </c>
       <c r="B110" t="s">
+        <v>454</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D110">
         <v>27</v>
       </c>
       <c r="E110">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F110">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G110">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="I110">
-        <v>270</v>
-      </c>
-      <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" t="s">
-        <v>462</v>
-      </c>
-      <c r="L110" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I110" t="s">
+        <v>461</v>
+      </c>
+      <c r="J110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>11406</v>
       </c>
       <c r="B111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D111">
         <v>27</v>
       </c>
       <c r="E111">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F111">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G111">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="I111">
-        <v>270</v>
-      </c>
-      <c r="J111">
         <v>1</v>
       </c>
-      <c r="K111" t="s">
-        <v>462</v>
-      </c>
-      <c r="L111" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I111" t="s">
+        <v>461</v>
+      </c>
+      <c r="J111" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>11407</v>
       </c>
       <c r="B112" t="s">
+        <v>454</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D112">
         <v>27</v>
       </c>
       <c r="E112">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F112">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G112">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H112">
-        <v>100</v>
-      </c>
-      <c r="I112">
-        <v>270</v>
-      </c>
-      <c r="J112">
         <v>1</v>
       </c>
-      <c r="K112" t="s">
-        <v>462</v>
-      </c>
-      <c r="L112" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I112" t="s">
+        <v>461</v>
+      </c>
+      <c r="J112" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>11408</v>
       </c>
       <c r="B113" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D113">
         <v>27</v>
       </c>
       <c r="E113">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F113">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G113">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H113">
-        <v>100</v>
-      </c>
-      <c r="I113">
-        <v>270</v>
-      </c>
-      <c r="J113">
         <v>1</v>
       </c>
-      <c r="K113" t="s">
-        <v>462</v>
-      </c>
-      <c r="L113" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I113" t="s">
+        <v>461</v>
+      </c>
+      <c r="J113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>11409</v>
       </c>
       <c r="B114" t="s">
+        <v>454</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D114">
         <v>27</v>
       </c>
       <c r="E114">
-        <v>28</v>
+        <v>8000</v>
       </c>
       <c r="F114">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G114">
-        <v>8000</v>
+        <v>270</v>
       </c>
       <c r="H114">
-        <v>100</v>
-      </c>
-      <c r="I114">
-        <v>270</v>
-      </c>
-      <c r="J114">
         <v>1</v>
       </c>
-      <c r="K114" t="s">
-        <v>462</v>
-      </c>
-      <c r="L114" t="s">
-        <v>433</v>
+      <c r="I114" t="s">
+        <v>461</v>
+      </c>
+      <c r="J114" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6229,8 +6002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6253,61 +6026,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" t="s">
         <v>393</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>394</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>395</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>396</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>397</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
         <v>398</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P1" t="s">
         <v>446</v>
       </c>
-      <c r="I1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M1" t="s">
-        <v>437</v>
-      </c>
-      <c r="N1" t="s">
-        <v>420</v>
-      </c>
-      <c r="O1" t="s">
-        <v>429</v>
-      </c>
-      <c r="P1" t="s">
-        <v>447</v>
-      </c>
       <c r="Q1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -6315,13 +6088,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
         <v>403</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="38" t="s">
         <v>404</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>405</v>
       </c>
       <c r="E2" s="38">
         <v>100</v>
@@ -6333,22 +6106,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S2">
         <v>2</v>
@@ -6362,10 +6135,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>404</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>405</v>
       </c>
       <c r="E3" s="38">
         <v>100</v>
@@ -6377,22 +6150,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -6403,10 +6176,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>407</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
@@ -6421,25 +6194,25 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -6450,7 +6223,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>4</v>
@@ -6468,19 +6241,19 @@
         <v>99</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -6491,13 +6264,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>409</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>410</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6509,22 +6282,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K6">
         <v>99</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -6538,10 +6311,10 @@
         <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6559,13 +6332,13 @@
         <v>244</v>
       </c>
       <c r="N7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -6579,10 +6352,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6591,22 +6364,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S8">
         <v>6</v>
@@ -6617,13 +6390,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>409</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>410</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6632,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S9">
         <v>6</v>
@@ -6658,13 +6431,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>409</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>410</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6673,22 +6446,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S10">
         <v>6</v>
@@ -6702,10 +6475,10 @@
         <v>93</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6717,16 +6490,16 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S11">
         <v>7</v>
@@ -6737,28 +6510,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S12">
         <v>8</v>
@@ -6772,10 +6545,10 @@
         <v>95</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6793,16 +6566,16 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S13">
         <v>9</v>
@@ -6816,10 +6589,10 @@
         <v>360</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6828,25 +6601,25 @@
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -6854,13 +6627,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -6875,16 +6648,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S15">
         <v>11</v>
@@ -6895,13 +6668,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -6916,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S16">
         <v>11</v>
@@ -6936,13 +6709,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -6957,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S17">
         <v>11</v>
@@ -6977,13 +6750,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -6998,16 +6771,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S18">
         <v>11</v>
@@ -7018,13 +6791,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -7039,16 +6812,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R19">
         <v>19</v>
@@ -7062,10 +6835,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -7075,22 +6848,22 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S20">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -7098,13 +6871,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -7116,19 +6889,19 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S21">
         <v>13</v>
@@ -7139,7 +6912,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -7149,16 +6922,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R22">
         <v>22</v>
@@ -7172,13 +6945,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -7196,19 +6969,19 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R23">
         <v>23</v>
@@ -7222,7 +6995,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -7233,19 +7006,19 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S24">
         <v>16</v>
@@ -7256,7 +7029,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -7267,19 +7040,19 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M25" t="s">
+        <v>434</v>
+      </c>
+      <c r="N25" t="s">
         <v>435</v>
       </c>
-      <c r="N25" t="s">
-        <v>436</v>
-      </c>
       <c r="O25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R25">
         <v>25</v>
@@ -7293,13 +7066,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>225</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -7317,19 +7090,19 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M26" t="s">
+        <v>434</v>
+      </c>
+      <c r="N26" t="s">
         <v>435</v>
       </c>
-      <c r="N26" t="s">
-        <v>436</v>
-      </c>
       <c r="O26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R26">
         <v>26</v>
@@ -7343,7 +7116,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -7354,22 +7127,22 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M27" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" t="s">
         <v>435</v>
       </c>
-      <c r="N27" t="s">
-        <v>436</v>
-      </c>
       <c r="O27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S27">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -7377,7 +7150,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7388,16 +7161,16 @@
       <c r="H28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P28" t="s">
         <v>213</v>
@@ -7417,13 +7190,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>225</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -7434,16 +7207,16 @@
       <c r="H29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P29" t="s">
         <v>213</v>
@@ -7460,7 +7233,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -7471,22 +7244,22 @@
       <c r="H30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P30" t="s">
         <v>213</v>
       </c>
       <c r="S30">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7533,7 +7306,7 @@
         <v>349</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1" t="s">
         <v>358</v>
@@ -7569,7 +7342,7 @@
         <v>365</v>
       </c>
       <c r="S1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T1" t="s">
         <v>27</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="470">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1810,10 +1810,6 @@
     <t>skill_timebomb</t>
   </si>
   <si>
-    <t>2,2,50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脚本ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1827,6 +1823,16 @@
   </si>
   <si>
     <t>blue_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_timeBomb_bomb1_cp</t>
+  </si>
+  <si>
+    <t>skill_timeBomb_bomb2_cp</t>
+  </si>
+  <si>
+    <t>2,20,40,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2547,9 +2553,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O96" sqref="O96"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5717,7 +5723,7 @@
         <v>27</v>
       </c>
       <c r="E106">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F106">
         <v>100</v>
@@ -5749,7 +5755,7 @@
         <v>27</v>
       </c>
       <c r="E107">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F107">
         <v>100</v>
@@ -5781,7 +5787,7 @@
         <v>27</v>
       </c>
       <c r="E108">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F108">
         <v>100</v>
@@ -5813,7 +5819,7 @@
         <v>27</v>
       </c>
       <c r="E109">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F109">
         <v>100</v>
@@ -5845,7 +5851,7 @@
         <v>27</v>
       </c>
       <c r="E110">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F110">
         <v>100</v>
@@ -5877,7 +5883,7 @@
         <v>27</v>
       </c>
       <c r="E111">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -5909,7 +5915,7 @@
         <v>27</v>
       </c>
       <c r="E112">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F112">
         <v>100</v>
@@ -5941,7 +5947,7 @@
         <v>27</v>
       </c>
       <c r="E113">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F113">
         <v>100</v>
@@ -5973,7 +5979,7 @@
         <v>27</v>
       </c>
       <c r="E114">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F114">
         <v>100</v>
@@ -6000,10 +6006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6016,7 +6022,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="5.125" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="5.25" customWidth="1"/>
     <col min="12" max="13" width="22.625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
@@ -6077,10 +6083,10 @@
         <v>456</v>
       </c>
       <c r="R1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -6106,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6150,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6194,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6282,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K6">
         <v>99</v>
@@ -6364,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K8">
         <v>99</v>
@@ -6405,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K9">
         <v>99</v>
@@ -6446,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K10">
         <v>99</v>
@@ -6601,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
@@ -7173,13 +7179,13 @@
         <v>430</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>449</v>
       </c>
       <c r="Q28">
         <v>5</v>
       </c>
       <c r="R28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S28">
         <v>20</v>
@@ -7196,7 +7202,7 @@
         <v>225</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -7216,10 +7222,10 @@
         <v>458</v>
       </c>
       <c r="O29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>449</v>
       </c>
       <c r="R29">
         <v>29</v>
@@ -7260,6 +7266,86 @@
       </c>
       <c r="S30">
         <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="M31" t="s">
+        <v>462</v>
+      </c>
+      <c r="N31" t="s">
+        <v>458</v>
+      </c>
+      <c r="O31" t="s">
+        <v>430</v>
+      </c>
+      <c r="P31" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>31</v>
+      </c>
+      <c r="S31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="M32" t="s">
+        <v>462</v>
+      </c>
+      <c r="N32" t="s">
+        <v>458</v>
+      </c>
+      <c r="O32" t="s">
+        <v>430</v>
+      </c>
+      <c r="P32" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>28</v>
+      </c>
+      <c r="S32">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="476">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,9 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_zhaoleipi</t>
-  </si>
-  <si>
     <t>是否动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>skill_kuanglongzidian</t>
-  </si>
-  <si>
-    <t>skill_qiancheng1</t>
   </si>
   <si>
     <t>skill_shouhuzhiyi</t>
@@ -1605,10 +1599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圆形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1786,10 +1776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_timeBomb_cp</t>
   </si>
   <si>
@@ -1833,6 +1819,40 @@
   </si>
   <si>
     <t>2,20,40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforcement_portrait_0004</t>
+  </si>
+  <si>
+    <t>reinforcement_portrait_0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_power_soul_impact</t>
+  </si>
+  <si>
+    <t>soul_impact_start_cp</t>
+  </si>
+  <si>
+    <t>soul_impact_end_cp</t>
+  </si>
+  <si>
+    <t>soul_impact_boom_cp</t>
+  </si>
+  <si>
+    <t>2,2,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>50-70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,11 +2571,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N118" sqref="N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2564,11 +2584,11 @@
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="9" max="9" width="38.25" customWidth="1"/>
-    <col min="10" max="10" width="34.125" customWidth="1"/>
+    <col min="10" max="10" width="38.25" customWidth="1"/>
+    <col min="11" max="11" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2579,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -2594,13 +2614,16 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -2622,14 +2645,14 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -2651,14 +2674,14 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -2680,14 +2703,14 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -2709,14 +2732,14 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -2738,14 +2761,14 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10106</v>
       </c>
@@ -2767,14 +2790,14 @@
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10107</v>
       </c>
@@ -2796,14 +2819,14 @@
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10108</v>
       </c>
@@ -2825,14 +2848,14 @@
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10109</v>
       </c>
@@ -2854,14 +2877,14 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10201</v>
       </c>
@@ -2883,14 +2906,14 @@
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10202</v>
       </c>
@@ -2912,14 +2935,14 @@
       <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10203</v>
       </c>
@@ -2941,14 +2964,14 @@
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10204</v>
       </c>
@@ -2970,14 +2993,14 @@
       <c r="H14">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10205</v>
       </c>
@@ -2999,14 +3022,14 @@
       <c r="H15">
         <v>7</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10206</v>
       </c>
@@ -3028,14 +3051,14 @@
       <c r="H16">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
       <c r="J16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10207</v>
       </c>
@@ -3057,14 +3080,14 @@
       <c r="H17">
         <v>9</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
       <c r="J17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10301</v>
       </c>
@@ -3072,13 +3095,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3086,14 +3112,14 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
       <c r="J18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10302</v>
       </c>
@@ -3101,28 +3127,31 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10303</v>
       </c>
@@ -3130,28 +3159,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10304</v>
       </c>
@@ -3159,28 +3191,31 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10305</v>
       </c>
@@ -3188,28 +3223,31 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10306</v>
       </c>
@@ -3217,28 +3255,31 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10307</v>
       </c>
@@ -3246,33 +3287,36 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10401</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -3289,19 +3333,19 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
       <c r="J25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10402</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -3318,19 +3362,19 @@
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
       <c r="J26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10403</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -3347,19 +3391,19 @@
       <c r="H27">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
       <c r="J27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10404</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -3376,19 +3420,19 @@
       <c r="H28">
         <v>4</v>
       </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
       <c r="J28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10405</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -3405,19 +3449,19 @@
       <c r="H29">
         <v>5</v>
       </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
       <c r="J29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10406</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -3434,19 +3478,19 @@
       <c r="H30">
         <v>6</v>
       </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
       <c r="J30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10407</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -3463,19 +3507,19 @@
       <c r="H31">
         <v>7</v>
       </c>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
       <c r="J31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10501</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -3492,19 +3536,19 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
       <c r="J32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10502</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -3521,19 +3565,19 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
       <c r="J33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10503</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
@@ -3550,19 +3594,19 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
-        <v>24</v>
-      </c>
       <c r="J34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10504</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -3579,19 +3623,19 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
       <c r="J35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10505</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -3608,19 +3652,19 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
       <c r="J36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>10506</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
@@ -3637,19 +3681,19 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
-        <v>24</v>
-      </c>
       <c r="J37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>10507</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -3666,19 +3710,19 @@
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" t="s">
-        <v>24</v>
-      </c>
       <c r="J38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10508</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -3695,19 +3739,19 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>10509</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -3724,19 +3768,19 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
       <c r="J40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>10601</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
@@ -3753,19 +3797,19 @@
       <c r="H41">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
-        <v>25</v>
-      </c>
       <c r="J41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10602</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -3782,19 +3826,19 @@
       <c r="H42">
         <v>4</v>
       </c>
-      <c r="I42" t="s">
-        <v>25</v>
-      </c>
       <c r="J42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10603</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -3811,22 +3855,22 @@
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" t="s">
-        <v>25</v>
-      </c>
       <c r="J43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>10701</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -3840,22 +3884,22 @@
       <c r="H44">
         <v>3</v>
       </c>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
       <c r="J44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>10702</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -3869,22 +3913,22 @@
       <c r="H45">
         <v>3</v>
       </c>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
       <c r="J45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>10703</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -3898,22 +3942,22 @@
       <c r="H46">
         <v>4</v>
       </c>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
       <c r="J46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>10704</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3927,22 +3971,22 @@
       <c r="H47">
         <v>4</v>
       </c>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
       <c r="J47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>10705</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -3956,22 +4000,22 @@
       <c r="H48">
         <v>4</v>
       </c>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
       <c r="J48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>10706</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -3985,22 +4029,22 @@
       <c r="H49">
         <v>4</v>
       </c>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
       <c r="J49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>10707</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -4014,22 +4058,22 @@
       <c r="H50">
         <v>4</v>
       </c>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
       <c r="J50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>10708</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -4043,22 +4087,22 @@
       <c r="H51">
         <v>4</v>
       </c>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
       <c r="J51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>10709</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4072,22 +4116,22 @@
       <c r="H52">
         <v>4</v>
       </c>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
       <c r="J52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>10801</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>11</v>
@@ -4104,22 +4148,22 @@
       <c r="H53">
         <v>4</v>
       </c>
-      <c r="I53" t="s">
-        <v>91</v>
-      </c>
       <c r="J53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>10802</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>11</v>
@@ -4136,22 +4180,22 @@
       <c r="H54">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
       <c r="J54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>10803</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <v>11</v>
@@ -4168,22 +4212,22 @@
       <c r="H55">
         <v>4</v>
       </c>
-      <c r="I55" t="s">
-        <v>91</v>
-      </c>
       <c r="J55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>10804</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -4200,22 +4244,22 @@
       <c r="H56">
         <v>4</v>
       </c>
-      <c r="I56" t="s">
-        <v>91</v>
-      </c>
       <c r="J56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>10805</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>11</v>
@@ -4232,22 +4276,22 @@
       <c r="H57">
         <v>4</v>
       </c>
-      <c r="I57" t="s">
-        <v>91</v>
-      </c>
       <c r="J57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>10806</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -4264,22 +4308,22 @@
       <c r="H58">
         <v>4</v>
       </c>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
       <c r="J58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>10807</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -4296,22 +4340,22 @@
       <c r="H59">
         <v>4</v>
       </c>
-      <c r="I59" t="s">
-        <v>91</v>
-      </c>
       <c r="J59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>10808</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -4328,22 +4372,22 @@
       <c r="H60">
         <v>4</v>
       </c>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
       <c r="J60" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>10809</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -4360,22 +4404,22 @@
       <c r="H61">
         <v>4</v>
       </c>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
       <c r="J61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>10901</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -4389,22 +4433,22 @@
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
-        <v>350</v>
-      </c>
       <c r="J62" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>10902</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D63">
         <v>13</v>
@@ -4418,22 +4462,22 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
+        <v>348</v>
+      </c>
+      <c r="K63" t="s">
         <v>350</v>
       </c>
-      <c r="J63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>10903</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -4447,22 +4491,22 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>350</v>
-      </c>
       <c r="J64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>10904</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D65">
         <v>13</v>
@@ -4476,22 +4520,22 @@
       <c r="H65">
         <v>2</v>
       </c>
-      <c r="I65" t="s">
-        <v>350</v>
-      </c>
       <c r="J65" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>10905</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D66">
         <v>13</v>
@@ -4505,22 +4549,22 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66" t="s">
-        <v>350</v>
-      </c>
       <c r="J66" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>10906</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D67">
         <v>13</v>
@@ -4534,22 +4578,22 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c r="I67" t="s">
-        <v>350</v>
-      </c>
       <c r="J67" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K67" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>10907</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -4563,22 +4607,22 @@
       <c r="H68">
         <v>2</v>
       </c>
-      <c r="I68" t="s">
-        <v>350</v>
-      </c>
       <c r="J68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>10908</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D69">
         <v>13</v>
@@ -4592,19 +4636,19 @@
       <c r="H69">
         <v>2</v>
       </c>
-      <c r="I69" t="s">
-        <v>350</v>
-      </c>
       <c r="J69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="K69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>11001</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -4621,19 +4665,19 @@
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
-        <v>380</v>
-      </c>
       <c r="J70" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>11002</v>
       </c>
       <c r="B71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -4650,19 +4694,19 @@
       <c r="H71">
         <v>2</v>
       </c>
-      <c r="I71" t="s">
-        <v>380</v>
-      </c>
       <c r="J71" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>11003</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -4679,22 +4723,22 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72" t="s">
-        <v>380</v>
-      </c>
       <c r="J72" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K72" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>11004</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D73">
         <v>15</v>
@@ -4708,22 +4752,22 @@
       <c r="H73">
         <v>3</v>
       </c>
-      <c r="I73" t="s">
-        <v>380</v>
-      </c>
       <c r="J73" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K73" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>11005</v>
       </c>
       <c r="B74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D74">
         <v>16</v>
@@ -4737,22 +4781,22 @@
       <c r="H74">
         <v>3</v>
       </c>
-      <c r="I74" t="s">
-        <v>380</v>
-      </c>
       <c r="J74" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K74" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>11006</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D75">
         <v>16</v>
@@ -4769,22 +4813,22 @@
       <c r="H75">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
-        <v>380</v>
-      </c>
       <c r="J75" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>11007</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D76">
         <v>17</v>
@@ -4801,22 +4845,22 @@
       <c r="H76">
         <v>4</v>
       </c>
-      <c r="I76" t="s">
-        <v>380</v>
-      </c>
       <c r="J76" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>11008</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D77">
         <v>17</v>
@@ -4833,22 +4877,22 @@
       <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" t="s">
-        <v>380</v>
-      </c>
       <c r="J77" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K77" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>11009</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D78">
         <v>18</v>
@@ -4865,22 +4909,22 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" t="s">
-        <v>380</v>
-      </c>
       <c r="J78" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="K78" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>11101</v>
       </c>
       <c r="B79" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D79">
         <v>20</v>
@@ -4894,22 +4938,22 @@
       <c r="H79">
         <v>1</v>
       </c>
-      <c r="I79" t="s">
-        <v>385</v>
-      </c>
       <c r="J79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>11102</v>
       </c>
       <c r="B80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -4923,22 +4967,22 @@
       <c r="H80">
         <v>2</v>
       </c>
-      <c r="I80" t="s">
-        <v>385</v>
-      </c>
       <c r="J80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>11103</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -4952,22 +4996,22 @@
       <c r="H81">
         <v>3</v>
       </c>
-      <c r="I81" t="s">
-        <v>385</v>
-      </c>
       <c r="J81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>11104</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -4981,22 +5025,22 @@
       <c r="H82">
         <v>4</v>
       </c>
-      <c r="I82" t="s">
-        <v>385</v>
-      </c>
       <c r="J82" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>11105</v>
       </c>
       <c r="B83" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -5010,22 +5054,22 @@
       <c r="H83">
         <v>5</v>
       </c>
-      <c r="I83" t="s">
-        <v>385</v>
-      </c>
       <c r="J83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>11106</v>
       </c>
       <c r="B84" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D84">
         <v>20</v>
@@ -5039,22 +5083,22 @@
       <c r="H84">
         <v>6</v>
       </c>
-      <c r="I84" t="s">
-        <v>385</v>
-      </c>
       <c r="J84" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>11107</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -5068,22 +5112,22 @@
       <c r="H85">
         <v>7</v>
       </c>
-      <c r="I85" t="s">
-        <v>385</v>
-      </c>
       <c r="J85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>11108</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -5097,22 +5141,22 @@
       <c r="H86">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
-        <v>385</v>
-      </c>
       <c r="J86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>11109</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -5126,22 +5170,22 @@
       <c r="H87">
         <v>9</v>
       </c>
-      <c r="I87" t="s">
-        <v>385</v>
-      </c>
       <c r="J87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="K87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>11201</v>
       </c>
       <c r="B88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D88">
         <v>21</v>
@@ -5158,22 +5202,22 @@
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88" t="s">
-        <v>426</v>
-      </c>
       <c r="J88" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K88" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>11202</v>
       </c>
       <c r="B89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D89">
         <v>21</v>
@@ -5190,22 +5234,22 @@
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89" t="s">
-        <v>426</v>
-      </c>
       <c r="J89" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K89" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>11203</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90">
         <v>21</v>
@@ -5222,22 +5266,22 @@
       <c r="H90">
         <v>2</v>
       </c>
-      <c r="I90" t="s">
-        <v>426</v>
-      </c>
       <c r="J90" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K90" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>11204</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91">
         <v>21</v>
@@ -5254,22 +5298,22 @@
       <c r="H91">
         <v>2</v>
       </c>
-      <c r="I91" t="s">
-        <v>426</v>
-      </c>
       <c r="J91" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K91" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>11205</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5286,22 +5330,22 @@
       <c r="H92">
         <v>3</v>
       </c>
-      <c r="I92" t="s">
-        <v>426</v>
-      </c>
       <c r="J92" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K92" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>11206</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D93">
         <v>21</v>
@@ -5318,22 +5362,22 @@
       <c r="H93">
         <v>3</v>
       </c>
-      <c r="I93" t="s">
-        <v>426</v>
-      </c>
       <c r="J93" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>11207</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -5350,22 +5394,22 @@
       <c r="H94">
         <v>4</v>
       </c>
-      <c r="I94" t="s">
-        <v>426</v>
-      </c>
       <c r="J94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>11208</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D95">
         <v>21</v>
@@ -5382,22 +5426,22 @@
       <c r="H95">
         <v>4</v>
       </c>
-      <c r="I95" t="s">
-        <v>426</v>
-      </c>
       <c r="J95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K95" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>11208</v>
+        <v>11209</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -5414,22 +5458,22 @@
       <c r="H96">
         <v>5</v>
       </c>
-      <c r="I96" t="s">
-        <v>426</v>
-      </c>
       <c r="J96" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="K96" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>11301</v>
       </c>
       <c r="B97" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D97">
         <v>24</v>
@@ -5446,22 +5490,22 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
-        <v>433</v>
-      </c>
       <c r="J97" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K97" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>11302</v>
       </c>
       <c r="B98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98">
         <v>24</v>
@@ -5478,22 +5522,22 @@
       <c r="H98">
         <v>2</v>
       </c>
-      <c r="I98" t="s">
-        <v>433</v>
-      </c>
       <c r="J98" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K98" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>11303</v>
       </c>
       <c r="B99" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <v>24</v>
@@ -5510,22 +5554,22 @@
       <c r="H99">
         <v>3</v>
       </c>
-      <c r="I99" t="s">
-        <v>433</v>
-      </c>
       <c r="J99" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K99" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>11304</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D100">
         <v>24</v>
@@ -5542,22 +5586,22 @@
       <c r="H100">
         <v>4</v>
       </c>
-      <c r="I100" t="s">
-        <v>433</v>
-      </c>
       <c r="J100" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>11305</v>
       </c>
       <c r="B101" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D101">
         <v>24</v>
@@ -5574,22 +5618,22 @@
       <c r="H101">
         <v>5</v>
       </c>
-      <c r="I101" t="s">
-        <v>433</v>
-      </c>
       <c r="J101" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K101" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>11306</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -5606,22 +5650,22 @@
       <c r="H102">
         <v>6</v>
       </c>
-      <c r="I102" t="s">
-        <v>433</v>
-      </c>
       <c r="J102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>11307</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D103">
         <v>24</v>
@@ -5638,22 +5682,22 @@
       <c r="H103">
         <v>7</v>
       </c>
-      <c r="I103" t="s">
-        <v>433</v>
-      </c>
       <c r="J103" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>11308</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D104">
         <v>24</v>
@@ -5670,22 +5714,22 @@
       <c r="H104">
         <v>8</v>
       </c>
-      <c r="I104" t="s">
-        <v>433</v>
-      </c>
       <c r="J104" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K104" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>11309</v>
       </c>
       <c r="B105" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -5702,22 +5746,22 @@
       <c r="H105">
         <v>9</v>
       </c>
-      <c r="I105" t="s">
-        <v>433</v>
-      </c>
       <c r="J105" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="K105" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>11401</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D106">
         <v>27</v>
@@ -5734,22 +5778,25 @@
       <c r="H106">
         <v>1</v>
       </c>
-      <c r="I106" t="s">
-        <v>461</v>
+      <c r="I106">
+        <v>5</v>
       </c>
       <c r="J106" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K106" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>11402</v>
       </c>
       <c r="B107" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D107">
         <v>27</v>
@@ -5766,22 +5813,25 @@
       <c r="H107">
         <v>1</v>
       </c>
-      <c r="I107" t="s">
-        <v>461</v>
+      <c r="I107">
+        <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>11403</v>
       </c>
       <c r="B108" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D108">
         <v>27</v>
@@ -5798,22 +5848,25 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" t="s">
-        <v>461</v>
+      <c r="I108">
+        <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>11404</v>
       </c>
       <c r="B109" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D109">
         <v>27</v>
@@ -5830,22 +5883,25 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" t="s">
-        <v>461</v>
+      <c r="I109">
+        <v>5</v>
       </c>
       <c r="J109" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K109" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>11405</v>
       </c>
       <c r="B110" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D110">
         <v>27</v>
@@ -5862,22 +5918,25 @@
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110" t="s">
-        <v>461</v>
+      <c r="I110">
+        <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K110" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>11406</v>
       </c>
       <c r="B111" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D111">
         <v>27</v>
@@ -5894,22 +5953,25 @@
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111" t="s">
-        <v>461</v>
+      <c r="I111">
+        <v>5</v>
       </c>
       <c r="J111" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>11407</v>
       </c>
       <c r="B112" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D112">
         <v>27</v>
@@ -5926,22 +5988,25 @@
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112" t="s">
-        <v>461</v>
+      <c r="I112">
+        <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K112" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>11408</v>
       </c>
       <c r="B113" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D113">
         <v>27</v>
@@ -5958,22 +6023,25 @@
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113" t="s">
-        <v>461</v>
+      <c r="I113">
+        <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="K113" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>11409</v>
       </c>
       <c r="B114" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D114">
         <v>27</v>
@@ -5990,11 +6058,14 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114" t="s">
-        <v>461</v>
+      <c r="I114">
+        <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>432</v>
+        <v>457</v>
+      </c>
+      <c r="K114" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6006,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6025,82 +6096,79 @@
     <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="5.25" customWidth="1"/>
     <col min="12" max="13" width="22.625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
         <v>392</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>393</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>394</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>395</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" t="s">
         <v>396</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>397</v>
       </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>398</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>399</v>
       </c>
-      <c r="K1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L1" t="s">
-        <v>401</v>
-      </c>
       <c r="M1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="R1" t="s">
-        <v>464</v>
-      </c>
-      <c r="S1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>402</v>
-      </c>
-      <c r="C2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>404</v>
       </c>
       <c r="E2" s="38">
         <v>100</v>
@@ -6112,39 +6180,39 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P2" t="s">
-        <v>447</v>
-      </c>
-      <c r="S2">
+        <v>444</v>
+      </c>
+      <c r="R2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E3" s="38">
         <v>100</v>
@@ -6156,36 +6224,36 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P3" t="s">
-        <v>448</v>
-      </c>
-      <c r="S3">
+        <v>445</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
@@ -6200,40 +6268,36 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P4" t="s">
-        <v>447</v>
-      </c>
-      <c r="S4">
+        <v>444</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>4</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5">
         <v>0</v>
       </c>
@@ -6243,40 +6307,37 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>99</v>
-      </c>
       <c r="L5" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P5" t="s">
-        <v>448</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+      <c r="Q5">
+        <v>32</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6288,39 +6349,39 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K6">
         <v>99</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P6" t="s">
-        <v>447</v>
-      </c>
-      <c r="S6">
+        <v>444</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6335,33 +6396,33 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P7" t="s">
-        <v>448</v>
-      </c>
-      <c r="S7">
+        <v>445</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>408</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6370,39 +6431,39 @@
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P8" t="s">
-        <v>447</v>
-      </c>
-      <c r="S8">
+        <v>444</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6411,39 +6472,39 @@
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P9" t="s">
-        <v>448</v>
-      </c>
-      <c r="S9">
+        <v>445</v>
+      </c>
+      <c r="R9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6452,39 +6513,39 @@
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P10" t="s">
-        <v>447</v>
-      </c>
-      <c r="S10">
+        <v>444</v>
+      </c>
+      <c r="R10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6496,65 +6557,65 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P11" t="s">
-        <v>449</v>
-      </c>
-      <c r="S11">
+        <v>446</v>
+      </c>
+      <c r="R11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P12" t="s">
-        <v>450</v>
-      </c>
-      <c r="S12">
+        <v>447</v>
+      </c>
+      <c r="R12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6572,33 +6633,33 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P13" t="s">
-        <v>450</v>
-      </c>
-      <c r="S13">
+        <v>447</v>
+      </c>
+      <c r="R13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6607,39 +6668,39 @@
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P14" t="s">
-        <v>447</v>
-      </c>
-      <c r="S14">
+        <v>444</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -6654,33 +6715,33 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P15" t="s">
-        <v>448</v>
-      </c>
-      <c r="S15">
+        <v>445</v>
+      </c>
+      <c r="R15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -6695,33 +6756,33 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P16" t="s">
-        <v>447</v>
-      </c>
-      <c r="S16">
+        <v>444</v>
+      </c>
+      <c r="R16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -6736,33 +6797,33 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P17" t="s">
-        <v>448</v>
-      </c>
-      <c r="S17">
+        <v>445</v>
+      </c>
+      <c r="R17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -6777,33 +6838,33 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P18" t="s">
-        <v>447</v>
-      </c>
-      <c r="S18">
+        <v>444</v>
+      </c>
+      <c r="R18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -6818,33 +6879,33 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P19" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
       </c>
       <c r="R19">
-        <v>19</v>
-      </c>
-      <c r="S19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -6854,36 +6915,36 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P20" t="s">
-        <v>447</v>
-      </c>
-      <c r="S20">
+        <v>444</v>
+      </c>
+      <c r="R20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -6895,30 +6956,30 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P21" t="s">
-        <v>448</v>
-      </c>
-      <c r="S21">
+        <v>445</v>
+      </c>
+      <c r="R21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -6928,36 +6989,36 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" t="s">
+        <v>422</v>
+      </c>
+      <c r="O22" t="s">
         <v>427</v>
       </c>
-      <c r="N22" t="s">
-        <v>425</v>
-      </c>
-      <c r="O22" t="s">
-        <v>430</v>
-      </c>
       <c r="P22" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
       </c>
       <c r="R22">
-        <v>22</v>
-      </c>
-      <c r="S22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -6975,33 +7036,33 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P23" t="s">
-        <v>450</v>
+        <v>447</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
       </c>
       <c r="R23">
-        <v>23</v>
-      </c>
-      <c r="S23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -7012,30 +7073,30 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M24" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P24" t="s">
-        <v>451</v>
-      </c>
-      <c r="S24">
+        <v>448</v>
+      </c>
+      <c r="R24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -7046,39 +7107,39 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P25" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="Q25">
+        <v>25</v>
       </c>
       <c r="R25">
-        <v>25</v>
-      </c>
-      <c r="S25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -7096,33 +7157,33 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M26" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P26" t="s">
-        <v>450</v>
+        <v>447</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
       </c>
       <c r="R26">
-        <v>26</v>
-      </c>
-      <c r="S26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -7133,30 +7194,30 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P27" t="s">
-        <v>451</v>
-      </c>
-      <c r="S27">
+        <v>448</v>
+      </c>
+      <c r="R27">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7167,42 +7228,39 @@
       <c r="H28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M28" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P28" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R28">
-        <v>30</v>
-      </c>
-      <c r="S28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -7213,33 +7271,33 @@
       <c r="H29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M29" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P29" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
       </c>
       <c r="R29">
-        <v>29</v>
-      </c>
-      <c r="S29">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -7250,30 +7308,30 @@
       <c r="H30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N30" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
-      </c>
-      <c r="S30">
+        <v>211</v>
+      </c>
+      <c r="R30">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -7284,36 +7342,33 @@
       <c r="H31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N31" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P31" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R31">
-        <v>31</v>
-      </c>
-      <c r="S31">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -7324,28 +7379,89 @@
       <c r="H32" s="38"/>
       <c r="K32" s="38"/>
       <c r="L32" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R32">
-        <v>28</v>
-      </c>
-      <c r="S32">
         <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="K33">
+        <v>99</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" t="s">
+        <v>469</v>
+      </c>
+      <c r="O33" t="s">
+        <v>426</v>
+      </c>
+      <c r="P33" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q33">
+        <v>33</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" t="s">
+        <v>469</v>
+      </c>
+      <c r="P34" t="s">
+        <v>446</v>
+      </c>
+      <c r="R34">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7383,19 +7499,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" t="s">
-        <v>349</v>
-      </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -7413,25 +7529,25 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7452,16 +7568,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" t="s">
         <v>361</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" t="s">
-        <v>363</v>
-      </c>
-      <c r="M8" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7495,71 +7611,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
         <v>257</v>
       </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>260</v>
-      </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" t="s">
         <v>257</v>
       </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" t="s">
-        <v>260</v>
-      </c>
       <c r="U1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -7571,42 +7687,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>188</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>189</v>
       </c>
-      <c r="T2" t="s">
-        <v>190</v>
-      </c>
-      <c r="U2" t="s">
-        <v>191</v>
-      </c>
       <c r="X2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -7618,42 +7734,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" t="s">
         <v>188</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>189</v>
       </c>
-      <c r="T3" t="s">
-        <v>190</v>
-      </c>
-      <c r="U3" t="s">
-        <v>191</v>
-      </c>
       <c r="X3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -7665,42 +7781,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="N4" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="R4" s="32" t="s">
+      <c r="T4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="S4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>207</v>
-      </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -7712,42 +7828,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="X5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -7759,42 +7875,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="S6" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="X6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -7807,42 +7923,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="N7" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="S7" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -7855,42 +7971,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -7903,42 +8019,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -7951,42 +8067,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -7999,42 +8115,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>188</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>189</v>
       </c>
-      <c r="T11" t="s">
-        <v>190</v>
-      </c>
-      <c r="U11" t="s">
-        <v>191</v>
-      </c>
       <c r="X11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -8043,40 +8159,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" t="s">
         <v>188</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>189</v>
       </c>
-      <c r="T12" t="s">
-        <v>190</v>
-      </c>
-      <c r="U12" t="s">
-        <v>191</v>
-      </c>
       <c r="X12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8092,37 +8208,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="S13" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="N13" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="R13" s="32" t="s">
+      <c r="T13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="T13" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>207</v>
-      </c>
       <c r="X13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8138,161 +8254,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R14" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="X14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="S15" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="S15" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="X15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="N16" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="S16" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -8303,114 +8419,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8435,232 +8551,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>139</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>151</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>153</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>155</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>156</v>
-      </c>
-      <c r="H10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
         <v>160</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>162</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>163</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>164</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>165</v>
-      </c>
-      <c r="H13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
         <v>169</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>171</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>172</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>173</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>174</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -8692,66 +8808,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>251</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>252</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>253</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>254</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
         <v>255</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" t="s">
         <v>257</v>
       </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" t="s">
         <v>258</v>
       </c>
-      <c r="P1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S1" t="s">
-        <v>260</v>
-      </c>
       <c r="T1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8761,7 +8877,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -8774,7 +8890,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8784,7 +8900,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -8797,7 +8913,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8807,7 +8923,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -8820,7 +8936,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -8830,7 +8946,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -8843,7 +8959,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8853,7 +8969,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -8866,7 +8982,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -8876,7 +8992,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -8890,7 +9006,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -8900,7 +9016,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -8914,7 +9030,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -8924,7 +9040,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -8938,7 +9054,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -8948,7 +9064,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -8962,7 +9078,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -8972,7 +9088,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -8986,7 +9102,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -8996,7 +9112,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -9006,7 +9122,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -9018,7 +9134,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -9030,7 +9146,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -9040,12 +9156,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -9057,7 +9173,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -9067,15 +9183,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -9085,15 +9201,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -9103,12 +9219,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -9120,7 +9236,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -9130,12 +9246,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -9147,7 +9263,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -9159,7 +9275,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -9171,7 +9287,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -9181,12 +9297,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -9198,7 +9314,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -9210,7 +9326,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -9222,7 +9338,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -9234,7 +9350,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -9246,7 +9362,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -9258,7 +9374,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -9270,7 +9386,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -9282,7 +9398,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -9306,15 +9422,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -9389,7 +9505,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -9442,7 +9558,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9463,14 +9579,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9486,7 +9602,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -9496,7 +9612,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
@@ -9521,7 +9637,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -9543,7 +9659,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -9579,7 +9695,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -9606,7 +9722,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -9661,7 +9777,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -9687,14 +9803,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -9708,7 +9824,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -9737,7 +9853,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -9775,13 +9891,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -9835,7 +9951,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -9866,7 +9982,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9926,7 +10042,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -9945,7 +10061,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -9982,7 +10098,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -10001,7 +10117,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -10025,7 +10141,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -10033,7 +10149,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -10114,15 +10230,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -10178,7 +10294,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -10250,7 +10366,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -10280,11 +10396,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -10331,7 +10447,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -10388,7 +10504,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -10429,10 +10545,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -10459,28 +10575,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -10488,7 +10604,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -10516,7 +10632,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
-    <sheet name="技能效果" sheetId="13" r:id="rId2"/>
-    <sheet name="场景技能" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
-    <sheet name="技能分析表" sheetId="7" r:id="rId5"/>
-    <sheet name="技能信息收集" sheetId="8" r:id="rId6"/>
-    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId7"/>
-    <sheet name="技能分类坐标" sheetId="10" r:id="rId8"/>
+    <sheet name="怪物技能" sheetId="14" r:id="rId2"/>
+    <sheet name="技能效果" sheetId="13" r:id="rId3"/>
+    <sheet name="场景技能" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="技能分析表" sheetId="7" r:id="rId6"/>
+    <sheet name="技能信息收集" sheetId="8" r:id="rId7"/>
+    <sheet name="吸血鬼游戏技能分析" sheetId="9" r:id="rId8"/>
+    <sheet name="技能分类坐标" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能分析表!$L$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">技能分析表!$L$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="484">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1853,6 +1854,38 @@
   </si>
   <si>
     <t>50-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接冲撞敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2573,9 +2606,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N118" sqref="N118"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6077,10 +6110,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>2500</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6174,7 +6325,7 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6218,7 +6369,7 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6262,7 +6413,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6302,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6343,7 +6494,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6387,7 +6538,7 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6428,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="38" t="s">
         <v>462</v>
@@ -6469,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>462</v>
@@ -6510,7 +6661,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>462</v>
@@ -6551,7 +6702,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>99</v>
@@ -6582,6 +6733,9 @@
       <c r="E12">
         <v>3</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="J12" s="38" t="s">
         <v>365</v>
       </c>
@@ -6621,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="38">
         <v>3000</v>
@@ -6665,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>462</v>
@@ -6706,7 +6860,7 @@
         <v>72</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6747,7 +6901,7 @@
         <v>72</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6788,7 +6942,7 @@
         <v>72</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6829,7 +6983,7 @@
         <v>72</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6870,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6911,7 +7065,7 @@
         <v>72</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
@@ -6950,7 +7104,7 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="38">
         <v>99</v>
@@ -6986,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>424</v>
@@ -7024,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>3000</v>
@@ -7068,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
@@ -7102,7 +7256,7 @@
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
@@ -7145,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>3000</v>
@@ -7189,7 +7343,7 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
@@ -7223,7 +7377,7 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="38"/>
       <c r="K28" s="38"/>
@@ -7266,7 +7420,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="38"/>
       <c r="K29" s="38"/>
@@ -7303,7 +7457,7 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="38"/>
       <c r="K30" s="38"/>
@@ -7337,7 +7491,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="38"/>
       <c r="K31" s="38"/>
@@ -7374,7 +7528,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="38"/>
       <c r="K32" s="38"/>
@@ -7415,7 +7569,7 @@
       </c>
       <c r="E33" s="38"/>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="38"/>
       <c r="K33">
@@ -7449,7 +7603,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="38"/>
       <c r="K34" s="38"/>
@@ -7463,6 +7617,14 @@
       <c r="R34">
         <v>16</v>
       </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7471,7 +7633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -7556,7 +7718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J8:M8"/>
   <sheetViews>
@@ -7586,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -8536,7 +8698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -8785,7 +8947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
@@ -9439,7 +9601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="490">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1887,6 +1887,26 @@
   <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerselect_powers_0035</t>
+  </si>
+  <si>
+    <t>激光高爆炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_laser</t>
+  </si>
+  <si>
+    <t>skill_laser_start_cp</t>
+  </si>
+  <si>
+    <t>skill_laser_light_cp</t>
   </si>
 </sst>
 </file>
@@ -2604,11 +2624,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6101,6 +6121,146 @@
         <v>429</v>
       </c>
     </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>11501</v>
+      </c>
+      <c r="B115" t="s">
+        <v>484</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D115">
+        <v>34</v>
+      </c>
+      <c r="E115">
+        <v>8000</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>270</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>485</v>
+      </c>
+      <c r="K115" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>11502</v>
+      </c>
+      <c r="B116" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>10000</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>270</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>485</v>
+      </c>
+      <c r="K116" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>11503</v>
+      </c>
+      <c r="B117" t="s">
+        <v>484</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>10000</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>270</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>485</v>
+      </c>
+      <c r="K117" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>11504</v>
+      </c>
+      <c r="B118" t="s">
+        <v>484</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>10000</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>270</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>485</v>
+      </c>
+      <c r="K118" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -6228,10 +6388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7619,12 +7779,69 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
+      <c r="F35">
+        <v>2</v>
+      </c>
       <c r="H35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="L35" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M35" t="s">
+        <v>487</v>
+      </c>
+      <c r="O35" t="s">
+        <v>426</v>
+      </c>
+      <c r="P35" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q35">
+        <v>35</v>
+      </c>
+      <c r="R35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M36" t="s">
+        <v>487</v>
+      </c>
+      <c r="O36" t="s">
+        <v>426</v>
+      </c>
+      <c r="P36" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -6272,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>20002</v>
+        <v>20101</v>
       </c>
       <c r="B3" t="s">
         <v>476</v>
@@ -6390,8 +6390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="507">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1592,10 +1592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_iceball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1907,6 +1903,66 @@
   </si>
   <si>
     <t>skill_laser_light_cp</t>
+  </si>
+  <si>
+    <t>skill_laser_boom_cp</t>
+  </si>
+  <si>
+    <t>skill_laser_fireland_cp</t>
+  </si>
+  <si>
+    <t>skill_warmongers_explosion</t>
+  </si>
+  <si>
+    <t>skill_warmongers_explosion_start_cp</t>
+  </si>
+  <si>
+    <t>skill_warmongers_explosion_boom_cp</t>
+  </si>
+  <si>
+    <t>skill_ices_hard_boom_cp</t>
+  </si>
+  <si>
+    <t>hero_jigou_iceshard</t>
+  </si>
+  <si>
+    <t>skill_ices_hard</t>
+  </si>
+  <si>
+    <t>冰柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰柱傷害敵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ice_shards_start_cp</t>
+  </si>
+  <si>
+    <t>skill_ice_shards</t>
+  </si>
+  <si>
+    <t>special_powers_icon_7</t>
+  </si>
+  <si>
+    <t>skill_huimiehuoyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_powers_icon_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,75,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ice_shards_advance_cp</t>
+  </si>
+  <si>
+    <t>0,40,50,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2624,11 +2680,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2667,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -2687,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -2716,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -2745,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -2774,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -2803,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>3000</v>
@@ -2832,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>3000</v>
@@ -2861,7 +2917,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>3000</v>
@@ -2873,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -2890,7 +2946,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>3000</v>
@@ -2919,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>3000</v>
@@ -3148,7 +3204,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -3166,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -3180,7 +3236,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3198,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -3212,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3230,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
@@ -3244,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3262,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
@@ -3276,7 +3332,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3294,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K22" t="s">
         <v>54</v>
@@ -3308,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3326,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K23" t="s">
         <v>55</v>
@@ -3340,7 +3396,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3358,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K24" t="s">
         <v>56</v>
@@ -5235,7 +5291,7 @@
         <v>11201</v>
       </c>
       <c r="B88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>90</v>
@@ -5256,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
@@ -5267,7 +5323,7 @@
         <v>11202</v>
       </c>
       <c r="B89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>90</v>
@@ -5288,10 +5344,10 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
@@ -5299,7 +5355,7 @@
         <v>11203</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
@@ -5320,10 +5376,10 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K90" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
@@ -5331,7 +5387,7 @@
         <v>11204</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>90</v>
@@ -5352,10 +5408,10 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
@@ -5363,7 +5419,7 @@
         <v>11205</v>
       </c>
       <c r="B92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>90</v>
@@ -5384,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
@@ -5395,7 +5451,7 @@
         <v>11206</v>
       </c>
       <c r="B93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>90</v>
@@ -5416,10 +5472,10 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K93" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
@@ -5427,7 +5483,7 @@
         <v>11207</v>
       </c>
       <c r="B94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>90</v>
@@ -5448,10 +5504,10 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
@@ -5459,7 +5515,7 @@
         <v>11208</v>
       </c>
       <c r="B95" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>90</v>
@@ -5480,10 +5536,10 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K95" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
@@ -5491,7 +5547,7 @@
         <v>11209</v>
       </c>
       <c r="B96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>90</v>
@@ -5512,10 +5568,10 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K96" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
@@ -5523,7 +5579,7 @@
         <v>11301</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>90</v>
@@ -5544,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -5555,7 +5611,7 @@
         <v>11302</v>
       </c>
       <c r="B98" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>90</v>
@@ -5576,10 +5632,10 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
@@ -5587,7 +5643,7 @@
         <v>11303</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
@@ -5608,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K99" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
@@ -5619,7 +5675,7 @@
         <v>11304</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>90</v>
@@ -5640,10 +5696,10 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
@@ -5651,7 +5707,7 @@
         <v>11305</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>90</v>
@@ -5672,10 +5728,10 @@
         <v>5</v>
       </c>
       <c r="J101" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K101" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -5683,7 +5739,7 @@
         <v>11306</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>90</v>
@@ -5704,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K102" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
@@ -5715,7 +5771,7 @@
         <v>11307</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>90</v>
@@ -5736,10 +5792,10 @@
         <v>7</v>
       </c>
       <c r="J103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K103" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
@@ -5747,7 +5803,7 @@
         <v>11308</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>90</v>
@@ -5768,10 +5824,10 @@
         <v>8</v>
       </c>
       <c r="J104" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -5779,7 +5835,7 @@
         <v>11309</v>
       </c>
       <c r="B105" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>90</v>
@@ -5800,10 +5856,10 @@
         <v>9</v>
       </c>
       <c r="J105" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -5811,10 +5867,10 @@
         <v>11401</v>
       </c>
       <c r="B106" t="s">
+        <v>450</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D106">
         <v>27</v>
@@ -5835,10 +5891,10 @@
         <v>5</v>
       </c>
       <c r="J106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -5846,10 +5902,10 @@
         <v>11402</v>
       </c>
       <c r="B107" t="s">
+        <v>450</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D107">
         <v>27</v>
@@ -5870,10 +5926,10 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
@@ -5881,10 +5937,10 @@
         <v>11403</v>
       </c>
       <c r="B108" t="s">
+        <v>450</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D108">
         <v>27</v>
@@ -5905,10 +5961,10 @@
         <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -5916,10 +5972,10 @@
         <v>11404</v>
       </c>
       <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D109">
         <v>27</v>
@@ -5940,10 +5996,10 @@
         <v>5</v>
       </c>
       <c r="J109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K109" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -5951,10 +6007,10 @@
         <v>11405</v>
       </c>
       <c r="B110" t="s">
+        <v>450</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D110">
         <v>27</v>
@@ -5975,10 +6031,10 @@
         <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K110" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
@@ -5986,10 +6042,10 @@
         <v>11406</v>
       </c>
       <c r="B111" t="s">
+        <v>450</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D111">
         <v>27</v>
@@ -6010,10 +6066,10 @@
         <v>5</v>
       </c>
       <c r="J111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -6021,10 +6077,10 @@
         <v>11407</v>
       </c>
       <c r="B112" t="s">
+        <v>450</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D112">
         <v>27</v>
@@ -6045,10 +6101,10 @@
         <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -6056,10 +6112,10 @@
         <v>11408</v>
       </c>
       <c r="B113" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D113">
         <v>27</v>
@@ -6080,10 +6136,10 @@
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -6091,10 +6147,10 @@
         <v>11409</v>
       </c>
       <c r="B114" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D114">
         <v>27</v>
@@ -6115,10 +6171,10 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K114" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
@@ -6126,7 +6182,7 @@
         <v>11501</v>
       </c>
       <c r="B115" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>379</v>
@@ -6135,25 +6191,16 @@
         <v>34</v>
       </c>
       <c r="E115">
-        <v>8000</v>
-      </c>
-      <c r="F115">
-        <v>100</v>
-      </c>
-      <c r="G115">
-        <v>270</v>
+        <v>10000</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
+        <v>484</v>
+      </c>
+      <c r="K115" t="s">
         <v>485</v>
-      </c>
-      <c r="K115" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
@@ -6161,7 +6208,7 @@
         <v>11502</v>
       </c>
       <c r="B116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>379</v>
@@ -6170,25 +6217,19 @@
         <v>34</v>
       </c>
       <c r="E116">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F116">
-        <v>100</v>
-      </c>
-      <c r="G116">
-        <v>270</v>
+        <v>2000</v>
       </c>
       <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
+        <v>484</v>
+      </c>
+      <c r="K116" t="s">
         <v>485</v>
-      </c>
-      <c r="K116" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
@@ -6196,7 +6237,7 @@
         <v>11503</v>
       </c>
       <c r="B117" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>379</v>
@@ -6205,25 +6246,19 @@
         <v>34</v>
       </c>
       <c r="E117">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="F117">
-        <v>100</v>
-      </c>
-      <c r="G117">
-        <v>270</v>
+        <v>2000</v>
       </c>
       <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
+        <v>484</v>
+      </c>
+      <c r="K117" t="s">
         <v>485</v>
-      </c>
-      <c r="K117" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -6231,7 +6266,7 @@
         <v>11504</v>
       </c>
       <c r="B118" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>379</v>
@@ -6240,25 +6275,425 @@
         <v>34</v>
       </c>
       <c r="E118">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="F118">
+        <v>2000</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>484</v>
+      </c>
+      <c r="K118" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>11505</v>
+      </c>
+      <c r="B119" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>6000</v>
+      </c>
+      <c r="F119">
+        <v>2000</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="J119" t="s">
+        <v>484</v>
+      </c>
+      <c r="K119" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>11506</v>
+      </c>
+      <c r="B120" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D120">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>5000</v>
+      </c>
+      <c r="F120">
+        <v>2000</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>484</v>
+      </c>
+      <c r="K120" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>11507</v>
+      </c>
+      <c r="B121" t="s">
+        <v>483</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D121">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>4000</v>
+      </c>
+      <c r="F121">
+        <v>2000</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="J121" t="s">
+        <v>484</v>
+      </c>
+      <c r="K121" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>11508</v>
+      </c>
+      <c r="B122" t="s">
+        <v>483</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D122">
+        <v>34</v>
+      </c>
+      <c r="E122">
+        <v>3000</v>
+      </c>
+      <c r="F122">
+        <v>2000</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="J122" t="s">
+        <v>484</v>
+      </c>
+      <c r="K122" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>11509</v>
+      </c>
+      <c r="B123" t="s">
+        <v>483</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123">
+        <v>34</v>
+      </c>
+      <c r="E123">
+        <v>2000</v>
+      </c>
+      <c r="F123">
+        <v>2000</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="J123" t="s">
+        <v>484</v>
+      </c>
+      <c r="K123" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>11601</v>
+      </c>
+      <c r="B124" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124">
+        <v>41</v>
+      </c>
+      <c r="E124">
+        <v>2000</v>
+      </c>
+      <c r="F124">
         <v>100</v>
       </c>
-      <c r="G118">
-        <v>270</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>485</v>
-      </c>
-      <c r="K118" t="s">
-        <v>486</v>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="J124" t="s">
+        <v>503</v>
+      </c>
+      <c r="K124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>11602</v>
+      </c>
+      <c r="B125" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125">
+        <v>41</v>
+      </c>
+      <c r="E125">
+        <v>2000</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>9</v>
+      </c>
+      <c r="J125" t="s">
+        <v>501</v>
+      </c>
+      <c r="K125" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>11603</v>
+      </c>
+      <c r="B126" t="s">
+        <v>497</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126">
+        <v>41</v>
+      </c>
+      <c r="E126">
+        <v>2000</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="H126">
+        <v>9</v>
+      </c>
+      <c r="J126" t="s">
+        <v>501</v>
+      </c>
+      <c r="K126" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>11604</v>
+      </c>
+      <c r="B127" t="s">
+        <v>497</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127">
+        <v>41</v>
+      </c>
+      <c r="E127">
+        <v>2000</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="H127">
+        <v>9</v>
+      </c>
+      <c r="J127" t="s">
+        <v>501</v>
+      </c>
+      <c r="K127" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>11605</v>
+      </c>
+      <c r="B128" t="s">
+        <v>497</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128">
+        <v>42</v>
+      </c>
+      <c r="E128">
+        <v>2000</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="J128" t="s">
+        <v>501</v>
+      </c>
+      <c r="K128" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>11606</v>
+      </c>
+      <c r="B129" t="s">
+        <v>497</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D129">
+        <v>42</v>
+      </c>
+      <c r="E129">
+        <v>2000</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="J129" t="s">
+        <v>501</v>
+      </c>
+      <c r="K129" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>11607</v>
+      </c>
+      <c r="B130" t="s">
+        <v>497</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D130">
+        <v>42</v>
+      </c>
+      <c r="E130">
+        <v>2000</v>
+      </c>
+      <c r="F130">
+        <v>100</v>
+      </c>
+      <c r="H130">
+        <v>9</v>
+      </c>
+      <c r="J130" t="s">
+        <v>501</v>
+      </c>
+      <c r="K130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>11608</v>
+      </c>
+      <c r="B131" t="s">
+        <v>497</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D131">
+        <v>42</v>
+      </c>
+      <c r="E131">
+        <v>2000</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="J131" t="s">
+        <v>501</v>
+      </c>
+      <c r="K131" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>11609</v>
+      </c>
+      <c r="B132" t="s">
+        <v>497</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132">
+        <v>42</v>
+      </c>
+      <c r="E132">
+        <v>2000</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="H132">
+        <v>9</v>
+      </c>
+      <c r="J132" t="s">
+        <v>501</v>
+      </c>
+      <c r="K132" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6272,7 +6707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -6293,16 +6728,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E1" t="s">
         <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -6313,10 +6748,10 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
@@ -6329,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -6337,10 +6772,10 @@
         <v>20101</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -6353,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -6361,10 +6796,10 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -6377,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -6388,10 +6823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6414,7 +6849,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B1" t="s">
         <v>390</v>
@@ -6435,7 +6870,7 @@
         <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I1" t="s">
         <v>396</v>
@@ -6450,22 +6885,22 @@
         <v>399</v>
       </c>
       <c r="M1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -6482,7 +6917,7 @@
         <v>402</v>
       </c>
       <c r="E2" s="38">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6491,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6500,13 +6935,13 @@
         <v>369</v>
       </c>
       <c r="N2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -6526,7 +6961,7 @@
         <v>402</v>
       </c>
       <c r="E3" s="38">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6535,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6544,13 +6979,13 @@
         <v>369</v>
       </c>
       <c r="N3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -6561,16 +6996,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>403</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>404</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6579,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6588,13 +7023,16 @@
         <v>368</v>
       </c>
       <c r="N4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P4" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -6605,7 +7043,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -6622,13 +7060,13 @@
         <v>370</v>
       </c>
       <c r="M5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q5">
         <v>32</v>
@@ -6642,13 +7080,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>406</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6660,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K6">
         <v>99</v>
@@ -6669,13 +7107,13 @@
         <v>371</v>
       </c>
       <c r="N6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -6689,10 +7127,10 @@
         <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -6710,13 +7148,13 @@
         <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -6730,10 +7168,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6742,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K8">
         <v>99</v>
@@ -6751,13 +7189,13 @@
         <v>372</v>
       </c>
       <c r="N8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -6771,10 +7209,10 @@
         <v>389</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>406</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -6783,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K9">
         <v>99</v>
@@ -6792,13 +7230,13 @@
         <v>372</v>
       </c>
       <c r="N9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -6809,13 +7247,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>406</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -6824,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K10">
         <v>99</v>
@@ -6833,13 +7271,13 @@
         <v>372</v>
       </c>
       <c r="N10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -6853,10 +7291,10 @@
         <v>91</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6871,13 +7309,13 @@
         <v>373</v>
       </c>
       <c r="N11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -6888,7 +7326,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -6906,13 +7344,13 @@
         <v>367</v>
       </c>
       <c r="N12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -6929,7 +7367,7 @@
         <v>401</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6950,13 +7388,13 @@
         <v>367</v>
       </c>
       <c r="N13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R13">
         <v>9</v>
@@ -6970,10 +7408,10 @@
         <v>358</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -6982,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
@@ -6991,13 +7429,13 @@
         <v>374</v>
       </c>
       <c r="N14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -7014,7 +7452,7 @@
         <v>401</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -7032,13 +7470,13 @@
         <v>374</v>
       </c>
       <c r="N15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R15">
         <v>11</v>
@@ -7055,7 +7493,7 @@
         <v>401</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -7073,13 +7511,13 @@
         <v>374</v>
       </c>
       <c r="N16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -7096,7 +7534,7 @@
         <v>401</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -7114,13 +7552,13 @@
         <v>374</v>
       </c>
       <c r="N17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -7137,7 +7575,7 @@
         <v>401</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -7155,13 +7593,13 @@
         <v>374</v>
       </c>
       <c r="N18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R18">
         <v>11</v>
@@ -7178,7 +7616,7 @@
         <v>401</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -7196,13 +7634,13 @@
         <v>374</v>
       </c>
       <c r="N19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q19">
         <v>19</v>
@@ -7216,10 +7654,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -7235,13 +7673,13 @@
         <v>388</v>
       </c>
       <c r="N20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -7252,13 +7690,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>401</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -7276,13 +7714,13 @@
         <v>382</v>
       </c>
       <c r="N21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R21">
         <v>13</v>
@@ -7293,7 +7731,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -7303,16 +7741,16 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -7326,13 +7764,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -7353,16 +7791,16 @@
         <v>370</v>
       </c>
       <c r="M23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q23">
         <v>23</v>
@@ -7376,7 +7814,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -7390,16 +7828,16 @@
         <v>370</v>
       </c>
       <c r="M24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -7410,7 +7848,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -7424,16 +7862,16 @@
         <v>370</v>
       </c>
       <c r="M25" t="s">
+        <v>430</v>
+      </c>
+      <c r="N25" t="s">
         <v>431</v>
       </c>
-      <c r="N25" t="s">
-        <v>432</v>
-      </c>
       <c r="O25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q25">
         <v>25</v>
@@ -7447,13 +7885,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -7474,16 +7912,16 @@
         <v>370</v>
       </c>
       <c r="M26" t="s">
+        <v>430</v>
+      </c>
+      <c r="N26" t="s">
         <v>431</v>
       </c>
-      <c r="N26" t="s">
-        <v>432</v>
-      </c>
       <c r="O26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q26">
         <v>26</v>
@@ -7497,7 +7935,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -7511,16 +7949,16 @@
         <v>370</v>
       </c>
       <c r="M27" t="s">
+        <v>430</v>
+      </c>
+      <c r="N27" t="s">
         <v>431</v>
       </c>
-      <c r="N27" t="s">
-        <v>432</v>
-      </c>
       <c r="O27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -7531,7 +7969,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7545,16 +7983,16 @@
         <v>370</v>
       </c>
       <c r="M28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q28">
         <v>30</v>
@@ -7568,13 +8006,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -7588,16 +8026,16 @@
         <v>370</v>
       </c>
       <c r="M29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q29">
         <v>29</v>
@@ -7611,7 +8049,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -7625,13 +8063,13 @@
         <v>370</v>
       </c>
       <c r="M30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P30" t="s">
         <v>211</v>
@@ -7645,7 +8083,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -7659,16 +8097,16 @@
         <v>370</v>
       </c>
       <c r="M31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q31">
         <v>31</v>
@@ -7682,7 +8120,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -7696,16 +8134,16 @@
         <v>370</v>
       </c>
       <c r="M32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q32">
         <v>28</v>
@@ -7719,13 +8157,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>196</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33">
@@ -7737,10 +8175,10 @@
       </c>
       <c r="L33" s="38"/>
       <c r="M33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P33" t="s">
         <v>211</v>
@@ -7757,7 +8195,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -7769,10 +8207,10 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R34">
         <v>16</v>
@@ -7783,7 +8221,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -7797,10 +8235,10 @@
         <v>370</v>
       </c>
       <c r="M35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -7809,7 +8247,7 @@
         <v>35</v>
       </c>
       <c r="R35">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
@@ -7817,7 +8255,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -7831,16 +8269,283 @@
         <v>370</v>
       </c>
       <c r="M36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P36" t="s">
         <v>211</v>
       </c>
+      <c r="Q36">
+        <v>36</v>
+      </c>
       <c r="R36">
         <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M37" t="s">
+        <v>486</v>
+      </c>
+      <c r="O37" t="s">
+        <v>425</v>
+      </c>
+      <c r="P37" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q37">
+        <v>37</v>
+      </c>
+      <c r="R37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>490</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M38" t="s">
+        <v>486</v>
+      </c>
+      <c r="O38" t="s">
+        <v>425</v>
+      </c>
+      <c r="P38" t="s">
+        <v>445</v>
+      </c>
+      <c r="R38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="38">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M39" t="s">
+        <v>491</v>
+      </c>
+      <c r="O39" t="s">
+        <v>425</v>
+      </c>
+      <c r="P39" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M40" t="s">
+        <v>491</v>
+      </c>
+      <c r="O40" t="s">
+        <v>425</v>
+      </c>
+      <c r="P40" t="s">
+        <v>445</v>
+      </c>
+      <c r="R40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M41" t="s">
+        <v>496</v>
+      </c>
+      <c r="O41" t="s">
+        <v>425</v>
+      </c>
+      <c r="P41" t="s">
+        <v>211</v>
+      </c>
+      <c r="R41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="K42">
+        <v>99</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" t="s">
+        <v>500</v>
+      </c>
+      <c r="O42" t="s">
+        <v>425</v>
+      </c>
+      <c r="P42" t="s">
+        <v>211</v>
+      </c>
+      <c r="R42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="K43">
+        <v>99</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" t="s">
+        <v>500</v>
+      </c>
+      <c r="O43" t="s">
+        <v>425</v>
+      </c>
+      <c r="P43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R43">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -2682,9 +2682,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3009,6 +3009,9 @@
       <c r="E11">
         <v>2000</v>
       </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -3038,6 +3041,9 @@
       <c r="E12">
         <v>2000</v>
       </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -3067,6 +3073,9 @@
       <c r="E13">
         <v>2000</v>
       </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -3096,6 +3105,9 @@
       <c r="E14">
         <v>2000</v>
       </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -3125,6 +3137,9 @@
       <c r="E15">
         <v>2000</v>
       </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -3154,11 +3169,14 @@
       <c r="E16">
         <v>2000</v>
       </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -3183,11 +3201,14 @@
       <c r="E17">
         <v>2000</v>
       </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -6825,7 +6846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="512">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1954,14 +1954,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,75,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_ice_shards_advance_cp</t>
   </si>
   <si>
     <t>0,40,50,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ice_shards_start3_cp</t>
+  </si>
+  <si>
+    <t>skill_ice_shards_start2_cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ice_shards_start1_cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25,70,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2680,11 +2699,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3974,201 +3993,201 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>3000</v>
       </c>
       <c r="G43">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>10701</v>
+        <v>10604</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G44">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>10702</v>
+        <v>10605</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G45">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>10703</v>
+        <v>10606</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G46">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>10704</v>
+        <v>10607</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G47">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>10705</v>
+        <v>10608</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G48">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H48">
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>10706</v>
+        <v>10609</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G49">
         <v>350</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>10707</v>
+        <v>10701</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -4186,18 +4205,18 @@
         <v>350</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>10708</v>
+        <v>10702</v>
       </c>
       <c r="B51" t="s">
         <v>68</v>
@@ -4215,18 +4234,18 @@
         <v>350</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>71</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>10709</v>
+        <v>10703</v>
       </c>
       <c r="B52" t="s">
         <v>68</v>
@@ -4250,155 +4269,140 @@
         <v>71</v>
       </c>
       <c r="K52" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>10801</v>
+        <v>10704</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>4000</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>10802</v>
+        <v>10705</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>4000</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G54">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>10803</v>
+        <v>10706</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>4000</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>10804</v>
+        <v>10707</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>4000</v>
-      </c>
-      <c r="F56">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H56">
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>10805</v>
+        <v>10708</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>4000</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G57">
         <v>350</v>
@@ -4407,30 +4411,27 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>10806</v>
+        <v>10709</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>4000</v>
-      </c>
-      <c r="F58">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G58">
         <v>350</v>
@@ -4439,15 +4440,15 @@
         <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>10807</v>
+        <v>10801</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
@@ -4465,7 +4466,7 @@
         <v>100</v>
       </c>
       <c r="G59">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -4474,12 +4475,12 @@
         <v>89</v>
       </c>
       <c r="K59" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>10808</v>
+        <v>10802</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
@@ -4497,7 +4498,7 @@
         <v>100</v>
       </c>
       <c r="G60">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -4506,12 +4507,12 @@
         <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>10809</v>
+        <v>10803</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -4529,7 +4530,7 @@
         <v>100</v>
       </c>
       <c r="G61">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -4538,189 +4539,207 @@
         <v>89</v>
       </c>
       <c r="K61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>10901</v>
+        <v>10804</v>
       </c>
       <c r="B62" t="s">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>1500</v>
+        <v>4000</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
       </c>
       <c r="G62">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>10902</v>
+        <v>10805</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>1400</v>
+        <v>4000</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
       </c>
       <c r="G63">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>350</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>10903</v>
+        <v>10806</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>1400</v>
+        <v>4000</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
       </c>
       <c r="G64">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>10904</v>
+        <v>10807</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>1400</v>
+        <v>4000</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>352</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>10905</v>
+        <v>10808</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>1300</v>
+        <v>4000</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
       </c>
       <c r="G66">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>353</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>10906</v>
+        <v>10809</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>1300</v>
+        <v>4000</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
       </c>
       <c r="G67">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>10907</v>
+        <v>10901</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>344</v>
@@ -4729,24 +4748,24 @@
         <v>13</v>
       </c>
       <c r="E68">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G68">
         <v>300</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>348</v>
       </c>
       <c r="K68" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>10908</v>
+        <v>10902</v>
       </c>
       <c r="B69" t="s">
         <v>343</v>
@@ -4758,254 +4777,245 @@
         <v>13</v>
       </c>
       <c r="E69">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G69">
         <v>300</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>348</v>
       </c>
       <c r="K69" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>11001</v>
+        <v>10903</v>
       </c>
       <c r="B70" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>11002</v>
+        <v>10904</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K71" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>11003</v>
+        <v>10905</v>
       </c>
       <c r="B72" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K72" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>11004</v>
+        <v>10906</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K73" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>11005</v>
+        <v>10907</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K74" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>11006</v>
+        <v>10908</v>
       </c>
       <c r="B75" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>800</v>
-      </c>
-      <c r="F75">
-        <v>20</v>
+        <v>1100</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K75" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>11007</v>
+        <v>11001</v>
       </c>
       <c r="B76" t="s">
         <v>375</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>700</v>
-      </c>
-      <c r="F76">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>378</v>
       </c>
       <c r="K76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>11008</v>
+        <v>11002</v>
       </c>
       <c r="B77" t="s">
         <v>375</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>700</v>
-      </c>
-      <c r="F77">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>378</v>
@@ -5016,28 +5026,25 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>11009</v>
+        <v>11003</v>
       </c>
       <c r="B78" t="s">
         <v>375</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>600</v>
-      </c>
-      <c r="F78">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>378</v>
@@ -5048,106 +5055,112 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>11101</v>
+        <v>11004</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K79" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>11102</v>
+        <v>11005</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K80" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>11103</v>
+        <v>11006</v>
       </c>
       <c r="B81" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>800</v>
+      </c>
+      <c r="F81">
         <v>20</v>
-      </c>
-      <c r="E81">
-        <v>2000</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K81" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>11104</v>
+        <v>11007</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>700</v>
+      </c>
+      <c r="F82">
         <v>20</v>
-      </c>
-      <c r="E82">
-        <v>2000</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5156,27 +5169,30 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K82" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>11105</v>
+        <v>11008</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D83">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>700</v>
+      </c>
+      <c r="F83">
         <v>20</v>
-      </c>
-      <c r="E83">
-        <v>2000</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5185,44 +5201,47 @@
         <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K83" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>11106</v>
+        <v>11009</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>600</v>
+      </c>
+      <c r="F84">
         <v>20</v>
-      </c>
-      <c r="E84">
-        <v>2000</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K84" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>11107</v>
+        <v>11101</v>
       </c>
       <c r="B85" t="s">
         <v>381</v>
@@ -5240,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>383</v>
@@ -5251,7 +5270,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>11108</v>
+        <v>11102</v>
       </c>
       <c r="B86" t="s">
         <v>381</v>
@@ -5269,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>383</v>
@@ -5280,7 +5299,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>11109</v>
+        <v>11103</v>
       </c>
       <c r="B87" t="s">
         <v>381</v>
@@ -5298,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>383</v>
@@ -5309,199 +5328,181 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>11201</v>
+        <v>11104</v>
       </c>
       <c r="B88" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>2000</v>
       </c>
-      <c r="F88">
-        <v>100</v>
-      </c>
       <c r="G88">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K88" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>11202</v>
+        <v>11105</v>
       </c>
       <c r="B89" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>2000</v>
       </c>
-      <c r="F89">
-        <v>100</v>
-      </c>
       <c r="G89">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K89" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>11203</v>
+        <v>11106</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>2000</v>
       </c>
-      <c r="F90">
-        <v>100</v>
-      </c>
       <c r="G90">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K90" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>11204</v>
+        <v>11107</v>
       </c>
       <c r="B91" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>2000</v>
       </c>
-      <c r="F91">
-        <v>100</v>
-      </c>
       <c r="G91">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J91" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K91" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>11205</v>
+        <v>11108</v>
       </c>
       <c r="B92" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>2000</v>
       </c>
-      <c r="F92">
-        <v>100</v>
-      </c>
       <c r="G92">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J92" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K92" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>11206</v>
+        <v>11109</v>
       </c>
       <c r="B93" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>2000</v>
       </c>
-      <c r="F93">
-        <v>100</v>
-      </c>
       <c r="G93">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J93" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K93" t="s">
-        <v>418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>11207</v>
+        <v>11201</v>
       </c>
       <c r="B94" t="s">
         <v>417</v>
@@ -5519,10 +5520,10 @@
         <v>100</v>
       </c>
       <c r="G94">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>422</v>
@@ -5533,7 +5534,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>11208</v>
+        <v>11202</v>
       </c>
       <c r="B95" t="s">
         <v>417</v>
@@ -5551,10 +5552,10 @@
         <v>100</v>
       </c>
       <c r="G95">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>422</v>
@@ -5565,7 +5566,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>11209</v>
+        <v>11203</v>
       </c>
       <c r="B96" t="s">
         <v>417</v>
@@ -5583,10 +5584,10 @@
         <v>100</v>
       </c>
       <c r="G96">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>422</v>
@@ -5597,16 +5598,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>11301</v>
+        <v>11204</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E97">
         <v>2000</v>
@@ -5615,30 +5616,30 @@
         <v>100</v>
       </c>
       <c r="G97">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K97" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>11302</v>
+        <v>11205</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E98">
         <v>2000</v>
@@ -5647,30 +5648,30 @@
         <v>100</v>
       </c>
       <c r="G98">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K98" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>11303</v>
+        <v>11206</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E99">
         <v>2000</v>
@@ -5679,30 +5680,30 @@
         <v>100</v>
       </c>
       <c r="G99">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K99" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>11304</v>
+        <v>11207</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E100">
         <v>2000</v>
@@ -5711,30 +5712,30 @@
         <v>100</v>
       </c>
       <c r="G100">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="H100">
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K100" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>11305</v>
+        <v>11208</v>
       </c>
       <c r="B101" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E101">
         <v>2000</v>
@@ -5743,30 +5744,30 @@
         <v>100</v>
       </c>
       <c r="G101">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K101" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>11306</v>
+        <v>11209</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E102">
         <v>2000</v>
@@ -5778,18 +5779,18 @@
         <v>270</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K102" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>11307</v>
+        <v>11301</v>
       </c>
       <c r="B103" t="s">
         <v>427</v>
@@ -5801,16 +5802,19 @@
         <v>24</v>
       </c>
       <c r="E103">
+        <v>5000</v>
+      </c>
+      <c r="F103">
         <v>2000</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>100</v>
       </c>
-      <c r="G103">
-        <v>270</v>
-      </c>
       <c r="H103">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>429</v>
@@ -5821,7 +5825,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>11308</v>
+        <v>11302</v>
       </c>
       <c r="B104" t="s">
         <v>427</v>
@@ -5833,16 +5837,19 @@
         <v>24</v>
       </c>
       <c r="E104">
+        <v>5000</v>
+      </c>
+      <c r="F104">
         <v>2000</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>100</v>
       </c>
-      <c r="G104">
-        <v>270</v>
-      </c>
       <c r="H104">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>429</v>
@@ -5853,7 +5860,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>11309</v>
+        <v>11303</v>
       </c>
       <c r="B105" t="s">
         <v>427</v>
@@ -5865,16 +5872,19 @@
         <v>24</v>
       </c>
       <c r="E105">
+        <v>5000</v>
+      </c>
+      <c r="F105">
         <v>2000</v>
       </c>
-      <c r="F105">
-        <v>100</v>
-      </c>
       <c r="G105">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>429</v>
@@ -5885,34 +5895,34 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>11401</v>
+        <v>11304</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F106">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G106">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K106" t="s">
         <v>428</v>
@@ -5920,34 +5930,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>11402</v>
+        <v>11305</v>
       </c>
       <c r="B107" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D107">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F107">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G107">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K107" t="s">
         <v>428</v>
@@ -5955,34 +5965,34 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>11403</v>
+        <v>11306</v>
       </c>
       <c r="B108" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D108">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F108">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G108">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K108" t="s">
         <v>428</v>
@@ -5990,34 +6000,34 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>11404</v>
+        <v>11307</v>
       </c>
       <c r="B109" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D109">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E109">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F109">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G109">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K109" t="s">
         <v>428</v>
@@ -6025,34 +6035,34 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>11405</v>
+        <v>11308</v>
       </c>
       <c r="B110" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D110">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F110">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G110">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K110" t="s">
         <v>428</v>
@@ -6060,34 +6070,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>11406</v>
+        <v>11309</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="D111">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E111">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F111">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G111">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>5</v>
       </c>
       <c r="J111" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="K111" t="s">
         <v>428</v>
@@ -6095,7 +6105,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>11407</v>
+        <v>11401</v>
       </c>
       <c r="B112" t="s">
         <v>450</v>
@@ -6130,7 +6140,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>11408</v>
+        <v>11402</v>
       </c>
       <c r="B113" t="s">
         <v>450</v>
@@ -6165,7 +6175,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>11409</v>
+        <v>11403</v>
       </c>
       <c r="B114" t="s">
         <v>450</v>
@@ -6200,178 +6210,217 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>11501</v>
+        <v>11404</v>
       </c>
       <c r="B115" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D115">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E115">
         <v>10000</v>
       </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>270</v>
+      </c>
       <c r="H115">
         <v>1</v>
       </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
       <c r="J115" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K115" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>11502</v>
+        <v>11405</v>
       </c>
       <c r="B116" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D116">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E116">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="F116">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>270</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K116" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>11503</v>
+        <v>11406</v>
       </c>
       <c r="B117" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D117">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F117">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>270</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K117" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>11504</v>
+        <v>11407</v>
       </c>
       <c r="B118" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D118">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E118">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="F118">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>270</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K118" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>11505</v>
+        <v>11408</v>
       </c>
       <c r="B119" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D119">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F119">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>270</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K119" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>11506</v>
+        <v>11409</v>
       </c>
       <c r="B120" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D120">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F120">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>270</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="K120" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>11507</v>
+        <v>11501</v>
       </c>
       <c r="B121" t="s">
         <v>483</v>
@@ -6383,13 +6432,10 @@
         <v>34</v>
       </c>
       <c r="E121">
-        <v>4000</v>
-      </c>
-      <c r="F121">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>484</v>
@@ -6400,7 +6446,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>11508</v>
+        <v>11502</v>
       </c>
       <c r="B122" t="s">
         <v>483</v>
@@ -6412,13 +6458,13 @@
         <v>34</v>
       </c>
       <c r="E122">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="F122">
         <v>2000</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>484</v>
@@ -6429,7 +6475,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>11509</v>
+        <v>11503</v>
       </c>
       <c r="B123" t="s">
         <v>483</v>
@@ -6441,7 +6487,7 @@
         <v>34</v>
       </c>
       <c r="E123">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="F123">
         <v>2000</v>
@@ -6458,181 +6504,181 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>11601</v>
+        <v>11504</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D124">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E124">
+        <v>7000</v>
+      </c>
+      <c r="F124">
         <v>2000</v>
       </c>
-      <c r="F124">
-        <v>100</v>
-      </c>
       <c r="H124">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K124" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>11602</v>
+        <v>11505</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D125">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E125">
+        <v>6000</v>
+      </c>
+      <c r="F125">
         <v>2000</v>
       </c>
-      <c r="F125">
-        <v>100</v>
-      </c>
       <c r="H125">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K125" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>11603</v>
+        <v>11506</v>
       </c>
       <c r="B126" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D126">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E126">
+        <v>5000</v>
+      </c>
+      <c r="F126">
         <v>2000</v>
       </c>
-      <c r="F126">
-        <v>100</v>
-      </c>
       <c r="H126">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K126" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>11604</v>
+        <v>11507</v>
       </c>
       <c r="B127" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D127">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E127">
+        <v>4000</v>
+      </c>
+      <c r="F127">
         <v>2000</v>
       </c>
-      <c r="F127">
-        <v>100</v>
-      </c>
       <c r="H127">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K127" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>11605</v>
+        <v>11508</v>
       </c>
       <c r="B128" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D128">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E128">
+        <v>3000</v>
+      </c>
+      <c r="F128">
         <v>2000</v>
       </c>
-      <c r="F128">
-        <v>100</v>
-      </c>
       <c r="H128">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K128" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>11606</v>
+        <v>11509</v>
       </c>
       <c r="B129" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D129">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E129">
         <v>2000</v>
       </c>
       <c r="F129">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K129" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>11607</v>
+        <v>11601</v>
       </c>
       <c r="B130" t="s">
         <v>497</v>
@@ -6641,7 +6687,7 @@
         <v>379</v>
       </c>
       <c r="D130">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E130">
         <v>2000</v>
@@ -6650,10 +6696,10 @@
         <v>100</v>
       </c>
       <c r="H130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J130" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K130" t="s">
         <v>498</v>
@@ -6661,7 +6707,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>11608</v>
+        <v>11602</v>
       </c>
       <c r="B131" t="s">
         <v>497</v>
@@ -6670,7 +6716,7 @@
         <v>379</v>
       </c>
       <c r="D131">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131">
         <v>2000</v>
@@ -6679,7 +6725,7 @@
         <v>100</v>
       </c>
       <c r="H131">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J131" t="s">
         <v>501</v>
@@ -6690,7 +6736,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>11609</v>
+        <v>11603</v>
       </c>
       <c r="B132" t="s">
         <v>497</v>
@@ -6708,12 +6754,186 @@
         <v>100</v>
       </c>
       <c r="H132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J132" t="s">
         <v>501</v>
       </c>
       <c r="K132" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>11604</v>
+      </c>
+      <c r="B133" t="s">
+        <v>497</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D133">
+        <v>42</v>
+      </c>
+      <c r="E133">
+        <v>2000</v>
+      </c>
+      <c r="F133">
+        <v>100</v>
+      </c>
+      <c r="H133">
+        <v>6</v>
+      </c>
+      <c r="J133" t="s">
+        <v>501</v>
+      </c>
+      <c r="K133" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>11605</v>
+      </c>
+      <c r="B134" t="s">
+        <v>497</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D134">
+        <v>43</v>
+      </c>
+      <c r="E134">
+        <v>2000</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>501</v>
+      </c>
+      <c r="K134" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>11606</v>
+      </c>
+      <c r="B135" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135">
+        <v>43</v>
+      </c>
+      <c r="E135">
+        <v>2000</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s">
+        <v>501</v>
+      </c>
+      <c r="K135" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>11607</v>
+      </c>
+      <c r="B136" t="s">
+        <v>497</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D136">
+        <v>44</v>
+      </c>
+      <c r="E136">
+        <v>2000</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="J136" t="s">
+        <v>501</v>
+      </c>
+      <c r="K136" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>11608</v>
+      </c>
+      <c r="B137" t="s">
+        <v>497</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137">
+        <v>44</v>
+      </c>
+      <c r="E137">
+        <v>2000</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="J137" t="s">
+        <v>501</v>
+      </c>
+      <c r="K137" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>11609</v>
+      </c>
+      <c r="B138" t="s">
+        <v>497</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138">
+        <v>45</v>
+      </c>
+      <c r="E138">
+        <v>2000</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="H138">
+        <v>9</v>
+      </c>
+      <c r="J138" t="s">
+        <v>501</v>
+      </c>
+      <c r="K138" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6844,17 +7064,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -8494,13 +8714,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42">
@@ -8534,13 +8754,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43">
@@ -8566,6 +8786,126 @@
         <v>211</v>
       </c>
       <c r="R43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>508</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="K44">
+        <v>99</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" t="s">
+        <v>500</v>
+      </c>
+      <c r="O44" t="s">
+        <v>425</v>
+      </c>
+      <c r="P44" t="s">
+        <v>211</v>
+      </c>
+      <c r="R44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="K45">
+        <v>99</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s">
+        <v>500</v>
+      </c>
+      <c r="O45" t="s">
+        <v>425</v>
+      </c>
+      <c r="P45" t="s">
+        <v>211</v>
+      </c>
+      <c r="R45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="K46">
+        <v>99</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="s">
+        <v>500</v>
+      </c>
+      <c r="O46" t="s">
+        <v>425</v>
+      </c>
+      <c r="P46" t="s">
+        <v>211</v>
+      </c>
+      <c r="R46">
         <v>16</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="519">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1982,6 +1982,29 @@
   <si>
     <t>0,25,70,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroroom_upgradeIcons_0010</t>
+  </si>
+  <si>
+    <t>紫色风暴伤害敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_purple_storm_start_cp</t>
+  </si>
+  <si>
+    <t>skill_purple_storm_mid_cp</t>
+  </si>
+  <si>
+    <t>skill_purple_storm_end_cp</t>
+  </si>
+  <si>
+    <t>skill_purple_storm</t>
   </si>
 </sst>
 </file>
@@ -2699,11 +2722,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P94" sqref="P94"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6935,6 +6958,267 @@
       </c>
       <c r="K138" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>11701</v>
+      </c>
+      <c r="B139" t="s">
+        <v>512</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139">
+        <v>46</v>
+      </c>
+      <c r="E139">
+        <v>3000</v>
+      </c>
+      <c r="F139">
+        <v>200</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="J139" t="s">
+        <v>513</v>
+      </c>
+      <c r="K139" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>11702</v>
+      </c>
+      <c r="B140" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D140">
+        <v>46</v>
+      </c>
+      <c r="E140">
+        <v>3000</v>
+      </c>
+      <c r="F140">
+        <v>200</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="J140" t="s">
+        <v>513</v>
+      </c>
+      <c r="K140" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>11703</v>
+      </c>
+      <c r="B141" t="s">
+        <v>512</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D141">
+        <v>46</v>
+      </c>
+      <c r="E141">
+        <v>3000</v>
+      </c>
+      <c r="F141">
+        <v>200</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="J141" t="s">
+        <v>513</v>
+      </c>
+      <c r="K141" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>11704</v>
+      </c>
+      <c r="B142" t="s">
+        <v>512</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D142">
+        <v>46</v>
+      </c>
+      <c r="E142">
+        <v>3000</v>
+      </c>
+      <c r="F142">
+        <v>200</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+      <c r="J142" t="s">
+        <v>513</v>
+      </c>
+      <c r="K142" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>11705</v>
+      </c>
+      <c r="B143" t="s">
+        <v>512</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143">
+        <v>3000</v>
+      </c>
+      <c r="F143">
+        <v>200</v>
+      </c>
+      <c r="H143">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>513</v>
+      </c>
+      <c r="K143" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>11706</v>
+      </c>
+      <c r="B144" t="s">
+        <v>512</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144">
+        <v>46</v>
+      </c>
+      <c r="E144">
+        <v>3000</v>
+      </c>
+      <c r="F144">
+        <v>200</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+      <c r="J144" t="s">
+        <v>513</v>
+      </c>
+      <c r="K144" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>11707</v>
+      </c>
+      <c r="B145" t="s">
+        <v>512</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145">
+        <v>46</v>
+      </c>
+      <c r="E145">
+        <v>3000</v>
+      </c>
+      <c r="F145">
+        <v>200</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="J145" t="s">
+        <v>513</v>
+      </c>
+      <c r="K145" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>11708</v>
+      </c>
+      <c r="B146" t="s">
+        <v>512</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D146">
+        <v>46</v>
+      </c>
+      <c r="E146">
+        <v>3000</v>
+      </c>
+      <c r="F146">
+        <v>200</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="J146" t="s">
+        <v>513</v>
+      </c>
+      <c r="K146" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>11709</v>
+      </c>
+      <c r="B147" t="s">
+        <v>512</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147">
+        <v>46</v>
+      </c>
+      <c r="E147">
+        <v>3000</v>
+      </c>
+      <c r="F147">
+        <v>200</v>
+      </c>
+      <c r="H147">
+        <v>9</v>
+      </c>
+      <c r="J147" t="s">
+        <v>513</v>
+      </c>
+      <c r="K147" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -7064,10 +7348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8906,6 +9190,118 @@
         <v>211</v>
       </c>
       <c r="R46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>515</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="L47" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" t="s">
+        <v>518</v>
+      </c>
+      <c r="O47" t="s">
+        <v>425</v>
+      </c>
+      <c r="P47" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q47">
+        <v>47</v>
+      </c>
+      <c r="R47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>516</v>
+      </c>
+      <c r="C48" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E48" s="38">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="s">
+        <v>518</v>
+      </c>
+      <c r="O48" t="s">
+        <v>425</v>
+      </c>
+      <c r="P48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q48">
+        <v>48</v>
+      </c>
+      <c r="R48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>517</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="s">
+        <v>518</v>
+      </c>
+      <c r="O49" t="s">
+        <v>425</v>
+      </c>
+      <c r="P49" t="s">
+        <v>211</v>
+      </c>
+      <c r="R49">
         <v>16</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="520">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1762,9 +1762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ember_lords_mage_tower_bolt_lvl4_0001</t>
-  </si>
-  <si>
     <t>定时炸弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2005,6 +2002,12 @@
   </si>
   <si>
     <t>skill_purple_storm</t>
+  </si>
+  <si>
+    <t>skill_mage_wild_silence</t>
+  </si>
+  <si>
+    <t>skill_mage_wild_silence_cp</t>
   </si>
 </sst>
 </file>
@@ -2725,8 +2728,8 @@
   <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V72" sqref="V72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2765,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -2971,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -3267,7 +3270,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -3299,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3317,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -3331,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3349,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
@@ -3363,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3381,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
@@ -3395,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3413,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K22" t="s">
         <v>54</v>
@@ -3427,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3445,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
         <v>55</v>
@@ -3459,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3477,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K24" t="s">
         <v>56</v>
@@ -6131,10 +6134,10 @@
         <v>11401</v>
       </c>
       <c r="B112" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D112">
         <v>27</v>
@@ -6155,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K112" t="s">
         <v>428</v>
@@ -6166,10 +6169,10 @@
         <v>11402</v>
       </c>
       <c r="B113" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D113">
         <v>27</v>
@@ -6190,7 +6193,7 @@
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K113" t="s">
         <v>428</v>
@@ -6201,10 +6204,10 @@
         <v>11403</v>
       </c>
       <c r="B114" t="s">
+        <v>449</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D114">
         <v>27</v>
@@ -6225,7 +6228,7 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K114" t="s">
         <v>428</v>
@@ -6236,10 +6239,10 @@
         <v>11404</v>
       </c>
       <c r="B115" t="s">
+        <v>449</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D115">
         <v>27</v>
@@ -6260,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K115" t="s">
         <v>428</v>
@@ -6271,10 +6274,10 @@
         <v>11405</v>
       </c>
       <c r="B116" t="s">
+        <v>449</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D116">
         <v>27</v>
@@ -6295,7 +6298,7 @@
         <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K116" t="s">
         <v>428</v>
@@ -6306,10 +6309,10 @@
         <v>11406</v>
       </c>
       <c r="B117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -6330,7 +6333,7 @@
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K117" t="s">
         <v>428</v>
@@ -6341,10 +6344,10 @@
         <v>11407</v>
       </c>
       <c r="B118" t="s">
+        <v>449</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D118">
         <v>27</v>
@@ -6365,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K118" t="s">
         <v>428</v>
@@ -6376,10 +6379,10 @@
         <v>11408</v>
       </c>
       <c r="B119" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D119">
         <v>27</v>
@@ -6400,7 +6403,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K119" t="s">
         <v>428</v>
@@ -6411,10 +6414,10 @@
         <v>11409</v>
       </c>
       <c r="B120" t="s">
+        <v>449</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D120">
         <v>27</v>
@@ -6435,7 +6438,7 @@
         <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K120" t="s">
         <v>428</v>
@@ -6446,7 +6449,7 @@
         <v>11501</v>
       </c>
       <c r="B121" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>379</v>
@@ -6461,10 +6464,10 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
+        <v>483</v>
+      </c>
+      <c r="K121" t="s">
         <v>484</v>
-      </c>
-      <c r="K121" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -6472,7 +6475,7 @@
         <v>11502</v>
       </c>
       <c r="B122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>379</v>
@@ -6490,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
+        <v>483</v>
+      </c>
+      <c r="K122" t="s">
         <v>484</v>
-      </c>
-      <c r="K122" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -6501,7 +6504,7 @@
         <v>11503</v>
       </c>
       <c r="B123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>379</v>
@@ -6519,10 +6522,10 @@
         <v>4</v>
       </c>
       <c r="J123" t="s">
+        <v>483</v>
+      </c>
+      <c r="K123" t="s">
         <v>484</v>
-      </c>
-      <c r="K123" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -6530,7 +6533,7 @@
         <v>11504</v>
       </c>
       <c r="B124" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>379</v>
@@ -6548,10 +6551,10 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
+        <v>483</v>
+      </c>
+      <c r="K124" t="s">
         <v>484</v>
-      </c>
-      <c r="K124" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
@@ -6559,7 +6562,7 @@
         <v>11505</v>
       </c>
       <c r="B125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>379</v>
@@ -6577,10 +6580,10 @@
         <v>4</v>
       </c>
       <c r="J125" t="s">
+        <v>483</v>
+      </c>
+      <c r="K125" t="s">
         <v>484</v>
-      </c>
-      <c r="K125" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
@@ -6588,7 +6591,7 @@
         <v>11506</v>
       </c>
       <c r="B126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>379</v>
@@ -6606,10 +6609,10 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
+        <v>483</v>
+      </c>
+      <c r="K126" t="s">
         <v>484</v>
-      </c>
-      <c r="K126" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -6617,7 +6620,7 @@
         <v>11507</v>
       </c>
       <c r="B127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>379</v>
@@ -6635,10 +6638,10 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
+        <v>483</v>
+      </c>
+      <c r="K127" t="s">
         <v>484</v>
-      </c>
-      <c r="K127" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -6646,7 +6649,7 @@
         <v>11508</v>
       </c>
       <c r="B128" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>379</v>
@@ -6664,10 +6667,10 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
+        <v>483</v>
+      </c>
+      <c r="K128" t="s">
         <v>484</v>
-      </c>
-      <c r="K128" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -6675,7 +6678,7 @@
         <v>11509</v>
       </c>
       <c r="B129" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>379</v>
@@ -6693,10 +6696,10 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
+        <v>483</v>
+      </c>
+      <c r="K129" t="s">
         <v>484</v>
-      </c>
-      <c r="K129" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -6704,7 +6707,7 @@
         <v>11601</v>
       </c>
       <c r="B130" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>379</v>
@@ -6722,10 +6725,10 @@
         <v>5</v>
       </c>
       <c r="J130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K130" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -6733,7 +6736,7 @@
         <v>11602</v>
       </c>
       <c r="B131" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>379</v>
@@ -6751,10 +6754,10 @@
         <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K131" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -6762,7 +6765,7 @@
         <v>11603</v>
       </c>
       <c r="B132" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>379</v>
@@ -6780,10 +6783,10 @@
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K132" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -6791,7 +6794,7 @@
         <v>11604</v>
       </c>
       <c r="B133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>379</v>
@@ -6809,10 +6812,10 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K133" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
@@ -6820,7 +6823,7 @@
         <v>11605</v>
       </c>
       <c r="B134" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>379</v>
@@ -6838,10 +6841,10 @@
         <v>7</v>
       </c>
       <c r="J134" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K134" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
@@ -6849,7 +6852,7 @@
         <v>11606</v>
       </c>
       <c r="B135" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>379</v>
@@ -6867,10 +6870,10 @@
         <v>7</v>
       </c>
       <c r="J135" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K135" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
@@ -6878,7 +6881,7 @@
         <v>11607</v>
       </c>
       <c r="B136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>379</v>
@@ -6896,10 +6899,10 @@
         <v>8</v>
       </c>
       <c r="J136" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K136" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
@@ -6907,7 +6910,7 @@
         <v>11608</v>
       </c>
       <c r="B137" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>379</v>
@@ -6925,10 +6928,10 @@
         <v>8</v>
       </c>
       <c r="J137" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K137" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
@@ -6936,7 +6939,7 @@
         <v>11609</v>
       </c>
       <c r="B138" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>379</v>
@@ -6954,10 +6957,10 @@
         <v>9</v>
       </c>
       <c r="J138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K138" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
@@ -6965,7 +6968,7 @@
         <v>11701</v>
       </c>
       <c r="B139" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>379</v>
@@ -6983,10 +6986,10 @@
         <v>5</v>
       </c>
       <c r="J139" t="s">
+        <v>512</v>
+      </c>
+      <c r="K139" t="s">
         <v>513</v>
-      </c>
-      <c r="K139" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
@@ -6994,7 +6997,7 @@
         <v>11702</v>
       </c>
       <c r="B140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>379</v>
@@ -7012,10 +7015,10 @@
         <v>5</v>
       </c>
       <c r="J140" t="s">
+        <v>512</v>
+      </c>
+      <c r="K140" t="s">
         <v>513</v>
-      </c>
-      <c r="K140" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
@@ -7023,7 +7026,7 @@
         <v>11703</v>
       </c>
       <c r="B141" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>379</v>
@@ -7041,10 +7044,10 @@
         <v>6</v>
       </c>
       <c r="J141" t="s">
+        <v>512</v>
+      </c>
+      <c r="K141" t="s">
         <v>513</v>
-      </c>
-      <c r="K141" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
@@ -7052,7 +7055,7 @@
         <v>11704</v>
       </c>
       <c r="B142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>379</v>
@@ -7070,10 +7073,10 @@
         <v>6</v>
       </c>
       <c r="J142" t="s">
+        <v>512</v>
+      </c>
+      <c r="K142" t="s">
         <v>513</v>
-      </c>
-      <c r="K142" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
@@ -7081,7 +7084,7 @@
         <v>11705</v>
       </c>
       <c r="B143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>379</v>
@@ -7099,10 +7102,10 @@
         <v>7</v>
       </c>
       <c r="J143" t="s">
+        <v>512</v>
+      </c>
+      <c r="K143" t="s">
         <v>513</v>
-      </c>
-      <c r="K143" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
@@ -7110,7 +7113,7 @@
         <v>11706</v>
       </c>
       <c r="B144" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>379</v>
@@ -7128,10 +7131,10 @@
         <v>7</v>
       </c>
       <c r="J144" t="s">
+        <v>512</v>
+      </c>
+      <c r="K144" t="s">
         <v>513</v>
-      </c>
-      <c r="K144" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
@@ -7139,7 +7142,7 @@
         <v>11707</v>
       </c>
       <c r="B145" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>379</v>
@@ -7157,10 +7160,10 @@
         <v>8</v>
       </c>
       <c r="J145" t="s">
+        <v>512</v>
+      </c>
+      <c r="K145" t="s">
         <v>513</v>
-      </c>
-      <c r="K145" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
@@ -7168,7 +7171,7 @@
         <v>11708</v>
       </c>
       <c r="B146" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>379</v>
@@ -7186,10 +7189,10 @@
         <v>8</v>
       </c>
       <c r="J146" t="s">
+        <v>512</v>
+      </c>
+      <c r="K146" t="s">
         <v>513</v>
-      </c>
-      <c r="K146" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
@@ -7197,7 +7200,7 @@
         <v>11709</v>
       </c>
       <c r="B147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>379</v>
@@ -7215,10 +7218,10 @@
         <v>9</v>
       </c>
       <c r="J147" t="s">
+        <v>512</v>
+      </c>
+      <c r="K147" t="s">
         <v>513</v>
-      </c>
-      <c r="K147" t="s">
-        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -7253,16 +7256,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E1" t="s">
         <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -7273,10 +7276,10 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
@@ -7289,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -7297,10 +7300,10 @@
         <v>20101</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -7313,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7321,10 +7324,10 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -7337,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7350,14 +7353,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -7422,10 +7425,10 @@
         <v>442</v>
       </c>
       <c r="Q1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -7451,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7495,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7521,7 +7524,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>403</v>
@@ -7539,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -7568,7 +7571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7585,7 +7588,7 @@
         <v>370</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O5" t="s">
         <v>425</v>
@@ -7605,7 +7608,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>404</v>
@@ -7614,25 +7617,25 @@
         <v>405</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K6">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="L6" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="N6" t="s">
-        <v>416</v>
+      <c r="M6" t="s">
+        <v>518</v>
       </c>
       <c r="O6" t="s">
         <v>425</v>
@@ -7705,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K8">
         <v>99</v>
@@ -7746,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K9">
         <v>99</v>
@@ -7787,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K10">
         <v>99</v>
@@ -7945,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
@@ -8494,7 +8497,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -8508,10 +8511,10 @@
         <v>370</v>
       </c>
       <c r="M28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O28" t="s">
         <v>426</v>
@@ -8531,13 +8534,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -8551,10 +8554,10 @@
         <v>370</v>
       </c>
       <c r="M29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O29" t="s">
         <v>425</v>
@@ -8574,7 +8577,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -8588,10 +8591,10 @@
         <v>370</v>
       </c>
       <c r="M30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O30" t="s">
         <v>426</v>
@@ -8608,7 +8611,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -8622,10 +8625,10 @@
         <v>370</v>
       </c>
       <c r="M31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O31" t="s">
         <v>426</v>
@@ -8645,7 +8648,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -8659,10 +8662,10 @@
         <v>370</v>
       </c>
       <c r="M32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O32" t="s">
         <v>426</v>
@@ -8682,13 +8685,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>196</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33">
@@ -8700,7 +8703,7 @@
       </c>
       <c r="L33" s="38"/>
       <c r="M33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O33" t="s">
         <v>425</v>
@@ -8720,7 +8723,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -8732,7 +8735,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P34" t="s">
         <v>445</v>
@@ -8746,7 +8749,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -8760,7 +8763,7 @@
         <v>370</v>
       </c>
       <c r="M35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O35" t="s">
         <v>425</v>
@@ -8780,7 +8783,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -8794,7 +8797,7 @@
         <v>370</v>
       </c>
       <c r="M36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O36" t="s">
         <v>425</v>
@@ -8814,7 +8817,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -8828,7 +8831,7 @@
         <v>370</v>
       </c>
       <c r="M37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O37" t="s">
         <v>425</v>
@@ -8848,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>223</v>
@@ -8866,7 +8869,7 @@
         <v>370</v>
       </c>
       <c r="M38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O38" t="s">
         <v>425</v>
@@ -8883,7 +8886,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C39" t="s">
         <v>223</v>
@@ -8908,7 +8911,7 @@
         <v>369</v>
       </c>
       <c r="M39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O39" t="s">
         <v>425</v>
@@ -8928,7 +8931,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -8946,7 +8949,7 @@
         <v>369</v>
       </c>
       <c r="M40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O40" t="s">
         <v>425</v>
@@ -8963,7 +8966,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -8981,7 +8984,7 @@
         <v>369</v>
       </c>
       <c r="M41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O41" t="s">
         <v>425</v>
@@ -8998,13 +9001,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42">
@@ -9021,7 +9024,7 @@
         <v>369</v>
       </c>
       <c r="M42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O42" t="s">
         <v>425</v>
@@ -9038,13 +9041,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43">
@@ -9061,7 +9064,7 @@
         <v>369</v>
       </c>
       <c r="M43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O43" t="s">
         <v>425</v>
@@ -9078,13 +9081,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44">
@@ -9101,7 +9104,7 @@
         <v>369</v>
       </c>
       <c r="M44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O44" t="s">
         <v>425</v>
@@ -9118,13 +9121,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45">
@@ -9141,7 +9144,7 @@
         <v>369</v>
       </c>
       <c r="M45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O45" t="s">
         <v>425</v>
@@ -9158,13 +9161,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>223</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46">
@@ -9181,7 +9184,7 @@
         <v>369</v>
       </c>
       <c r="M46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O46" t="s">
         <v>425</v>
@@ -9198,7 +9201,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -9214,7 +9217,7 @@
         <v>369</v>
       </c>
       <c r="M47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O47" t="s">
         <v>425</v>
@@ -9234,7 +9237,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C48" t="s">
         <v>401</v>
@@ -9259,7 +9262,7 @@
         <v>369</v>
       </c>
       <c r="M48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O48" t="s">
         <v>425</v>
@@ -9279,7 +9282,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -9293,7 +9296,7 @@
         <v>370</v>
       </c>
       <c r="M49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O49" t="s">
         <v>425</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="529">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2008,6 +2008,34 @@
   </si>
   <si>
     <t>skill_mage_wild_silence_cp</t>
+  </si>
+  <si>
+    <t>2,40,70,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ultimate_twister_start</t>
+  </si>
+  <si>
+    <t>skill_ultimate_twister_run_cp</t>
+  </si>
+  <si>
+    <t>skill_ultimate_twister_end_cp</t>
+  </si>
+  <si>
+    <t>skill_archmage_twister_start</t>
+  </si>
+  <si>
+    <t>skill_archmage_twister_run</t>
+  </si>
+  <si>
+    <t>skill_archmage_twister_end</t>
+  </si>
+  <si>
+    <t>skill_archmage_twister</t>
+  </si>
+  <si>
+    <t>skill_ultimate_twister</t>
   </si>
 </sst>
 </file>
@@ -2727,9 +2755,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V72" sqref="V72"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7061,7 +7089,7 @@
         <v>379</v>
       </c>
       <c r="D142">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E142">
         <v>3000</v>
@@ -7090,7 +7118,7 @@
         <v>379</v>
       </c>
       <c r="D143">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E143">
         <v>3000</v>
@@ -7119,7 +7147,7 @@
         <v>379</v>
       </c>
       <c r="D144">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E144">
         <v>3000</v>
@@ -7148,7 +7176,7 @@
         <v>379</v>
       </c>
       <c r="D145">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E145">
         <v>3000</v>
@@ -7177,7 +7205,7 @@
         <v>379</v>
       </c>
       <c r="D146">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E146">
         <v>3000</v>
@@ -7206,7 +7234,7 @@
         <v>379</v>
       </c>
       <c r="D147">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E147">
         <v>3000</v>
@@ -7351,10 +7379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9243,7 +9271,7 @@
         <v>401</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="E48" s="38">
         <v>15</v>
@@ -9305,6 +9333,230 @@
         <v>211</v>
       </c>
       <c r="R49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38"/>
+      <c r="L50" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="s">
+        <v>528</v>
+      </c>
+      <c r="O50" t="s">
+        <v>425</v>
+      </c>
+      <c r="P50" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E51" s="38">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="38"/>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" t="s">
+        <v>528</v>
+      </c>
+      <c r="O51" t="s">
+        <v>425</v>
+      </c>
+      <c r="P51" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q51">
+        <v>51</v>
+      </c>
+      <c r="R51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="H52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="s">
+        <v>528</v>
+      </c>
+      <c r="O52" t="s">
+        <v>425</v>
+      </c>
+      <c r="P52" t="s">
+        <v>211</v>
+      </c>
+      <c r="R52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="38"/>
+      <c r="L53" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="s">
+        <v>527</v>
+      </c>
+      <c r="O53" t="s">
+        <v>425</v>
+      </c>
+      <c r="P53" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q53">
+        <v>53</v>
+      </c>
+      <c r="R53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>525</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E54" s="38">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="s">
+        <v>527</v>
+      </c>
+      <c r="O54" t="s">
+        <v>425</v>
+      </c>
+      <c r="P54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q54">
+        <v>54</v>
+      </c>
+      <c r="R54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="M55" t="s">
+        <v>527</v>
+      </c>
+      <c r="O55" t="s">
+        <v>425</v>
+      </c>
+      <c r="P55" t="s">
+        <v>211</v>
+      </c>
+      <c r="R55">
         <v>16</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="530">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,6 +2036,10 @@
   </si>
   <si>
     <t>skill_ultimate_twister</t>
+  </si>
+  <si>
+    <t>2,2,30,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2755,9 +2759,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7381,8 +7385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8008,7 +8012,7 @@
         <v>401</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>413</v>
+        <v>529</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="531">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,9 +47,6 @@
   <si>
     <t>碰撞区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,40,40</t>
   </si>
   <si>
     <t>速度</t>
@@ -1580,10 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1846,10 +1839,6 @@
     <t>50-70</t>
   </si>
   <si>
-    <t>50-70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2039,6 +2028,19 @@
   </si>
   <si>
     <t>2,2,30,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_murglun_ultimate_proy</t>
+  </si>
+  <si>
+    <t>svell_druid_proyectile_0001</t>
+  </si>
+  <si>
+    <t>apex_shard_proyectile</t>
+  </si>
+  <si>
+    <t>2,2,60,60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2757,11 +2759,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2779,34 +2781,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -2814,10 +2816,10 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -2832,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -2843,10 +2845,10 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -2861,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -2872,10 +2874,10 @@
         <v>10103</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -2890,10 +2892,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -2901,10 +2903,10 @@
         <v>10104</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -2919,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -2930,10 +2932,10 @@
         <v>10105</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>38</v>
@@ -2948,10 +2950,10 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -2959,10 +2961,10 @@
         <v>10106</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>38</v>
@@ -2977,10 +2979,10 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -2988,10 +2990,10 @@
         <v>10107</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>38</v>
@@ -3006,10 +3008,10 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -3017,10 +3019,10 @@
         <v>10108</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>38</v>
@@ -3035,10 +3037,10 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -3046,10 +3048,10 @@
         <v>10109</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>38</v>
@@ -3064,10 +3066,10 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -3075,10 +3077,10 @@
         <v>10201</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3093,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -3107,10 +3109,10 @@
         <v>10202</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -3128,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -3139,10 +3141,10 @@
         <v>10203</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3160,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -3171,13 +3173,13 @@
         <v>10204</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2000</v>
@@ -3192,10 +3194,10 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -3203,13 +3205,13 @@
         <v>10205</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2000</v>
@@ -3224,10 +3226,10 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -3235,13 +3237,13 @@
         <v>10206</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>2000</v>
@@ -3256,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -3267,13 +3269,13 @@
         <v>10207</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>2000</v>
@@ -3288,85 +3290,85 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>10301</v>
+        <v>10208</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>473</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>10302</v>
+        <v>10209</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>473</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3381,24 +3383,24 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3413,24 +3415,24 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3445,24 +3447,24 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>10306</v>
+        <v>10304</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3477,24 +3479,24 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>10307</v>
+        <v>10305</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3512,79 +3514,85 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>10401</v>
+        <v>10306</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>6000</v>
+        <v>3000</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
       </c>
       <c r="G25">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>463</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>10402</v>
+        <v>10307</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>6000</v>
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
       </c>
       <c r="G26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>463</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>10403</v>
+        <v>10401</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3596,24 +3604,24 @@
         <v>200</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>10404</v>
+        <v>10402</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3625,24 +3633,24 @@
         <v>200</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>10405</v>
+        <v>10403</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3654,24 +3662,24 @@
         <v>200</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>10406</v>
+        <v>10404</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3683,24 +3691,24 @@
         <v>200</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>10407</v>
+        <v>10405</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3712,88 +3720,88 @@
         <v>200</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>10501</v>
+        <v>10406</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>6000</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>1500</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>10502</v>
+        <v>10407</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>10503</v>
+        <v>10501</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3802,21 +3810,21 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>10504</v>
+        <v>10502</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -3831,21 +3839,21 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>10505</v>
+        <v>10503</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -3860,21 +3868,21 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>10506</v>
+        <v>10504</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -3889,21 +3897,21 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>10507</v>
+        <v>10505</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3918,21 +3926,21 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>10508</v>
+        <v>10506</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -3947,21 +3955,21 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>10509</v>
+        <v>10507</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -3976,108 +3984,108 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>10601</v>
+        <v>10508</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>6</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
       </c>
       <c r="E41">
         <v>3000</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>10602</v>
+        <v>10509</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
         <v>6</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
       </c>
       <c r="E42">
         <v>3000</v>
       </c>
       <c r="G42">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>10603</v>
+        <v>10601</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>3000</v>
       </c>
       <c r="G43">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>10604</v>
+        <v>10602</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -4089,24 +4097,24 @@
         <v>250</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>10605</v>
+        <v>10603</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -4121,21 +4129,21 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>10606</v>
+        <v>10604</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -4150,21 +4158,21 @@
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>10607</v>
+        <v>10605</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -4179,21 +4187,21 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>10608</v>
+        <v>10606</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -4208,108 +4216,108 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>10609</v>
+        <v>10607</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>3000</v>
       </c>
       <c r="G49">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>10701</v>
+        <v>10608</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G50">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>10702</v>
+        <v>10609</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G51">
         <v>350</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>10703</v>
+        <v>10701</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4321,24 +4329,24 @@
         <v>350</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>10704</v>
+        <v>10702</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -4350,24 +4358,24 @@
         <v>350</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>10705</v>
+        <v>10703</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54">
         <v>10</v>
@@ -4382,21 +4390,21 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>10706</v>
+        <v>10704</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -4411,21 +4419,21 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>10707</v>
+        <v>10705</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -4440,21 +4448,21 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>10708</v>
+        <v>10706</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -4469,21 +4477,21 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>10709</v>
+        <v>10707</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -4498,85 +4506,79 @@
         <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>10801</v>
+        <v>10708</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>4000</v>
-      </c>
-      <c r="F59">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>10802</v>
+        <v>10709</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>4000</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>10803</v>
+        <v>10801</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -4591,24 +4593,24 @@
         <v>150</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>10804</v>
+        <v>10802</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4623,24 +4625,24 @@
         <v>150</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>10805</v>
+        <v>10803</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <v>11</v>
@@ -4652,27 +4654,27 @@
         <v>100</v>
       </c>
       <c r="G63">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>10806</v>
+        <v>10804</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>11</v>
@@ -4684,27 +4686,27 @@
         <v>100</v>
       </c>
       <c r="G64">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>10807</v>
+        <v>10805</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65">
         <v>11</v>
@@ -4722,21 +4724,21 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>10808</v>
+        <v>10806</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -4754,21 +4756,21 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>10809</v>
+        <v>10807</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67">
         <v>11</v>
@@ -4786,85 +4788,91 @@
         <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>10901</v>
+        <v>10808</v>
       </c>
       <c r="B68" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>1500</v>
+        <v>4000</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>349</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>10902</v>
+        <v>10809</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>1400</v>
+        <v>4000</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
       </c>
       <c r="G69">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>350</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>10903</v>
+        <v>10901</v>
       </c>
       <c r="B70" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D70">
         <v>13</v>
       </c>
       <c r="E70">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G70">
         <v>300</v>
@@ -4873,21 +4881,21 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
+        <v>347</v>
+      </c>
+      <c r="K70" t="s">
         <v>348</v>
-      </c>
-      <c r="K70" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>10904</v>
+        <v>10902</v>
       </c>
       <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D71">
         <v>13</v>
@@ -4899,59 +4907,59 @@
         <v>300</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K71" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>10905</v>
+        <v>10903</v>
       </c>
       <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D72">
         <v>13</v>
       </c>
       <c r="E72">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G72">
         <v>300</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K72" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>10906</v>
+        <v>10904</v>
       </c>
       <c r="B73" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D73">
         <v>13</v>
       </c>
       <c r="E73">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G73">
         <v>300</v>
@@ -4960,27 +4968,27 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K73" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>10907</v>
+        <v>10905</v>
       </c>
       <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D74">
         <v>13</v>
       </c>
       <c r="E74">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G74">
         <v>300</v>
@@ -4989,27 +4997,27 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>10908</v>
+        <v>10906</v>
       </c>
       <c r="B75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D75">
         <v>13</v>
       </c>
       <c r="E75">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G75">
         <v>300</v>
@@ -5018,94 +5026,94 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K75" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>11001</v>
+        <v>10907</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="K76" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>11002</v>
+        <v>10908</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="K77" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K78" t="s">
         <v>375</v>
@@ -5113,48 +5121,48 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5163,30 +5171,27 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>11006</v>
+        <v>11004</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>800</v>
-      </c>
-      <c r="F81">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5195,175 +5200,166 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>11007</v>
+        <v>11005</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>700</v>
-      </c>
-      <c r="F82">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>700</v>
-      </c>
-      <c r="F83">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>600</v>
-      </c>
-      <c r="F84">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>11101</v>
+        <v>11008</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>11102</v>
+        <v>11009</v>
       </c>
       <c r="B86" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J86" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K86" t="s">
-        <v>50</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>11103</v>
+        <v>11101</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -5375,24 +5371,24 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>11104</v>
+        <v>11102</v>
       </c>
       <c r="B88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -5404,24 +5400,24 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>11105</v>
+        <v>11103</v>
       </c>
       <c r="B89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -5433,24 +5429,24 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>11106</v>
+        <v>11104</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -5462,24 +5458,24 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>11107</v>
+        <v>11105</v>
       </c>
       <c r="B91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -5491,24 +5487,24 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>11108</v>
+        <v>11106</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D92">
         <v>20</v>
@@ -5520,24 +5516,24 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>11109</v>
+        <v>11107</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D93">
         <v>20</v>
@@ -5549,88 +5545,82 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>11201</v>
+        <v>11108</v>
       </c>
       <c r="B94" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>2000</v>
       </c>
-      <c r="F94">
-        <v>100</v>
-      </c>
       <c r="G94">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J94" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="K94" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>11202</v>
+        <v>11109</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="D95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>2000</v>
       </c>
-      <c r="F95">
-        <v>100</v>
-      </c>
       <c r="G95">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="K95" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>11203</v>
+        <v>11201</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -5642,27 +5632,27 @@
         <v>100</v>
       </c>
       <c r="G96">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K96" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>11204</v>
+        <v>11202</v>
       </c>
       <c r="B97" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>21</v>
@@ -5674,27 +5664,27 @@
         <v>100</v>
       </c>
       <c r="G97">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>11205</v>
+        <v>11203</v>
       </c>
       <c r="B98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D98">
         <v>21</v>
@@ -5706,27 +5696,27 @@
         <v>100</v>
       </c>
       <c r="G98">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>11206</v>
+        <v>11204</v>
       </c>
       <c r="B99" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99">
         <v>21</v>
@@ -5738,27 +5728,27 @@
         <v>100</v>
       </c>
       <c r="G99">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>11207</v>
+        <v>11205</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100">
         <v>21</v>
@@ -5770,27 +5760,27 @@
         <v>100</v>
       </c>
       <c r="G100">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K100" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>11208</v>
+        <v>11206</v>
       </c>
       <c r="B101" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101">
         <v>21</v>
@@ -5802,27 +5792,27 @@
         <v>100</v>
       </c>
       <c r="G101">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K101" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>11209</v>
+        <v>11207</v>
       </c>
       <c r="B102" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102">
         <v>21</v>
@@ -5834,97 +5824,91 @@
         <v>100</v>
       </c>
       <c r="G102">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K102" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>11301</v>
+        <v>11208</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F103">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G103">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K103" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>11302</v>
+        <v>11209</v>
       </c>
       <c r="B104" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E104">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F104">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G104">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J104" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K104" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>11303</v>
+        <v>11301</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -5936,30 +5920,30 @@
         <v>2000</v>
       </c>
       <c r="G105">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K105" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>11304</v>
+        <v>11302</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>24</v>
@@ -5971,30 +5955,30 @@
         <v>2000</v>
       </c>
       <c r="G106">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K106" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>11305</v>
+        <v>11303</v>
       </c>
       <c r="B107" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107">
         <v>24</v>
@@ -6006,30 +5990,30 @@
         <v>2000</v>
       </c>
       <c r="G107">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>2</v>
       </c>
-      <c r="I107">
-        <v>3</v>
-      </c>
       <c r="J107" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K107" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>11306</v>
+        <v>11304</v>
       </c>
       <c r="B108" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D108">
         <v>24</v>
@@ -6041,205 +6025,205 @@
         <v>2000</v>
       </c>
       <c r="G108">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K108" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>11307</v>
+        <v>11305</v>
       </c>
       <c r="B109" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109">
         <v>24</v>
       </c>
       <c r="E109">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F109">
         <v>2000</v>
       </c>
       <c r="G109">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H109">
         <v>2</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K109" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>11308</v>
+        <v>11306</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110">
         <v>24</v>
       </c>
       <c r="E110">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F110">
         <v>2000</v>
       </c>
       <c r="G110">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>4</v>
-      </c>
       <c r="J110" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K110" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>11309</v>
+        <v>11307</v>
       </c>
       <c r="B111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111">
         <v>24</v>
       </c>
       <c r="E111">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F111">
         <v>2000</v>
       </c>
       <c r="G111">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>11401</v>
+        <v>11308</v>
       </c>
       <c r="B112" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
       <c r="D112">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E112">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F112">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G112">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="K112" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>11402</v>
+        <v>11309</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
       <c r="D113">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E113">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F113">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G113">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="K113" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>11403</v>
+        <v>11401</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D114">
         <v>27</v>
@@ -6260,21 +6244,21 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K114" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>11404</v>
+        <v>11402</v>
       </c>
       <c r="B115" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D115">
         <v>27</v>
@@ -6295,21 +6279,21 @@
         <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K115" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>11405</v>
+        <v>11403</v>
       </c>
       <c r="B116" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D116">
         <v>27</v>
@@ -6330,21 +6314,21 @@
         <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K116" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>11406</v>
+        <v>11404</v>
       </c>
       <c r="B117" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -6365,21 +6349,21 @@
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K117" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>11407</v>
+        <v>11405</v>
       </c>
       <c r="B118" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D118">
         <v>27</v>
@@ -6400,21 +6384,21 @@
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K118" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>11408</v>
+        <v>11406</v>
       </c>
       <c r="B119" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D119">
         <v>27</v>
@@ -6435,21 +6419,21 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K119" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>11409</v>
+        <v>11407</v>
       </c>
       <c r="B120" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D120">
         <v>27</v>
@@ -6470,140 +6454,152 @@
         <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K120" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>11501</v>
+        <v>11408</v>
       </c>
       <c r="B121" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="D121">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E121">
         <v>10000</v>
       </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>270</v>
+      </c>
       <c r="H121">
         <v>1</v>
       </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
       <c r="J121" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="K121" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>11502</v>
+        <v>11409</v>
       </c>
       <c r="B122" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="D122">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="F122">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>270</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
       </c>
       <c r="J122" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="K122" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>11503</v>
+        <v>11501</v>
       </c>
       <c r="B123" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D123">
         <v>34</v>
       </c>
       <c r="E123">
-        <v>8000</v>
-      </c>
-      <c r="F123">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K123" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>11504</v>
+        <v>11502</v>
       </c>
       <c r="B124" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>34</v>
       </c>
       <c r="E124">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F124">
         <v>2000</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K124" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>11505</v>
+        <v>11503</v>
       </c>
       <c r="B125" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D125">
         <v>34</v>
       </c>
       <c r="E125">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F125">
         <v>2000</v>
@@ -6612,27 +6608,27 @@
         <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K125" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>11506</v>
+        <v>11504</v>
       </c>
       <c r="B126" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D126">
         <v>34</v>
       </c>
       <c r="E126">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F126">
         <v>2000</v>
@@ -6641,27 +6637,27 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K126" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>11507</v>
+        <v>11505</v>
       </c>
       <c r="B127" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D127">
         <v>34</v>
       </c>
       <c r="E127">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F127">
         <v>2000</v>
@@ -6670,27 +6666,27 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K127" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>11508</v>
+        <v>11506</v>
       </c>
       <c r="B128" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D128">
         <v>34</v>
       </c>
       <c r="E128">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F128">
         <v>2000</v>
@@ -6699,27 +6695,27 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K128" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>11509</v>
+        <v>11507</v>
       </c>
       <c r="B129" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D129">
         <v>34</v>
       </c>
       <c r="E129">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F129">
         <v>2000</v>
@@ -6728,82 +6724,82 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K129" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>11601</v>
+        <v>11508</v>
       </c>
       <c r="B130" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E130">
+        <v>3000</v>
+      </c>
+      <c r="F130">
         <v>2000</v>
       </c>
-      <c r="F130">
-        <v>100</v>
-      </c>
       <c r="H130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="K130" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>11602</v>
+        <v>11509</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D131">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E131">
         <v>2000</v>
       </c>
       <c r="F131">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K131" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>11603</v>
+        <v>11601</v>
       </c>
       <c r="B132" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E132">
         <v>2000</v>
@@ -6812,27 +6808,27 @@
         <v>100</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K132" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>11604</v>
+        <v>11602</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E133">
         <v>2000</v>
@@ -6841,27 +6837,27 @@
         <v>100</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K133" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>11605</v>
+        <v>11603</v>
       </c>
       <c r="B134" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D134">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E134">
         <v>2000</v>
@@ -6870,27 +6866,27 @@
         <v>100</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K134" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>11606</v>
+        <v>11604</v>
       </c>
       <c r="B135" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D135">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E135">
         <v>2000</v>
@@ -6899,27 +6895,27 @@
         <v>100</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K135" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>11607</v>
+        <v>11605</v>
       </c>
       <c r="B136" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D136">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E136">
         <v>2000</v>
@@ -6928,27 +6924,27 @@
         <v>100</v>
       </c>
       <c r="H136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J136" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K136" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>11608</v>
+        <v>11606</v>
       </c>
       <c r="B137" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D137">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E137">
         <v>2000</v>
@@ -6957,27 +6953,27 @@
         <v>100</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J137" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K137" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>11609</v>
+        <v>11607</v>
       </c>
       <c r="B138" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D138">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E138">
         <v>2000</v>
@@ -6986,82 +6982,82 @@
         <v>100</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K138" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>11701</v>
+        <v>11608</v>
       </c>
       <c r="B139" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D139">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E139">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F139">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J139" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="K139" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>11702</v>
+        <v>11609</v>
       </c>
       <c r="B140" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D140">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E140">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F140">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J140" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="K140" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>11703</v>
+        <v>11701</v>
       </c>
       <c r="B141" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>46</v>
@@ -7073,27 +7069,27 @@
         <v>200</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K141" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>11704</v>
+        <v>11702</v>
       </c>
       <c r="B142" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E142">
         <v>3000</v>
@@ -7102,27 +7098,27 @@
         <v>200</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K142" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>11705</v>
+        <v>11703</v>
       </c>
       <c r="B143" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D143">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E143">
         <v>3000</v>
@@ -7131,24 +7127,24 @@
         <v>200</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K143" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>11706</v>
+        <v>11704</v>
       </c>
       <c r="B144" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D144">
         <v>49</v>
@@ -7160,27 +7156,27 @@
         <v>200</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K144" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>11707</v>
+        <v>11705</v>
       </c>
       <c r="B145" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D145">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E145">
         <v>3000</v>
@@ -7189,27 +7185,27 @@
         <v>200</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J145" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K145" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>11708</v>
+        <v>11706</v>
       </c>
       <c r="B146" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D146">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E146">
         <v>3000</v>
@@ -7218,24 +7214,24 @@
         <v>200</v>
       </c>
       <c r="H146">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J146" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K146" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>11709</v>
+        <v>11707</v>
       </c>
       <c r="B147" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D147">
         <v>52</v>
@@ -7247,13 +7243,71 @@
         <v>200</v>
       </c>
       <c r="H147">
+        <v>7</v>
+      </c>
+      <c r="J147" t="s">
+        <v>509</v>
+      </c>
+      <c r="K147" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>11708</v>
+      </c>
+      <c r="B148" t="s">
+        <v>508</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D148">
+        <v>52</v>
+      </c>
+      <c r="E148">
+        <v>3000</v>
+      </c>
+      <c r="F148">
+        <v>200</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="J148" t="s">
+        <v>509</v>
+      </c>
+      <c r="K148" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>11709</v>
+      </c>
+      <c r="B149" t="s">
+        <v>508</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149">
+        <v>3000</v>
+      </c>
+      <c r="F149">
+        <v>200</v>
+      </c>
+      <c r="H149">
         <v>9</v>
       </c>
-      <c r="J147" t="s">
-        <v>512</v>
-      </c>
-      <c r="K147" t="s">
-        <v>513</v>
+      <c r="J149" t="s">
+        <v>509</v>
+      </c>
+      <c r="K149" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7282,25 +7336,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" t="s">
         <v>475</v>
       </c>
-      <c r="G1" t="s">
-        <v>478</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7308,10 +7362,10 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
@@ -7324,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -7332,10 +7386,10 @@
         <v>20101</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -7348,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7356,10 +7410,10 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -7372,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7383,10 +7437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7409,58 +7463,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" t="s">
         <v>390</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>391</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" t="s">
         <v>395</v>
       </c>
-      <c r="H1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>396</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>397</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" t="s">
-        <v>399</v>
-      </c>
       <c r="M1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -7468,13 +7522,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>402</v>
       </c>
       <c r="E2" s="38">
         <v>5</v>
@@ -7486,22 +7540,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -7512,13 +7566,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E3" s="38">
         <v>5</v>
@@ -7530,22 +7584,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -7556,13 +7610,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -7574,22 +7628,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q4">
         <v>40</v>
@@ -7603,7 +7657,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7617,16 +7671,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q5">
         <v>32</v>
@@ -7640,13 +7694,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -7658,22 +7712,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -7684,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -7705,16 +7759,16 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -7725,13 +7779,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -7740,22 +7794,22 @@
         <v>1</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -7766,13 +7820,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -7781,22 +7835,22 @@
         <v>1</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -7807,13 +7861,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -7822,22 +7876,22 @@
         <v>1</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -7848,13 +7902,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -7866,16 +7920,16 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -7886,7 +7940,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -7895,22 +7949,22 @@
         <v>0</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -7921,13 +7975,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -7945,16 +7999,16 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R13">
         <v>9</v>
@@ -7965,13 +8019,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -7980,22 +8034,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -8006,13 +8060,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -8027,16 +8081,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R15">
         <v>11</v>
@@ -8047,13 +8101,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -8068,16 +8122,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -8088,13 +8142,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -8109,16 +8163,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -8129,13 +8183,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -8150,16 +8204,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R18">
         <v>11</v>
@@ -8170,13 +8224,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -8191,16 +8245,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q19">
         <v>19</v>
@@ -8214,10 +8268,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -8227,19 +8281,19 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -8250,13 +8304,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -8268,19 +8322,19 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R21">
         <v>13</v>
@@ -8291,7 +8345,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -8301,16 +8355,16 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -8324,13 +8378,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -8348,19 +8402,19 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M23" t="s">
+        <v>417</v>
+      </c>
+      <c r="N23" t="s">
         <v>419</v>
       </c>
-      <c r="N23" t="s">
-        <v>421</v>
-      </c>
       <c r="O23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q23">
         <v>23</v>
@@ -8374,7 +8428,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -8385,19 +8439,19 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M24" t="s">
+        <v>417</v>
+      </c>
+      <c r="N24" t="s">
         <v>419</v>
       </c>
-      <c r="N24" t="s">
-        <v>421</v>
-      </c>
       <c r="O24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -8408,7 +8462,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -8419,19 +8473,19 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q25">
         <v>25</v>
@@ -8445,13 +8499,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -8469,19 +8523,19 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q26">
         <v>26</v>
@@ -8495,7 +8549,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -8506,19 +8560,19 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -8529,7 +8583,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -8540,19 +8594,19 @@
       <c r="H28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q28">
         <v>30</v>
@@ -8566,13 +8620,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -8583,19 +8637,19 @@
       <c r="H29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q29">
         <v>29</v>
@@ -8609,7 +8663,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -8620,19 +8674,19 @@
       <c r="H30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R30">
         <v>16</v>
@@ -8643,7 +8697,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -8654,19 +8708,19 @@
       <c r="H31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q31">
         <v>31</v>
@@ -8680,7 +8734,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -8691,19 +8745,19 @@
       <c r="H32" s="38"/>
       <c r="K32" s="38"/>
       <c r="L32" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q32">
         <v>28</v>
@@ -8717,13 +8771,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33">
@@ -8735,13 +8789,13 @@
       </c>
       <c r="L33" s="38"/>
       <c r="M33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>33</v>
@@ -8755,7 +8809,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -8767,10 +8821,10 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R34">
         <v>16</v>
@@ -8781,7 +8835,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -8792,16 +8846,16 @@
       <c r="H35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>35</v>
@@ -8815,7 +8869,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -8826,16 +8880,16 @@
       <c r="H36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M36" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>36</v>
@@ -8849,7 +8903,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -8860,16 +8914,16 @@
       <c r="H37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>37</v>
@@ -8883,13 +8937,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38">
@@ -8898,16 +8952,16 @@
       <c r="H38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R38">
         <v>16</v>
@@ -8918,13 +8972,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E39" s="38">
         <v>50</v>
@@ -8940,16 +8994,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>39</v>
@@ -8963,7 +9017,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -8978,16 +9032,16 @@
         <v>1</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O40" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R40">
         <v>16</v>
@@ -8998,7 +9052,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -9013,16 +9067,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O41" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R41">
         <v>16</v>
@@ -9033,13 +9087,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>502</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>505</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>508</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42">
@@ -9053,16 +9107,16 @@
         <v>99</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -9073,13 +9127,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="38" t="s">
         <v>506</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>509</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43">
@@ -9093,16 +9147,16 @@
         <v>99</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -9113,13 +9167,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44">
@@ -9133,16 +9187,16 @@
         <v>99</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -9153,13 +9207,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45">
@@ -9173,16 +9227,16 @@
         <v>99</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -9193,13 +9247,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46">
@@ -9213,16 +9267,16 @@
         <v>99</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -9233,7 +9287,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -9246,16 +9300,16 @@
       </c>
       <c r="I47" s="38"/>
       <c r="L47" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>47</v>
@@ -9269,13 +9323,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E48" s="38">
         <v>15</v>
@@ -9291,16 +9345,16 @@
         <v>2</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q48">
         <v>48</v>
@@ -9314,7 +9368,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -9325,16 +9379,16 @@
       <c r="H49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R49">
         <v>16</v>
@@ -9345,7 +9399,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -9358,16 +9412,16 @@
       </c>
       <c r="I50" s="38"/>
       <c r="L50" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>50</v>
@@ -9381,13 +9435,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E51" s="38">
         <v>15</v>
@@ -9403,16 +9457,16 @@
         <v>2</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>51</v>
@@ -9426,7 +9480,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -9437,16 +9491,16 @@
       <c r="H52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R52">
         <v>16</v>
@@ -9457,7 +9511,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
@@ -9470,16 +9524,16 @@
       </c>
       <c r="I53" s="38"/>
       <c r="L53" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O53" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>53</v>
@@ -9493,13 +9547,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E54" s="38">
         <v>15</v>
@@ -9515,16 +9569,16 @@
         <v>2</v>
       </c>
       <c r="L54" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M54" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O54" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>54</v>
@@ -9538,7 +9592,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -9549,19 +9603,113 @@
       <c r="H55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R55">
         <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56">
+        <v>70</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="N56" t="s">
+        <v>414</v>
+      </c>
+      <c r="O56" t="s">
+        <v>423</v>
+      </c>
+      <c r="P56" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q56">
+        <v>40</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E57">
+        <v>70</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>423</v>
+      </c>
+      <c r="P57" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q57">
+        <v>40</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9593,25 +9741,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" t="s">
         <v>345</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>346</v>
       </c>
-      <c r="F1" t="s">
-        <v>347</v>
-      </c>
       <c r="G1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -9620,34 +9768,34 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R1" t="s">
+        <v>362</v>
+      </c>
+      <c r="S1" t="s">
         <v>363</v>
       </c>
-      <c r="S1" t="s">
-        <v>364</v>
-      </c>
       <c r="T1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -9668,16 +9816,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" t="s">
         <v>359</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>360</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>361</v>
-      </c>
-      <c r="M8" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9711,71 +9859,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>255</v>
       </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" t="s">
         <v>256</v>
       </c>
-      <c r="F1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>258</v>
-      </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
         <v>255</v>
       </c>
-      <c r="N1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" t="s">
-        <v>258</v>
-      </c>
       <c r="U1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -9787,42 +9935,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>186</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>187</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>188</v>
       </c>
-      <c r="U2" t="s">
-        <v>189</v>
-      </c>
       <c r="X2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -9834,42 +9982,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" t="s">
         <v>186</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>187</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -9881,42 +10029,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="X4" t="s">
         <v>140</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="X4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -9928,42 +10076,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>212</v>
-      </c>
       <c r="X5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -9975,42 +10123,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>216</v>
-      </c>
       <c r="X6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -10023,42 +10171,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>204</v>
-      </c>
       <c r="U7" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -10071,42 +10219,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -10119,42 +10267,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -10167,42 +10315,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O10" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -10215,42 +10363,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" t="s">
         <v>185</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>186</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>187</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>188</v>
       </c>
-      <c r="U11" t="s">
-        <v>189</v>
-      </c>
       <c r="X11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -10259,40 +10407,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" t="s">
         <v>186</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>187</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
       <c r="X12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -10308,37 +10456,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R13" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="T13" s="32" t="s">
+      <c r="U13" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="X13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10354,161 +10502,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>212</v>
-      </c>
       <c r="X14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="S15" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="T15" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>216</v>
-      </c>
       <c r="X15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>204</v>
-      </c>
       <c r="U16" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -10519,114 +10667,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O19" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -10651,232 +10799,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>154</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>155</v>
-      </c>
-      <c r="I10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
         <v>158</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>159</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>160</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>161</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>162</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>163</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>164</v>
-      </c>
-      <c r="I13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>168</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>169</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>170</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>171</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>172</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>173</v>
-      </c>
-      <c r="I14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10908,66 +11056,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
         <v>246</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>249</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>250</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>251</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>252</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>253</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
         <v>254</v>
       </c>
-      <c r="K1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
         <v>255</v>
       </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>294</v>
+      </c>
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="R1" t="s">
-        <v>295</v>
-      </c>
-      <c r="S1" t="s">
-        <v>258</v>
-      </c>
       <c r="T1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10977,7 +11125,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -10990,7 +11138,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -11000,7 +11148,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -11013,7 +11161,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -11023,7 +11171,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -11036,7 +11184,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -11046,7 +11194,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -11059,7 +11207,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -11069,7 +11217,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -11082,7 +11230,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -11092,7 +11240,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -11106,7 +11254,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -11116,7 +11264,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -11130,7 +11278,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -11140,7 +11288,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -11154,7 +11302,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -11164,7 +11312,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -11178,7 +11326,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -11188,7 +11336,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -11202,7 +11350,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -11212,7 +11360,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -11222,7 +11370,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -11234,7 +11382,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -11246,7 +11394,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -11256,12 +11404,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -11273,7 +11421,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -11283,15 +11431,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -11301,15 +11449,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -11319,12 +11467,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -11336,7 +11484,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -11346,12 +11494,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -11363,7 +11511,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -11375,7 +11523,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -11387,7 +11535,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -11397,12 +11545,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -11414,7 +11562,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -11426,7 +11574,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -11438,7 +11586,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -11450,7 +11598,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -11462,7 +11610,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -11474,7 +11622,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -11486,7 +11634,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -11498,7 +11646,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -11522,15 +11670,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="I37" t="s">
         <v>292</v>
-      </c>
-      <c r="I37" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -11605,7 +11753,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -11658,7 +11806,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11679,14 +11827,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11702,7 +11850,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -11712,7 +11860,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
@@ -11737,7 +11885,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -11759,7 +11907,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -11795,7 +11943,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -11822,7 +11970,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -11877,7 +12025,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -11903,14 +12051,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -11924,7 +12072,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -11953,7 +12101,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -11991,13 +12139,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -12051,7 +12199,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -12082,7 +12230,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -12142,7 +12290,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -12161,7 +12309,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -12198,7 +12346,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -12217,7 +12365,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -12241,7 +12389,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -12249,7 +12397,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -12330,15 +12478,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -12394,7 +12542,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -12466,7 +12614,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -12496,11 +12644,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -12547,7 +12695,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -12604,7 +12752,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -12645,10 +12793,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -12675,28 +12823,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -12704,7 +12852,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -12732,7 +12880,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="532">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,9 +334,6 @@
   <si>
     <t>2-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qifu_qiu_zb</t>
   </si>
   <si>
     <t>持续时间</t>
@@ -2042,6 +2039,12 @@
   <si>
     <t>2,2,60,60</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalboss_shield</t>
+  </si>
+  <si>
+    <t>finalboss_shield_cp</t>
   </si>
 </sst>
 </file>
@@ -2762,8 +2765,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2787,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -2802,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
@@ -3008,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K8" t="s">
         <v>29</v>
@@ -3386,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K20" t="s">
         <v>49</v>
@@ -3418,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
@@ -3432,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3450,7 +3453,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K22" t="s">
         <v>51</v>
@@ -3464,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3482,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K23" t="s">
         <v>52</v>
@@ -3496,7 +3499,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3514,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K24" t="s">
         <v>53</v>
@@ -3528,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -3546,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K25" t="s">
         <v>54</v>
@@ -3560,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3578,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K26" t="s">
         <v>55</v>
@@ -3792,7 +3795,7 @@
         <v>10501</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -3821,7 +3824,7 @@
         <v>10502</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -3850,7 +3853,7 @@
         <v>10503</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -3879,7 +3882,7 @@
         <v>10504</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -3908,7 +3911,7 @@
         <v>10505</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -3937,7 +3940,7 @@
         <v>10506</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -3966,7 +3969,7 @@
         <v>10507</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -3995,7 +3998,7 @@
         <v>10508</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -4024,7 +4027,7 @@
         <v>10509</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -4863,10 +4866,10 @@
         <v>10901</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D70">
         <v>13</v>
@@ -4881,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
+        <v>346</v>
+      </c>
+      <c r="K70" t="s">
         <v>347</v>
-      </c>
-      <c r="K70" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
@@ -4892,10 +4895,10 @@
         <v>10902</v>
       </c>
       <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D71">
         <v>13</v>
@@ -4910,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -4921,10 +4924,10 @@
         <v>10903</v>
       </c>
       <c r="B72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D72">
         <v>13</v>
@@ -4939,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
@@ -4950,10 +4953,10 @@
         <v>10904</v>
       </c>
       <c r="B73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D73">
         <v>13</v>
@@ -4968,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
@@ -4979,10 +4982,10 @@
         <v>10905</v>
       </c>
       <c r="B74" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D74">
         <v>13</v>
@@ -4997,10 +5000,10 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
@@ -5008,10 +5011,10 @@
         <v>10906</v>
       </c>
       <c r="B75" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D75">
         <v>13</v>
@@ -5026,10 +5029,10 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
@@ -5037,10 +5040,10 @@
         <v>10907</v>
       </c>
       <c r="B76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D76">
         <v>13</v>
@@ -5055,10 +5058,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
@@ -5066,10 +5069,10 @@
         <v>10908</v>
       </c>
       <c r="B77" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D77">
         <v>13</v>
@@ -5084,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -5095,7 +5098,7 @@
         <v>11001</v>
       </c>
       <c r="B78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -5113,10 +5116,10 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -5124,7 +5127,7 @@
         <v>11002</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
@@ -5142,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -5153,7 +5156,7 @@
         <v>11003</v>
       </c>
       <c r="B80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>6</v>
@@ -5171,10 +5174,10 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
@@ -5182,10 +5185,10 @@
         <v>11004</v>
       </c>
       <c r="B81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D81">
         <v>15</v>
@@ -5200,10 +5203,10 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
@@ -5211,10 +5214,10 @@
         <v>11005</v>
       </c>
       <c r="B82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D82">
         <v>16</v>
@@ -5229,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
@@ -5240,10 +5243,10 @@
         <v>11006</v>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D83">
         <v>16</v>
@@ -5258,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
@@ -5269,10 +5272,10 @@
         <v>11007</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D84">
         <v>17</v>
@@ -5287,10 +5290,10 @@
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
@@ -5298,10 +5301,10 @@
         <v>11008</v>
       </c>
       <c r="B85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D85">
         <v>17</v>
@@ -5316,10 +5319,10 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -5327,10 +5330,10 @@
         <v>11009</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D86">
         <v>18</v>
@@ -5345,10 +5348,10 @@
         <v>7</v>
       </c>
       <c r="J86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -5356,7 +5359,7 @@
         <v>11101</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
@@ -5374,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K87" t="s">
         <v>49</v>
@@ -5385,7 +5388,7 @@
         <v>11102</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>6</v>
@@ -5403,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K88" t="s">
         <v>49</v>
@@ -5414,7 +5417,7 @@
         <v>11103</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
@@ -5432,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K89" t="s">
         <v>49</v>
@@ -5443,10 +5446,10 @@
         <v>11104</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -5461,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K90" t="s">
         <v>49</v>
@@ -5472,10 +5475,10 @@
         <v>11105</v>
       </c>
       <c r="B91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -5490,7 +5493,7 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K91" t="s">
         <v>49</v>
@@ -5501,10 +5504,10 @@
         <v>11106</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D92">
         <v>20</v>
@@ -5519,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K92" t="s">
         <v>49</v>
@@ -5530,10 +5533,10 @@
         <v>11107</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D93">
         <v>20</v>
@@ -5548,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="J93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K93" t="s">
         <v>49</v>
@@ -5559,10 +5562,10 @@
         <v>11108</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D94">
         <v>20</v>
@@ -5577,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="J94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K94" t="s">
         <v>49</v>
@@ -5588,10 +5591,10 @@
         <v>11109</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -5606,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K95" t="s">
         <v>49</v>
@@ -5617,7 +5620,7 @@
         <v>11201</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>6</v>
@@ -5638,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
@@ -5649,7 +5652,7 @@
         <v>11202</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
@@ -5667,13 +5670,13 @@
         <v>190</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -5681,7 +5684,7 @@
         <v>11203</v>
       </c>
       <c r="B98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -5699,13 +5702,13 @@
         <v>200</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
@@ -5713,7 +5716,7 @@
         <v>11204</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>89</v>
@@ -5731,13 +5734,13 @@
         <v>210</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
@@ -5745,7 +5748,7 @@
         <v>11205</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>89</v>
@@ -5763,13 +5766,13 @@
         <v>220</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K100" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
@@ -5777,7 +5780,7 @@
         <v>11206</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>89</v>
@@ -5795,13 +5798,13 @@
         <v>230</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -5809,7 +5812,7 @@
         <v>11207</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>89</v>
@@ -5827,13 +5830,13 @@
         <v>240</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K102" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
@@ -5841,7 +5844,7 @@
         <v>11208</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>89</v>
@@ -5859,13 +5862,13 @@
         <v>250</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K103" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
@@ -5873,7 +5876,7 @@
         <v>11209</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>89</v>
@@ -5891,13 +5894,13 @@
         <v>270</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -5905,7 +5908,7 @@
         <v>11301</v>
       </c>
       <c r="B105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
@@ -5929,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K105" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -5940,7 +5943,7 @@
         <v>11302</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>6</v>
@@ -5964,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K106" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -5975,7 +5978,7 @@
         <v>11303</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>89</v>
@@ -5993,16 +5996,16 @@
         <v>150</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K107" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
@@ -6010,7 +6013,7 @@
         <v>11304</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>89</v>
@@ -6034,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -6045,7 +6048,7 @@
         <v>11305</v>
       </c>
       <c r="B109" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>89</v>
@@ -6063,16 +6066,16 @@
         <v>200</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -6080,7 +6083,7 @@
         <v>11306</v>
       </c>
       <c r="B110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>89</v>
@@ -6098,16 +6101,16 @@
         <v>200</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K110" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
@@ -6115,7 +6118,7 @@
         <v>11307</v>
       </c>
       <c r="B111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>89</v>
@@ -6133,16 +6136,16 @@
         <v>250</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
         <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -6150,7 +6153,7 @@
         <v>11308</v>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>89</v>
@@ -6168,16 +6171,16 @@
         <v>250</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112">
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -6185,7 +6188,7 @@
         <v>11309</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>89</v>
@@ -6203,16 +6206,16 @@
         <v>300</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I113">
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -6220,7 +6223,7 @@
         <v>11401</v>
       </c>
       <c r="B114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
@@ -6244,10 +6247,10 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K114" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
@@ -6255,10 +6258,10 @@
         <v>11402</v>
       </c>
       <c r="B115" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D115">
         <v>27</v>
@@ -6279,10 +6282,10 @@
         <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K115" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
@@ -6290,10 +6293,10 @@
         <v>11403</v>
       </c>
       <c r="B116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D116">
         <v>27</v>
@@ -6308,16 +6311,16 @@
         <v>270</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
@@ -6325,10 +6328,10 @@
         <v>11404</v>
       </c>
       <c r="B117" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -6343,16 +6346,16 @@
         <v>270</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K117" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -6360,10 +6363,10 @@
         <v>11405</v>
       </c>
       <c r="B118" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D118">
         <v>27</v>
@@ -6378,16 +6381,16 @@
         <v>270</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K118" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
@@ -6395,10 +6398,10 @@
         <v>11406</v>
       </c>
       <c r="B119" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D119">
         <v>27</v>
@@ -6413,16 +6416,16 @@
         <v>270</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
@@ -6430,10 +6433,10 @@
         <v>11407</v>
       </c>
       <c r="B120" t="s">
+        <v>446</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D120">
         <v>27</v>
@@ -6448,16 +6451,16 @@
         <v>270</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
@@ -6465,10 +6468,10 @@
         <v>11408</v>
       </c>
       <c r="B121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D121">
         <v>27</v>
@@ -6483,16 +6486,16 @@
         <v>270</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -6500,10 +6503,10 @@
         <v>11409</v>
       </c>
       <c r="B122" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D122">
         <v>27</v>
@@ -6518,16 +6521,16 @@
         <v>270</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>5</v>
       </c>
       <c r="J122" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K122" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -6535,7 +6538,7 @@
         <v>11501</v>
       </c>
       <c r="B123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
@@ -6550,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
+        <v>479</v>
+      </c>
+      <c r="K123" t="s">
         <v>480</v>
-      </c>
-      <c r="K123" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -6561,7 +6564,7 @@
         <v>11502</v>
       </c>
       <c r="B124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>6</v>
@@ -6579,10 +6582,10 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
+        <v>479</v>
+      </c>
+      <c r="K124" t="s">
         <v>480</v>
-      </c>
-      <c r="K124" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
@@ -6590,10 +6593,10 @@
         <v>11503</v>
       </c>
       <c r="B125" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D125">
         <v>34</v>
@@ -6608,10 +6611,10 @@
         <v>4</v>
       </c>
       <c r="J125" t="s">
+        <v>479</v>
+      </c>
+      <c r="K125" t="s">
         <v>480</v>
-      </c>
-      <c r="K125" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
@@ -6619,10 +6622,10 @@
         <v>11504</v>
       </c>
       <c r="B126" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D126">
         <v>34</v>
@@ -6637,10 +6640,10 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
+        <v>479</v>
+      </c>
+      <c r="K126" t="s">
         <v>480</v>
-      </c>
-      <c r="K126" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -6648,10 +6651,10 @@
         <v>11505</v>
       </c>
       <c r="B127" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D127">
         <v>34</v>
@@ -6666,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
+        <v>479</v>
+      </c>
+      <c r="K127" t="s">
         <v>480</v>
-      </c>
-      <c r="K127" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -6677,10 +6680,10 @@
         <v>11506</v>
       </c>
       <c r="B128" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D128">
         <v>34</v>
@@ -6695,10 +6698,10 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
+        <v>479</v>
+      </c>
+      <c r="K128" t="s">
         <v>480</v>
-      </c>
-      <c r="K128" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -6706,10 +6709,10 @@
         <v>11507</v>
       </c>
       <c r="B129" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D129">
         <v>34</v>
@@ -6724,10 +6727,10 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
+        <v>479</v>
+      </c>
+      <c r="K129" t="s">
         <v>480</v>
-      </c>
-      <c r="K129" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -6735,10 +6738,10 @@
         <v>11508</v>
       </c>
       <c r="B130" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D130">
         <v>34</v>
@@ -6753,10 +6756,10 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
+        <v>479</v>
+      </c>
+      <c r="K130" t="s">
         <v>480</v>
-      </c>
-      <c r="K130" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -6764,10 +6767,10 @@
         <v>11509</v>
       </c>
       <c r="B131" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -6782,10 +6785,10 @@
         <v>4</v>
       </c>
       <c r="J131" t="s">
+        <v>479</v>
+      </c>
+      <c r="K131" t="s">
         <v>480</v>
-      </c>
-      <c r="K131" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -6793,7 +6796,7 @@
         <v>11601</v>
       </c>
       <c r="B132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>6</v>
@@ -6811,10 +6814,10 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K132" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -6822,7 +6825,7 @@
         <v>11602</v>
       </c>
       <c r="B133" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>6</v>
@@ -6840,10 +6843,10 @@
         <v>5</v>
       </c>
       <c r="J133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K133" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
@@ -6851,10 +6854,10 @@
         <v>11603</v>
       </c>
       <c r="B134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D134">
         <v>42</v>
@@ -6869,10 +6872,10 @@
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
@@ -6880,10 +6883,10 @@
         <v>11604</v>
       </c>
       <c r="B135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D135">
         <v>42</v>
@@ -6898,10 +6901,10 @@
         <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K135" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
@@ -6909,10 +6912,10 @@
         <v>11605</v>
       </c>
       <c r="B136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D136">
         <v>43</v>
@@ -6927,10 +6930,10 @@
         <v>7</v>
       </c>
       <c r="J136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
@@ -6938,10 +6941,10 @@
         <v>11606</v>
       </c>
       <c r="B137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D137">
         <v>43</v>
@@ -6956,10 +6959,10 @@
         <v>7</v>
       </c>
       <c r="J137" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
@@ -6967,10 +6970,10 @@
         <v>11607</v>
       </c>
       <c r="B138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D138">
         <v>44</v>
@@ -6985,10 +6988,10 @@
         <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
@@ -6996,10 +6999,10 @@
         <v>11608</v>
       </c>
       <c r="B139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D139">
         <v>44</v>
@@ -7014,10 +7017,10 @@
         <v>8</v>
       </c>
       <c r="J139" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K139" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
@@ -7025,10 +7028,10 @@
         <v>11609</v>
       </c>
       <c r="B140" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D140">
         <v>45</v>
@@ -7043,10 +7046,10 @@
         <v>9</v>
       </c>
       <c r="J140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K140" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
@@ -7054,7 +7057,7 @@
         <v>11701</v>
       </c>
       <c r="B141" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>6</v>
@@ -7072,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
+        <v>508</v>
+      </c>
+      <c r="K141" t="s">
         <v>509</v>
-      </c>
-      <c r="K141" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
@@ -7083,7 +7086,7 @@
         <v>11702</v>
       </c>
       <c r="B142" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>6</v>
@@ -7101,10 +7104,10 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
+        <v>508</v>
+      </c>
+      <c r="K142" t="s">
         <v>509</v>
-      </c>
-      <c r="K142" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
@@ -7112,10 +7115,10 @@
         <v>11703</v>
       </c>
       <c r="B143" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -7130,10 +7133,10 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
+        <v>508</v>
+      </c>
+      <c r="K143" t="s">
         <v>509</v>
-      </c>
-      <c r="K143" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
@@ -7141,28 +7144,28 @@
         <v>11704</v>
       </c>
       <c r="B144" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D144">
         <v>49</v>
       </c>
       <c r="E144">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F144">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H144">
         <v>4</v>
       </c>
       <c r="J144" t="s">
+        <v>508</v>
+      </c>
+      <c r="K144" t="s">
         <v>509</v>
-      </c>
-      <c r="K144" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
@@ -7170,28 +7173,28 @@
         <v>11705</v>
       </c>
       <c r="B145" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D145">
         <v>49</v>
       </c>
       <c r="E145">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F145">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H145">
         <v>5</v>
       </c>
       <c r="J145" t="s">
+        <v>508</v>
+      </c>
+      <c r="K145" t="s">
         <v>509</v>
-      </c>
-      <c r="K145" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
@@ -7199,28 +7202,28 @@
         <v>11706</v>
       </c>
       <c r="B146" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D146">
         <v>49</v>
       </c>
       <c r="E146">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F146">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H146">
         <v>6</v>
       </c>
       <c r="J146" t="s">
+        <v>508</v>
+      </c>
+      <c r="K146" t="s">
         <v>509</v>
-      </c>
-      <c r="K146" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
@@ -7228,28 +7231,28 @@
         <v>11707</v>
       </c>
       <c r="B147" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D147">
         <v>52</v>
       </c>
       <c r="E147">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F147">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H147">
         <v>7</v>
       </c>
       <c r="J147" t="s">
+        <v>508</v>
+      </c>
+      <c r="K147" t="s">
         <v>509</v>
-      </c>
-      <c r="K147" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
@@ -7257,28 +7260,28 @@
         <v>11708</v>
       </c>
       <c r="B148" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D148">
         <v>52</v>
       </c>
       <c r="E148">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F148">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H148">
         <v>8</v>
       </c>
       <c r="J148" t="s">
+        <v>508</v>
+      </c>
+      <c r="K148" t="s">
         <v>509</v>
-      </c>
-      <c r="K148" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
@@ -7286,28 +7289,28 @@
         <v>11709</v>
       </c>
       <c r="B149" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D149">
         <v>52</v>
       </c>
       <c r="E149">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F149">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H149">
         <v>9</v>
       </c>
       <c r="J149" t="s">
+        <v>508</v>
+      </c>
+      <c r="K149" t="s">
         <v>509</v>
-      </c>
-      <c r="K149" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7342,16 +7345,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" t="s">
         <v>474</v>
-      </c>
-      <c r="E1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G1" t="s">
-        <v>475</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
@@ -7362,10 +7365,10 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
@@ -7378,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -7386,10 +7389,10 @@
         <v>20101</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -7402,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7410,10 +7413,10 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -7426,7 +7429,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7440,7 +7443,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7463,58 +7466,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
         <v>389</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>390</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" t="s">
         <v>394</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P1" t="s">
         <v>439</v>
       </c>
-      <c r="I1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M1" t="s">
-        <v>430</v>
-      </c>
-      <c r="N1" t="s">
-        <v>413</v>
-      </c>
-      <c r="O1" t="s">
-        <v>422</v>
-      </c>
-      <c r="P1" t="s">
-        <v>440</v>
-      </c>
       <c r="Q1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -7522,13 +7525,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>399</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>400</v>
       </c>
       <c r="E2" s="38">
         <v>5</v>
@@ -7540,22 +7543,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -7569,10 +7572,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>399</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>400</v>
       </c>
       <c r="E3" s="38">
         <v>5</v>
@@ -7584,22 +7587,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -7610,13 +7613,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -7628,22 +7631,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q4">
         <v>40</v>
@@ -7657,7 +7660,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7671,16 +7674,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q5">
         <v>32</v>
@@ -7694,13 +7697,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>402</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>403</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -7712,22 +7715,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -7738,13 +7741,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" s="38">
         <v>100</v>
@@ -7759,16 +7762,16 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -7782,10 +7785,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -7794,22 +7797,22 @@
         <v>1</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K8">
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -7820,13 +7823,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>402</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>403</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -7835,22 +7838,22 @@
         <v>1</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K9">
         <v>99</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -7861,13 +7864,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>402</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>403</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -7876,22 +7879,22 @@
         <v>1</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K10">
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -7902,34 +7905,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="N11" t="s">
-        <v>414</v>
+        <v>371</v>
+      </c>
+      <c r="M11" t="s">
+        <v>530</v>
       </c>
       <c r="O11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -7940,7 +7943,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -7949,22 +7952,22 @@
         <v>0</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -7975,13 +7978,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -7999,16 +8002,16 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R13">
         <v>9</v>
@@ -8019,13 +8022,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="38">
         <v>20</v>
@@ -8034,22 +8037,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K14" s="38">
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -8060,13 +8063,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -8081,16 +8084,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R15">
         <v>11</v>
@@ -8101,13 +8104,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E16" s="38">
         <v>72</v>
@@ -8122,16 +8125,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -8142,13 +8145,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E17" s="38">
         <v>72</v>
@@ -8163,16 +8166,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -8183,13 +8186,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="38">
         <v>72</v>
@@ -8204,16 +8207,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R18">
         <v>11</v>
@@ -8224,13 +8227,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E19" s="38">
         <v>72</v>
@@ -8245,16 +8248,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q19">
         <v>19</v>
@@ -8268,10 +8271,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="38">
         <v>72</v>
@@ -8281,19 +8284,19 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -8304,13 +8307,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" s="38">
         <v>100</v>
@@ -8322,19 +8325,19 @@
         <v>99</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R21">
         <v>13</v>
@@ -8345,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C22" s="38"/>
       <c r="E22" s="38">
@@ -8355,16 +8358,16 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -8378,13 +8381,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -8402,19 +8405,19 @@
         <v>99</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q23">
         <v>23</v>
@@ -8428,7 +8431,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -8439,19 +8442,19 @@
       <c r="H24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -8462,7 +8465,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -8473,19 +8476,19 @@
       <c r="H25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M25" t="s">
+        <v>427</v>
+      </c>
+      <c r="N25" t="s">
         <v>428</v>
       </c>
-      <c r="N25" t="s">
-        <v>429</v>
-      </c>
       <c r="O25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q25">
         <v>25</v>
@@ -8499,13 +8502,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" s="38">
         <v>0</v>
@@ -8523,19 +8526,19 @@
         <v>99</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M26" t="s">
+        <v>427</v>
+      </c>
+      <c r="N26" t="s">
         <v>428</v>
       </c>
-      <c r="N26" t="s">
-        <v>429</v>
-      </c>
       <c r="O26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q26">
         <v>26</v>
@@ -8549,7 +8552,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -8560,19 +8563,19 @@
       <c r="H27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M27" t="s">
+        <v>427</v>
+      </c>
+      <c r="N27" t="s">
         <v>428</v>
       </c>
-      <c r="N27" t="s">
-        <v>429</v>
-      </c>
       <c r="O27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -8583,7 +8586,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -8594,19 +8597,19 @@
       <c r="H28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q28">
         <v>30</v>
@@ -8620,13 +8623,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E29" s="38">
         <v>6</v>
@@ -8637,19 +8640,19 @@
       <c r="H29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q29">
         <v>29</v>
@@ -8663,7 +8666,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -8674,19 +8677,19 @@
       <c r="H30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R30">
         <v>16</v>
@@ -8697,7 +8700,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -8708,19 +8711,19 @@
       <c r="H31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q31">
         <v>31</v>
@@ -8734,7 +8737,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -8745,19 +8748,19 @@
       <c r="H32" s="38"/>
       <c r="K32" s="38"/>
       <c r="L32" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q32">
         <v>28</v>
@@ -8771,13 +8774,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>468</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>469</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33">
@@ -8789,13 +8792,13 @@
       </c>
       <c r="L33" s="38"/>
       <c r="M33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>33</v>
@@ -8809,7 +8812,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -8821,10 +8824,10 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R34">
         <v>16</v>
@@ -8835,7 +8838,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -8846,16 +8849,16 @@
       <c r="H35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>35</v>
@@ -8869,7 +8872,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -8880,16 +8883,16 @@
       <c r="H36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>36</v>
@@ -8903,7 +8906,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -8914,16 +8917,16 @@
       <c r="H37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>37</v>
@@ -8937,13 +8940,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38">
@@ -8952,16 +8955,16 @@
       <c r="H38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R38">
         <v>16</v>
@@ -8972,13 +8975,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E39" s="38">
         <v>50</v>
@@ -8994,16 +8997,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>39</v>
@@ -9017,7 +9020,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -9032,16 +9035,16 @@
         <v>1</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R40">
         <v>16</v>
@@ -9052,7 +9055,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -9067,16 +9070,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R41">
         <v>16</v>
@@ -9087,13 +9090,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42">
@@ -9107,16 +9110,16 @@
         <v>99</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -9127,13 +9130,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43">
@@ -9147,16 +9150,16 @@
         <v>99</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -9167,13 +9170,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44">
@@ -9187,16 +9190,16 @@
         <v>99</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -9207,13 +9210,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45">
@@ -9227,16 +9230,16 @@
         <v>99</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -9247,13 +9250,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="38" t="s">
         <v>500</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>501</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46">
@@ -9267,16 +9270,16 @@
         <v>99</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -9287,7 +9290,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -9300,16 +9303,16 @@
       </c>
       <c r="I47" s="38"/>
       <c r="L47" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>47</v>
@@ -9323,13 +9326,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E48" s="38">
         <v>15</v>
@@ -9345,16 +9348,16 @@
         <v>2</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q48">
         <v>48</v>
@@ -9368,7 +9371,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -9379,16 +9382,16 @@
       <c r="H49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R49">
         <v>16</v>
@@ -9399,7 +9402,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -9412,16 +9415,16 @@
       </c>
       <c r="I50" s="38"/>
       <c r="L50" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>50</v>
@@ -9435,13 +9438,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E51" s="38">
         <v>15</v>
@@ -9457,16 +9460,16 @@
         <v>2</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>51</v>
@@ -9480,7 +9483,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -9491,16 +9494,16 @@
       <c r="H52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R52">
         <v>16</v>
@@ -9511,7 +9514,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
@@ -9524,16 +9527,16 @@
       </c>
       <c r="I53" s="38"/>
       <c r="L53" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>53</v>
@@ -9547,13 +9550,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E54" s="38">
         <v>15</v>
@@ -9569,16 +9572,16 @@
         <v>2</v>
       </c>
       <c r="L54" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>54</v>
@@ -9592,7 +9595,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -9603,16 +9606,16 @@
       <c r="H55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -9623,13 +9626,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E56">
         <v>70</v>
@@ -9641,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>40</v>
@@ -9670,13 +9673,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E57">
         <v>70</v>
@@ -9688,22 +9691,22 @@
         <v>0</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>40</v>
@@ -9747,19 +9750,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" t="s">
         <v>344</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" t="s">
-        <v>346</v>
-      </c>
       <c r="G1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -9780,19 +9783,19 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P1" t="s">
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R1" t="s">
+        <v>361</v>
+      </c>
+      <c r="S1" t="s">
         <v>362</v>
-      </c>
-      <c r="S1" t="s">
-        <v>363</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
@@ -9816,16 +9819,16 @@
   <sheetData>
     <row r="8" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" t="s">
         <v>358</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>359</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>360</v>
-      </c>
-      <c r="M8" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -9859,71 +9862,71 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
         <v>255</v>
       </c>
-      <c r="F1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>257</v>
-      </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
-        <v>251</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" t="s">
         <v>256</v>
       </c>
-      <c r="S1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" t="s">
-        <v>257</v>
-      </c>
       <c r="U1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="22"/>
@@ -9935,42 +9938,42 @@
       <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>185</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>186</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" t="s">
-        <v>188</v>
-      </c>
       <c r="X2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -9982,42 +9985,42 @@
       <c r="I3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" t="s">
         <v>185</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>186</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>187</v>
       </c>
-      <c r="U3" t="s">
-        <v>188</v>
-      </c>
       <c r="X3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="12"/>
@@ -10029,42 +10032,42 @@
       <c r="I4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="X4" t="s">
         <v>139</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="X4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -10076,42 +10079,42 @@
       <c r="I5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>211</v>
-      </c>
       <c r="X5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="12"/>
@@ -10123,42 +10126,42 @@
       <c r="I6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="R6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>215</v>
-      </c>
       <c r="X6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -10171,42 +10174,42 @@
       <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="U7" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -10219,42 +10222,42 @@
       <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -10267,42 +10270,42 @@
       <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -10315,42 +10318,42 @@
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O10" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -10363,42 +10366,42 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11" t="s">
         <v>184</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>185</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>186</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>187</v>
       </c>
-      <c r="U11" t="s">
-        <v>188</v>
-      </c>
       <c r="X11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -10407,40 +10410,40 @@
       <c r="I12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R12" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" t="s">
         <v>185</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>186</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>187</v>
       </c>
-      <c r="U12" t="s">
-        <v>188</v>
-      </c>
       <c r="X12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -10456,37 +10459,37 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R13" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="T13" s="32" t="s">
+      <c r="U13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>204</v>
-      </c>
       <c r="X13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10502,161 +10505,161 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="S14" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="T14" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="U14" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>211</v>
-      </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="R15" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="R15" s="32" t="s">
+      <c r="S15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="T15" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="T15" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>215</v>
-      </c>
       <c r="X15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="U16" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="L17" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -10667,114 +10670,114 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L19" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O19" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10799,232 +10802,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
         <v>142</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>143</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>144</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>152</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>153</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>154</v>
-      </c>
-      <c r="I10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
         <v>157</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>158</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>159</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>160</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>161</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>162</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>163</v>
-      </c>
-      <c r="I13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
         <v>166</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>167</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>168</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>169</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>170</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>171</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>172</v>
-      </c>
-      <c r="I14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -11056,66 +11059,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
         <v>245</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>246</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>247</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>248</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>251</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>252</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
         <v>254</v>
       </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="P1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
-        <v>294</v>
-      </c>
-      <c r="S1" t="s">
-        <v>257</v>
-      </c>
       <c r="T1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -11125,7 +11128,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="K2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="22"/>
@@ -11138,7 +11141,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -11148,7 +11151,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="K3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="22"/>
@@ -11161,7 +11164,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -11171,7 +11174,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="12"/>
@@ -11184,7 +11187,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -11194,7 +11197,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
@@ -11207,7 +11210,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -11217,7 +11220,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="36"/>
       <c r="K6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="12"/>
@@ -11230,7 +11233,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -11240,7 +11243,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
@@ -11254,7 +11257,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -11264,7 +11267,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="12"/>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -11288,7 +11291,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
@@ -11302,7 +11305,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -11312,7 +11315,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
@@ -11326,7 +11329,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -11336,7 +11339,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -11360,7 +11363,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
@@ -11370,7 +11373,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -11382,7 +11385,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -11394,7 +11397,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -11404,12 +11407,12 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="K15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -11421,7 +11424,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -11431,15 +11434,15 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -11449,15 +11452,15 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="K18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -11467,12 +11470,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="K19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -11484,7 +11487,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -11494,12 +11497,12 @@
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="K21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -11511,7 +11514,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="37"/>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="37"/>
@@ -11535,7 +11538,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -11545,12 +11548,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="Q25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="35"/>
@@ -11562,7 +11565,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -11574,7 +11577,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="35"/>
@@ -11586,7 +11589,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -11598,7 +11601,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -11610,7 +11613,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -11622,7 +11625,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -11634,7 +11637,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -11646,7 +11649,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -11670,15 +11673,15 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="I37" t="s">
         <v>291</v>
-      </c>
-      <c r="I37" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -11753,7 +11756,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -11806,7 +11809,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11827,14 +11830,14 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11850,7 +11853,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -11860,7 +11863,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="X6" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
@@ -11885,7 +11888,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -11907,7 +11910,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -11943,7 +11946,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -11970,7 +11973,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -12025,7 +12028,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -12051,14 +12054,14 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -12072,7 +12075,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -12101,7 +12104,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -12139,13 +12142,13 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -12199,7 +12202,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -12230,7 +12233,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -12290,7 +12293,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -12309,7 +12312,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -12346,7 +12349,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -12365,7 +12368,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -12389,7 +12392,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -12397,7 +12400,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -12478,15 +12481,15 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -12542,7 +12545,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -12614,7 +12617,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -12644,11 +12647,11 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -12695,7 +12698,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -12752,7 +12755,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -12793,10 +12796,10 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -12823,28 +12826,28 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
@@ -12852,7 +12855,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -12880,7 +12883,7 @@
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H45" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -2765,8 +2765,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>376</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>376</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J80" t="s">
         <v>376</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J81" t="s">
         <v>376</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J82" t="s">
         <v>376</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J83" t="s">
         <v>376</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J84" t="s">
         <v>376</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J85" t="s">
         <v>376</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J86" t="s">
         <v>376</v>
@@ -7072,7 +7072,7 @@
         <v>200</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J141" t="s">
         <v>508</v>
@@ -7101,7 +7101,7 @@
         <v>200</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J142" t="s">
         <v>508</v>
@@ -7130,7 +7130,7 @@
         <v>200</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J143" t="s">
         <v>508</v>
@@ -7159,7 +7159,7 @@
         <v>100</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J144" t="s">
         <v>508</v>
@@ -7188,7 +7188,7 @@
         <v>100</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J145" t="s">
         <v>508</v>
@@ -7217,7 +7217,7 @@
         <v>100</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J146" t="s">
         <v>508</v>
@@ -7246,7 +7246,7 @@
         <v>50</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J147" t="s">
         <v>508</v>
@@ -7275,7 +7275,7 @@
         <v>50</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J148" t="s">
         <v>508</v>
@@ -7304,7 +7304,7 @@
         <v>50</v>
       </c>
       <c r="H149">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J149" t="s">
         <v>508</v>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -2765,8 +2765,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="539">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1856,18 +1856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2045,13 +2033,47 @@
   </si>
   <si>
     <t>finalboss_shield_cp</t>
+  </si>
+  <si>
+    <t>lethalprism_ray_start_cp</t>
+  </si>
+  <si>
+    <t>lethalprism_ray</t>
+  </si>
+  <si>
+    <t>雷击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oloch_teleport_decal</t>
+  </si>
+  <si>
+    <t>火柱</t>
+  </si>
+  <si>
+    <t>oloch_teleport_start_cp</t>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oloch_teleport_boom_cp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2088,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2294,7 +2322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2423,6 +2451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2762,11 +2793,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N100" sqref="N100"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3011,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K8" t="s">
         <v>29</v>
@@ -6538,7 +6569,7 @@
         <v>11501</v>
       </c>
       <c r="B123" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
@@ -6553,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K123" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -6564,7 +6595,7 @@
         <v>11502</v>
       </c>
       <c r="B124" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>6</v>
@@ -6582,10 +6613,10 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K124" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
@@ -6593,7 +6624,7 @@
         <v>11503</v>
       </c>
       <c r="B125" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>377</v>
@@ -6611,10 +6642,10 @@
         <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K125" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
@@ -6622,7 +6653,7 @@
         <v>11504</v>
       </c>
       <c r="B126" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>377</v>
@@ -6640,10 +6671,10 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K126" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -6651,7 +6682,7 @@
         <v>11505</v>
       </c>
       <c r="B127" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>377</v>
@@ -6669,10 +6700,10 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K127" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -6680,7 +6711,7 @@
         <v>11506</v>
       </c>
       <c r="B128" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>377</v>
@@ -6698,10 +6729,10 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K128" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -6709,7 +6740,7 @@
         <v>11507</v>
       </c>
       <c r="B129" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>377</v>
@@ -6727,10 +6758,10 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K129" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -6738,7 +6769,7 @@
         <v>11508</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>377</v>
@@ -6756,10 +6787,10 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K130" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -6767,7 +6798,7 @@
         <v>11509</v>
       </c>
       <c r="B131" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>377</v>
@@ -6785,10 +6816,10 @@
         <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K131" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -6796,7 +6827,7 @@
         <v>11601</v>
       </c>
       <c r="B132" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>6</v>
@@ -6814,10 +6845,10 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K132" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -6825,7 +6856,7 @@
         <v>11602</v>
       </c>
       <c r="B133" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>6</v>
@@ -6843,10 +6874,10 @@
         <v>5</v>
       </c>
       <c r="J133" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K133" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
@@ -6854,7 +6885,7 @@
         <v>11603</v>
       </c>
       <c r="B134" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>377</v>
@@ -6872,10 +6903,10 @@
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K134" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
@@ -6883,7 +6914,7 @@
         <v>11604</v>
       </c>
       <c r="B135" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>377</v>
@@ -6901,10 +6932,10 @@
         <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K135" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
@@ -6912,7 +6943,7 @@
         <v>11605</v>
       </c>
       <c r="B136" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>377</v>
@@ -6930,10 +6961,10 @@
         <v>7</v>
       </c>
       <c r="J136" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K136" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
@@ -6941,7 +6972,7 @@
         <v>11606</v>
       </c>
       <c r="B137" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>377</v>
@@ -6959,10 +6990,10 @@
         <v>7</v>
       </c>
       <c r="J137" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K137" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
@@ -6970,7 +7001,7 @@
         <v>11607</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>377</v>
@@ -6988,10 +7019,10 @@
         <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K138" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
@@ -6999,7 +7030,7 @@
         <v>11608</v>
       </c>
       <c r="B139" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>377</v>
@@ -7017,10 +7048,10 @@
         <v>8</v>
       </c>
       <c r="J139" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K139" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
@@ -7028,7 +7059,7 @@
         <v>11609</v>
       </c>
       <c r="B140" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>377</v>
@@ -7046,10 +7077,10 @@
         <v>9</v>
       </c>
       <c r="J140" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K140" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
@@ -7057,7 +7088,7 @@
         <v>11701</v>
       </c>
       <c r="B141" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>6</v>
@@ -7075,10 +7106,10 @@
         <v>4</v>
       </c>
       <c r="J141" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K141" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
@@ -7086,7 +7117,7 @@
         <v>11702</v>
       </c>
       <c r="B142" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>6</v>
@@ -7104,10 +7135,10 @@
         <v>5</v>
       </c>
       <c r="J142" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K142" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
@@ -7115,7 +7146,7 @@
         <v>11703</v>
       </c>
       <c r="B143" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>377</v>
@@ -7133,10 +7164,10 @@
         <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K143" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
@@ -7144,7 +7175,7 @@
         <v>11704</v>
       </c>
       <c r="B144" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>377</v>
@@ -7162,10 +7193,10 @@
         <v>7</v>
       </c>
       <c r="J144" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K144" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
@@ -7173,7 +7204,7 @@
         <v>11705</v>
       </c>
       <c r="B145" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>377</v>
@@ -7191,10 +7222,10 @@
         <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K145" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
@@ -7202,7 +7233,7 @@
         <v>11706</v>
       </c>
       <c r="B146" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>377</v>
@@ -7220,10 +7251,10 @@
         <v>9</v>
       </c>
       <c r="J146" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K146" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
@@ -7231,7 +7262,7 @@
         <v>11707</v>
       </c>
       <c r="B147" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>377</v>
@@ -7249,10 +7280,10 @@
         <v>10</v>
       </c>
       <c r="J147" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K147" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
@@ -7260,7 +7291,7 @@
         <v>11708</v>
       </c>
       <c r="B148" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>377</v>
@@ -7278,10 +7309,10 @@
         <v>11</v>
       </c>
       <c r="J148" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K148" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
@@ -7289,7 +7320,7 @@
         <v>11709</v>
       </c>
       <c r="B149" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>377</v>
@@ -7307,10 +7338,298 @@
         <v>12</v>
       </c>
       <c r="J149" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K149" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>11801</v>
+      </c>
+      <c r="B150" t="s">
+        <v>531</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>57</v>
+      </c>
+      <c r="E150">
+        <v>1000</v>
+      </c>
+      <c r="F150">
+        <v>1000</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>463</v>
+      </c>
+      <c r="K150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>11802</v>
+      </c>
+      <c r="B151" t="s">
+        <v>531</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D151">
+        <v>57</v>
+      </c>
+      <c r="E151">
+        <v>700</v>
+      </c>
+      <c r="F151">
+        <v>700</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>463</v>
+      </c>
+      <c r="K151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>11803</v>
+      </c>
+      <c r="B152" t="s">
+        <v>531</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D152">
+        <v>57</v>
+      </c>
+      <c r="E152">
+        <v>600</v>
+      </c>
+      <c r="F152">
+        <v>600</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>463</v>
+      </c>
+      <c r="K152" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>11804</v>
+      </c>
+      <c r="B153" t="s">
+        <v>531</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D153">
+        <v>57</v>
+      </c>
+      <c r="E153">
+        <v>500</v>
+      </c>
+      <c r="F153">
+        <v>500</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>463</v>
+      </c>
+      <c r="K153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>11805</v>
+      </c>
+      <c r="B154" t="s">
+        <v>531</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154">
+        <v>400</v>
+      </c>
+      <c r="F154">
+        <v>400</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>463</v>
+      </c>
+      <c r="K154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>11806</v>
+      </c>
+      <c r="B155" t="s">
+        <v>531</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D155">
+        <v>57</v>
+      </c>
+      <c r="E155">
+        <v>300</v>
+      </c>
+      <c r="F155">
+        <v>300</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>463</v>
+      </c>
+      <c r="K155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>11807</v>
+      </c>
+      <c r="B156" t="s">
+        <v>531</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D156">
+        <v>57</v>
+      </c>
+      <c r="E156">
+        <v>200</v>
+      </c>
+      <c r="F156">
+        <v>200</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>463</v>
+      </c>
+      <c r="K156" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>11808</v>
+      </c>
+      <c r="B157" t="s">
+        <v>531</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D157">
+        <v>57</v>
+      </c>
+      <c r="E157">
+        <v>200</v>
+      </c>
+      <c r="F157">
+        <v>200</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>463</v>
+      </c>
+      <c r="K157" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>11809</v>
+      </c>
+      <c r="B158" t="s">
+        <v>531</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158">
+        <v>57</v>
+      </c>
+      <c r="E158">
+        <v>200</v>
+      </c>
+      <c r="F158">
+        <v>200</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>463</v>
+      </c>
+      <c r="K158" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7322,14 +7641,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
@@ -7368,7 +7688,7 @@
         <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>475</v>
+        <v>377</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
@@ -7392,7 +7712,7 @@
         <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -7410,13 +7730,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>20003</v>
+        <v>20201</v>
       </c>
       <c r="B4" t="s">
         <v>470</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -7432,18 +7752,45 @@
         <v>472</v>
       </c>
     </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20301</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7455,7 +7802,7 @@
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="5.25" customWidth="1"/>
     <col min="12" max="13" width="22.625" customWidth="1"/>
@@ -7464,7 +7811,7 @@
     <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>445</v>
       </c>
@@ -7519,13 +7866,16 @@
       <c r="R1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
         <v>398</v>
@@ -7564,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7608,12 +7958,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>400</v>
@@ -7655,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7692,12 +8042,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>401</v>
@@ -7724,7 +8074,7 @@
         <v>369</v>
       </c>
       <c r="M6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O6" t="s">
         <v>422</v>
@@ -7736,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7777,7 +8127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7818,7 +8168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7859,7 +8209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7900,12 +8250,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>401</v>
@@ -7926,7 +8276,7 @@
         <v>371</v>
       </c>
       <c r="M11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O11" t="s">
         <v>422</v>
@@ -7938,7 +8288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7973,7 +8323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8017,7 +8367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8058,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8069,7 +8419,7 @@
         <v>398</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E15" s="38">
         <v>72</v>
@@ -8099,7 +8449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8838,7 +9188,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -8852,7 +9202,7 @@
         <v>368</v>
       </c>
       <c r="M35" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O35" t="s">
         <v>422</v>
@@ -8872,7 +9222,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -8886,7 +9236,7 @@
         <v>368</v>
       </c>
       <c r="M36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O36" t="s">
         <v>422</v>
@@ -8906,7 +9256,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -8920,7 +9270,7 @@
         <v>368</v>
       </c>
       <c r="M37" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O37" t="s">
         <v>422</v>
@@ -8940,7 +9290,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>221</v>
@@ -8958,7 +9308,7 @@
         <v>368</v>
       </c>
       <c r="M38" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O38" t="s">
         <v>422</v>
@@ -8975,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C39" t="s">
         <v>221</v>
@@ -9000,7 +9350,7 @@
         <v>367</v>
       </c>
       <c r="M39" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O39" t="s">
         <v>422</v>
@@ -9020,7 +9370,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -9038,7 +9388,7 @@
         <v>367</v>
       </c>
       <c r="M40" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O40" t="s">
         <v>422</v>
@@ -9055,7 +9405,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -9073,7 +9423,7 @@
         <v>367</v>
       </c>
       <c r="M41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O41" t="s">
         <v>422</v>
@@ -9090,13 +9440,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42">
@@ -9113,7 +9463,7 @@
         <v>367</v>
       </c>
       <c r="M42" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O42" t="s">
         <v>422</v>
@@ -9130,13 +9480,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43">
@@ -9153,7 +9503,7 @@
         <v>367</v>
       </c>
       <c r="M43" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O43" t="s">
         <v>422</v>
@@ -9170,13 +9520,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44">
@@ -9193,7 +9543,7 @@
         <v>367</v>
       </c>
       <c r="M44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O44" t="s">
         <v>422</v>
@@ -9210,13 +9560,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45">
@@ -9233,7 +9583,7 @@
         <v>367</v>
       </c>
       <c r="M45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O45" t="s">
         <v>422</v>
@@ -9250,13 +9600,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46">
@@ -9273,7 +9623,7 @@
         <v>367</v>
       </c>
       <c r="M46" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O46" t="s">
         <v>422</v>
@@ -9290,7 +9640,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -9306,7 +9656,7 @@
         <v>367</v>
       </c>
       <c r="M47" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O47" t="s">
         <v>422</v>
@@ -9326,13 +9676,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
         <v>398</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E48" s="38">
         <v>15</v>
@@ -9351,7 +9701,7 @@
         <v>367</v>
       </c>
       <c r="M48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O48" t="s">
         <v>422</v>
@@ -9366,12 +9716,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -9385,7 +9735,7 @@
         <v>368</v>
       </c>
       <c r="M49" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O49" t="s">
         <v>422</v>
@@ -9397,12 +9747,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -9418,7 +9768,7 @@
         <v>367</v>
       </c>
       <c r="M50" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O50" t="s">
         <v>422</v>
@@ -9433,18 +9783,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C51" t="s">
         <v>398</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E51" s="38">
         <v>15</v>
@@ -9463,7 +9813,7 @@
         <v>367</v>
       </c>
       <c r="M51" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O51" t="s">
         <v>422</v>
@@ -9478,12 +9828,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -9497,7 +9847,7 @@
         <v>368</v>
       </c>
       <c r="M52" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O52" t="s">
         <v>422</v>
@@ -9509,12 +9859,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
@@ -9530,7 +9880,7 @@
         <v>367</v>
       </c>
       <c r="M53" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O53" t="s">
         <v>422</v>
@@ -9545,18 +9895,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C54" t="s">
         <v>398</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E54" s="38">
         <v>15</v>
@@ -9575,7 +9925,7 @@
         <v>367</v>
       </c>
       <c r="M54" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O54" t="s">
         <v>422</v>
@@ -9590,12 +9940,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -9609,7 +9959,7 @@
         <v>368</v>
       </c>
       <c r="M55" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O55" t="s">
         <v>422</v>
@@ -9621,12 +9971,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>221</v>
@@ -9668,18 +10018,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E57">
         <v>70</v>
@@ -9713,6 +10063,121 @@
       </c>
       <c r="R57">
         <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="38"/>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="O58" t="s">
+        <v>422</v>
+      </c>
+      <c r="P58" t="s">
+        <v>234</v>
+      </c>
+      <c r="R58">
+        <v>28</v>
+      </c>
+      <c r="S58">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="O59" t="s">
+        <v>422</v>
+      </c>
+      <c r="P59" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q59">
+        <v>59</v>
+      </c>
+      <c r="R59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="38"/>
+      <c r="K60">
+        <v>99</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="O60" t="s">
+        <v>422</v>
+      </c>
+      <c r="P60" t="s">
+        <v>234</v>
+      </c>
+      <c r="R60">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -2440,6 +2440,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2451,9 +2454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,9 +2795,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7756,7 +7756,7 @@
       <c r="A5">
         <v>20301</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>535</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7789,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10100,7 +10100,7 @@
         <v>28</v>
       </c>
       <c r="S58">
-        <v>1005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.15">
@@ -12327,11 +12327,11 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
@@ -12358,9 +12358,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
@@ -12387,9 +12387,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
@@ -12416,9 +12416,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
@@ -12445,9 +12445,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
@@ -12472,9 +12472,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
@@ -12501,9 +12501,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
@@ -12534,9 +12534,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
@@ -12563,9 +12563,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
@@ -12592,9 +12592,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
@@ -12623,9 +12623,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
@@ -12650,9 +12650,9 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
@@ -12679,9 +12679,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
@@ -12708,9 +12708,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
@@ -12735,9 +12735,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
@@ -12764,9 +12764,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
@@ -12793,9 +12793,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
@@ -12822,9 +12822,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
@@ -12851,9 +12851,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
@@ -12882,9 +12882,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
@@ -12909,9 +12909,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
@@ -12936,9 +12936,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
@@ -12969,9 +12969,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -12996,9 +12996,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
@@ -13025,9 +13025,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
@@ -13052,9 +13052,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
@@ -13319,544 +13319,544 @@
       <c r="V41" s="33"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
     </row>
     <row r="49" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
     </row>
     <row r="50" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
     </row>
     <row r="51" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
     </row>
     <row r="52" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
     </row>
     <row r="53" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
     </row>
     <row r="54" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
     </row>
     <row r="55" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
     </row>
     <row r="56" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
     </row>
     <row r="57" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
     </row>
     <row r="58" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
     </row>
     <row r="59" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
     </row>
     <row r="60" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
     </row>
     <row r="61" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
     </row>
     <row r="62" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
     </row>
     <row r="63" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
     </row>
     <row r="64" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
     </row>
     <row r="65" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
     </row>
     <row r="66" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
     </row>
     <row r="67" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
     </row>
     <row r="68" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
     </row>
     <row r="69" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
     </row>
     <row r="70" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
     </row>
     <row r="71" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="42"/>
-      <c r="S71" s="42"/>
-      <c r="T71" s="42"/>
-      <c r="U71" s="42"/>
-      <c r="V71" s="42"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
     </row>
     <row r="72" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="42"/>
-      <c r="V72" s="42"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
     </row>
     <row r="73" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="42"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="42"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
     </row>
     <row r="74" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
-      <c r="V74" s="42"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -2796,8 +2796,8 @@
   <dimension ref="A1:K158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7789,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9119,7 +9119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9434,8 +9434,11 @@
       <c r="R41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S41">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9474,8 +9477,11 @@
       <c r="R42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S42">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9514,8 +9520,11 @@
       <c r="R43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S43">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9554,8 +9563,11 @@
       <c r="R44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S44">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9594,8 +9606,11 @@
       <c r="R45">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S45">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9634,8 +9649,11 @@
       <c r="R46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S46">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9671,7 +9689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="546">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2067,6 +2067,29 @@
   </si>
   <si>
     <t>oloch_teleport_boom_cp</t>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药让敌人承受巨大痛苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_item_valyrian_fire</t>
+  </si>
+  <si>
+    <t>kr4_item_valyrian_fire_1_cp</t>
+  </si>
+  <si>
+    <t>kr4_item_valyrian_fire_explotion_cp</t>
+  </si>
+  <si>
+    <t>items_power_veznan_portrait_0003</t>
+  </si>
+  <si>
+    <t>towerselect_powers_0028</t>
   </si>
 </sst>
 </file>
@@ -2793,11 +2816,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O153" sqref="O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7103,7 +7126,7 @@
         <v>200</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>505</v>
@@ -7132,7 +7155,7 @@
         <v>200</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>505</v>
@@ -7161,7 +7184,7 @@
         <v>200</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>505</v>
@@ -7190,7 +7213,7 @@
         <v>100</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>505</v>
@@ -7219,7 +7242,7 @@
         <v>100</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>505</v>
@@ -7248,7 +7271,7 @@
         <v>100</v>
       </c>
       <c r="H146">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J146" t="s">
         <v>505</v>
@@ -7277,7 +7300,7 @@
         <v>50</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J147" t="s">
         <v>505</v>
@@ -7306,7 +7329,7 @@
         <v>50</v>
       </c>
       <c r="H148">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J148" t="s">
         <v>505</v>
@@ -7335,7 +7358,7 @@
         <v>50</v>
       </c>
       <c r="H149">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J149" t="s">
         <v>505</v>
@@ -7370,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K150" t="s">
         <v>49</v>
@@ -7402,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K151" t="s">
         <v>49</v>
@@ -7434,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K152" t="s">
         <v>49</v>
@@ -7466,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K153" t="s">
         <v>49</v>
@@ -7498,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K154" t="s">
         <v>49</v>
@@ -7530,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K155" t="s">
         <v>49</v>
@@ -7562,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K156" t="s">
         <v>49</v>
@@ -7594,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K157" t="s">
         <v>49</v>
@@ -7626,10 +7649,298 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="K158" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>11901</v>
+      </c>
+      <c r="B159" t="s">
+        <v>539</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>1000</v>
+      </c>
+      <c r="F159">
+        <v>100</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="J159" t="s">
+        <v>544</v>
+      </c>
+      <c r="K159" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>11902</v>
+      </c>
+      <c r="B160" t="s">
+        <v>539</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>60</v>
+      </c>
+      <c r="E160">
+        <v>1000</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="J160" t="s">
+        <v>544</v>
+      </c>
+      <c r="K160" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>11903</v>
+      </c>
+      <c r="B161" t="s">
+        <v>539</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>60</v>
+      </c>
+      <c r="E161">
+        <v>1000</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="J161" t="s">
+        <v>544</v>
+      </c>
+      <c r="K161" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>11904</v>
+      </c>
+      <c r="B162" t="s">
+        <v>539</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>60</v>
+      </c>
+      <c r="E162">
+        <v>1000</v>
+      </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="J162" t="s">
+        <v>544</v>
+      </c>
+      <c r="K162" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>11905</v>
+      </c>
+      <c r="B163" t="s">
+        <v>539</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>60</v>
+      </c>
+      <c r="E163">
+        <v>1000</v>
+      </c>
+      <c r="F163">
+        <v>100</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+      <c r="J163" t="s">
+        <v>544</v>
+      </c>
+      <c r="K163" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>11906</v>
+      </c>
+      <c r="B164" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>60</v>
+      </c>
+      <c r="E164">
+        <v>1000</v>
+      </c>
+      <c r="F164">
+        <v>100</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>8</v>
+      </c>
+      <c r="J164" t="s">
+        <v>544</v>
+      </c>
+      <c r="K164" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>11907</v>
+      </c>
+      <c r="B165" t="s">
+        <v>539</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>60</v>
+      </c>
+      <c r="E165">
+        <v>1000</v>
+      </c>
+      <c r="F165">
+        <v>100</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>9</v>
+      </c>
+      <c r="J165" t="s">
+        <v>544</v>
+      </c>
+      <c r="K165" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>11908</v>
+      </c>
+      <c r="B166" t="s">
+        <v>539</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>60</v>
+      </c>
+      <c r="E166">
+        <v>1000</v>
+      </c>
+      <c r="F166">
+        <v>100</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>10</v>
+      </c>
+      <c r="J166" t="s">
+        <v>544</v>
+      </c>
+      <c r="K166" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>11909</v>
+      </c>
+      <c r="B167" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>60</v>
+      </c>
+      <c r="E167">
+        <v>1000</v>
+      </c>
+      <c r="F167">
+        <v>100</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>11</v>
+      </c>
+      <c r="J167" t="s">
+        <v>544</v>
+      </c>
+      <c r="K167" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -7787,10 +8098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10195,6 +10506,89 @@
         <v>234</v>
       </c>
       <c r="R60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>542</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E61" s="38">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38"/>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="M61" t="s">
+        <v>541</v>
+      </c>
+      <c r="O61" t="s">
+        <v>422</v>
+      </c>
+      <c r="P61" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q61">
+        <v>61</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="38"/>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="M62" t="s">
+        <v>541</v>
+      </c>
+      <c r="O62" t="s">
+        <v>422</v>
+      </c>
+      <c r="P62" t="s">
+        <v>442</v>
+      </c>
+      <c r="R62">
         <v>16</v>
       </c>
     </row>

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="579">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,6 +2224,10 @@
   </si>
   <si>
     <t>地图上随机寻找怪物进行攻击,并且持续受到麻痹效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2601,6 +2605,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2612,9 +2619,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2957,8 +2961,8 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4019,7 +4023,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>10406</v>
+        <v>10407</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -4875,7 +4879,7 @@
       <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="13">
@@ -4907,7 +4911,7 @@
       <c r="B66" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D66" s="13">
@@ -4939,7 +4943,7 @@
       <c r="B67" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="13">
@@ -4971,7 +4975,7 @@
       <c r="B68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="13">
@@ -5003,7 +5007,7 @@
       <c r="B69" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="13">
@@ -5035,7 +5039,7 @@
       <c r="B70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="13">
@@ -5067,7 +5071,7 @@
       <c r="B71" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D71" s="13">
@@ -5099,7 +5103,7 @@
       <c r="B72" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="13">
@@ -5131,7 +5135,7 @@
       <c r="B73" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D73" s="13">
@@ -5163,7 +5167,7 @@
       <c r="B74" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D74" s="13">
@@ -5192,7 +5196,7 @@
       <c r="B75" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D75" s="13">
@@ -5221,7 +5225,7 @@
       <c r="B76" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D76" s="13">
@@ -5250,7 +5254,7 @@
       <c r="B77" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D77" s="13">
@@ -5279,7 +5283,7 @@
       <c r="B78" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D78" s="13">
@@ -5308,7 +5312,7 @@
       <c r="B79" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D79" s="13">
@@ -5337,7 +5341,7 @@
       <c r="B80" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D80" s="13">
@@ -5366,7 +5370,7 @@
       <c r="B81" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D81" s="13">
@@ -5656,7 +5660,7 @@
       <c r="B91" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="13">
@@ -5685,7 +5689,7 @@
       <c r="B92" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="13">
@@ -5714,7 +5718,7 @@
       <c r="B93" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="13">
@@ -5743,7 +5747,7 @@
       <c r="B94" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D94" s="13">
@@ -5772,7 +5776,7 @@
       <c r="B95" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="44" t="s">
+      <c r="C95" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D95" s="13">
@@ -5801,7 +5805,7 @@
       <c r="B96" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D96" s="13">
@@ -5830,7 +5834,7 @@
       <c r="B97" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D97" s="13">
@@ -5859,7 +5863,7 @@
       <c r="B98" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D98" s="13">
@@ -5888,7 +5892,7 @@
       <c r="B99" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="40" t="s">
         <v>368</v>
       </c>
       <c r="D99" s="13">
@@ -8339,16 +8343,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -8363,7 +8367,7 @@
     <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -8424,8 +8428,11 @@
       <c r="T1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8469,7 +8476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8513,7 +8520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8560,7 +8567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8597,7 +8604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8641,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8682,7 +8689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8723,7 +8730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8764,7 +8771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8845,8 +8852,11 @@
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8925,7 +8935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8966,7 +8976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9007,7 +9017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9048,7 +9058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9089,7 +9099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9210,7 +9220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9251,7 +9261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9275,7 +9285,7 @@
         <v>413</v>
       </c>
       <c r="P22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -9284,7 +9294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9333,8 +9343,11 @@
       <c r="R23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9367,8 +9380,11 @@
       <c r="R24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9404,8 +9420,11 @@
       <c r="R25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9454,8 +9473,11 @@
       <c r="R26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9488,8 +9510,11 @@
       <c r="R27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9525,8 +9550,11 @@
       <c r="R28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9568,8 +9596,11 @@
       <c r="R29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9602,8 +9633,11 @@
       <c r="R30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9639,8 +9673,11 @@
       <c r="R31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9676,8 +9713,11 @@
       <c r="R32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9715,7 +9755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9740,8 +9780,11 @@
       <c r="R34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9775,7 +9818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9809,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9843,7 +9886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9877,8 +9920,11 @@
       <c r="R38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9923,7 +9969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9958,7 +10004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9996,7 +10042,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10030,7 +10076,7 @@
         <v>412</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -10038,8 +10084,11 @@
       <c r="S42">
         <v>2005</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10073,7 +10122,7 @@
         <v>412</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -10081,8 +10130,11 @@
       <c r="S43">
         <v>2005</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10116,7 +10168,7 @@
         <v>412</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -10124,8 +10176,11 @@
       <c r="S44">
         <v>2005</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10159,7 +10214,7 @@
         <v>412</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -10167,8 +10222,11 @@
       <c r="S45">
         <v>2005</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10202,7 +10260,7 @@
         <v>412</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -10210,8 +10268,11 @@
       <c r="S46">
         <v>2005</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10247,7 +10308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10292,7 +10353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10323,7 +10384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10359,7 +10420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10404,7 +10465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10435,7 +10496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10471,7 +10532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10516,7 +10577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10547,7 +10608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10594,7 +10655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10641,7 +10702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10683,7 +10744,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10721,7 +10782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10760,7 +10821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10808,7 +10869,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10843,7 +10904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10880,8 +10941,11 @@
       <c r="T63">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10918,8 +10982,11 @@
       <c r="T64">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10956,8 +11023,11 @@
       <c r="T65">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10994,8 +11064,11 @@
       <c r="T66">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11032,8 +11105,11 @@
       <c r="T67">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11070,8 +11146,11 @@
       <c r="T68">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11108,8 +11187,11 @@
       <c r="T69">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11146,8 +11228,11 @@
       <c r="T70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11189,7 +11274,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11231,7 +11316,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11273,7 +11358,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11315,7 +11400,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11357,7 +11442,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11399,7 +11484,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11441,7 +11526,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13630,11 +13715,11 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
@@ -13661,9 +13746,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
@@ -13690,9 +13775,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
@@ -13719,9 +13804,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
@@ -13748,9 +13833,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
@@ -13775,9 +13860,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
@@ -13804,9 +13889,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
@@ -13837,9 +13922,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
@@ -13866,9 +13951,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
@@ -13895,9 +13980,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
@@ -13926,9 +14011,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
@@ -13953,9 +14038,9 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
@@ -13982,9 +14067,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
@@ -14011,9 +14096,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
@@ -14038,9 +14123,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
@@ -14067,9 +14152,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
@@ -14096,9 +14181,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
@@ -14125,9 +14210,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
@@ -14154,9 +14239,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
@@ -14185,9 +14270,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
@@ -14212,9 +14297,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
@@ -14239,9 +14324,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
@@ -14272,9 +14357,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -14299,9 +14384,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
@@ -14328,9 +14413,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
@@ -14355,9 +14440,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
@@ -14622,544 +14707,544 @@
       <c r="V41" s="33"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
     </row>
     <row r="49" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
     </row>
     <row r="50" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
     </row>
     <row r="51" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
     </row>
     <row r="52" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
     </row>
     <row r="53" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
     </row>
     <row r="54" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
     </row>
     <row r="55" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
     </row>
     <row r="56" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
     </row>
     <row r="57" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
     </row>
     <row r="58" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
     </row>
     <row r="59" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
     </row>
     <row r="60" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
     </row>
     <row r="61" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
     </row>
     <row r="62" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
     </row>
     <row r="63" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
     </row>
     <row r="64" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
     </row>
     <row r="65" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
     </row>
     <row r="66" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
     </row>
     <row r="67" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
     </row>
     <row r="68" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
     </row>
     <row r="69" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
     </row>
     <row r="70" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
     </row>
     <row r="71" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
     </row>
     <row r="72" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
     </row>
     <row r="73" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
     </row>
     <row r="74" spans="8:22" x14ac:dyDescent="0.15">
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/share/data/design/技能.xlsx
+++ b/share/data/design/技能.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="6" r:id="rId1"/>
@@ -2960,9 +2960,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6872,7 +6872,7 @@
         <v>34</v>
       </c>
       <c r="E128">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F128">
         <v>1000</v>
@@ -6901,10 +6901,10 @@
         <v>34</v>
       </c>
       <c r="E129">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F129">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -6930,10 +6930,10 @@
         <v>34</v>
       </c>
       <c r="E130">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F130">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -6959,10 +6959,10 @@
         <v>34</v>
       </c>
       <c r="E131">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F131">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -6988,10 +6988,10 @@
         <v>34</v>
       </c>
       <c r="E132">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F132">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -7017,10 +7017,7 @@
         <v>34</v>
       </c>
       <c r="E133">
-        <v>5000</v>
-      </c>
-      <c r="F133">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -7046,10 +7043,7 @@
         <v>34</v>
       </c>
       <c r="E134">
-        <v>5000</v>
-      </c>
-      <c r="F134">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -7075,10 +7069,7 @@
         <v>34</v>
       </c>
       <c r="E135">
-        <v>5000</v>
-      </c>
-      <c r="F135">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -8345,7 +8336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
